--- a/PowerBI_Dataset/xlsx/df_em.xlsx
+++ b/PowerBI_Dataset/xlsx/df_em.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="295">
+  <si>
+    <t>proponente</t>
+  </si>
   <si>
     <t>processo</t>
   </si>
@@ -55,13 +58,244 @@
     <t>pendencia_28/12</t>
   </si>
   <si>
-    <t>proponente</t>
-  </si>
-  <si>
     <t>prop_pk1</t>
   </si>
   <si>
     <t>prop_pk2</t>
+  </si>
+  <si>
+    <t>BANCADA-AL</t>
+  </si>
+  <si>
+    <t>BANCADA-MG</t>
+  </si>
+  <si>
+    <t>MISAEL VARELLA</t>
+  </si>
+  <si>
+    <t>GILBERTO ABRAMO</t>
+  </si>
+  <si>
+    <t>EUCLYDES PETTERSEN</t>
+  </si>
+  <si>
+    <t>AUREA CAROLINA</t>
+  </si>
+  <si>
+    <t>ANTONIO ANASTASIA</t>
+  </si>
+  <si>
+    <t>JULIO DELGADO</t>
+  </si>
+  <si>
+    <t>EROS BIONDINI</t>
+  </si>
+  <si>
+    <t>BILAC PINTO</t>
+  </si>
+  <si>
+    <t>EDUARDO BARBOSA</t>
+  </si>
+  <si>
+    <t>MAURO LOPES</t>
+  </si>
+  <si>
+    <t>ANDRE JANONES</t>
+  </si>
+  <si>
+    <t>PAULO GUEDES</t>
+  </si>
+  <si>
+    <t>SUBTENENTE GONZAGA</t>
+  </si>
+  <si>
+    <t>IGOR TIMO</t>
+  </si>
+  <si>
+    <t>PATRUS ANANIAS</t>
+  </si>
+  <si>
+    <t>FREDERICO</t>
+  </si>
+  <si>
+    <t>MARIO HERINGER</t>
+  </si>
+  <si>
+    <t>LUIS TIBE</t>
+  </si>
+  <si>
+    <t>LEONARDO MONTEIRO</t>
+  </si>
+  <si>
+    <t>CABO JUNIO AMARAL BANCADA</t>
+  </si>
+  <si>
+    <t>LUCAS GONZALEZ</t>
+  </si>
+  <si>
+    <t>VILSON DA FETAEMG</t>
+  </si>
+  <si>
+    <t>NEWTON CARDOSO</t>
+  </si>
+  <si>
+    <t>CARLOS VIANA</t>
+  </si>
+  <si>
+    <t>RODRIGO PACHECO</t>
+  </si>
+  <si>
+    <t>ZE SILVA</t>
+  </si>
+  <si>
+    <t>LINCOLN PORTELA</t>
+  </si>
+  <si>
+    <t>AECIO NEVES</t>
+  </si>
+  <si>
+    <t>DIMAS FABIANO</t>
+  </si>
+  <si>
+    <t>CHARLES EVANGELISTA</t>
+  </si>
+  <si>
+    <t>ZE VITOR</t>
+  </si>
+  <si>
+    <t>DELEGADO MARCELO FREITAS</t>
+  </si>
+  <si>
+    <t>STEFANO AGUIAR</t>
+  </si>
+  <si>
+    <t>WELITON PRADO</t>
+  </si>
+  <si>
+    <t>FRANCO CARTAFINA</t>
+  </si>
+  <si>
+    <t>PAULO ABI ACKEL</t>
+  </si>
+  <si>
+    <t>MARCELO ARO</t>
+  </si>
+  <si>
+    <t>ROGERIO CORREIA</t>
+  </si>
+  <si>
+    <t>PADRE JOAO</t>
+  </si>
+  <si>
+    <t>BANCADA-SP</t>
+  </si>
+  <si>
+    <t>BANCADA-ES</t>
+  </si>
+  <si>
+    <t>NEUCIMAR FRAGA</t>
+  </si>
+  <si>
+    <t>DEPA. LAURIETE</t>
+  </si>
+  <si>
+    <t>AMARO NETO</t>
+  </si>
+  <si>
+    <t>EVAIR DE MELO</t>
+  </si>
+  <si>
+    <t>DA VITORIA</t>
+  </si>
+  <si>
+    <t>BANCADA-MA</t>
+  </si>
+  <si>
+    <t>GASTAO VIEIRA</t>
+  </si>
+  <si>
+    <t>BANCADA-PA</t>
+  </si>
+  <si>
+    <t>ALICE PORTUGAL</t>
+  </si>
+  <si>
+    <t>CELSO SABINO</t>
+  </si>
+  <si>
+    <t>CONFUCIO MOURA</t>
+  </si>
+  <si>
+    <t>CORONEL CHRISOSTOMO</t>
+  </si>
+  <si>
+    <t>EDNA HENRIQUE</t>
+  </si>
+  <si>
+    <t>ELIAS VAZ</t>
+  </si>
+  <si>
+    <t>EXPEDITO NETTO</t>
+  </si>
+  <si>
+    <t>FABIO REIS</t>
+  </si>
+  <si>
+    <t>FLAVIA ARRUDA</t>
+  </si>
+  <si>
+    <t>FLAVIANO MELO</t>
+  </si>
+  <si>
+    <t>GENERAL GIRAO</t>
+  </si>
+  <si>
+    <t>JOAO ROMA</t>
+  </si>
+  <si>
+    <t>JOENIA WAPICHANA</t>
+  </si>
+  <si>
+    <t>JOSE MEDEIROS</t>
+  </si>
+  <si>
+    <t>JOSE NUNES</t>
+  </si>
+  <si>
+    <t>JOSIVALDO JP</t>
+  </si>
+  <si>
+    <t>CABO JUNIO AMARAL</t>
+  </si>
+  <si>
+    <t>JUNIOR LOURENCO</t>
+  </si>
+  <si>
+    <t>LEO DE BRITO</t>
+  </si>
+  <si>
+    <t>LEUR LOMANTO</t>
+  </si>
+  <si>
+    <t>LUCIANO BIVAR</t>
+  </si>
+  <si>
+    <t>MARA ROCHA</t>
+  </si>
+  <si>
+    <t>MARX BELTRAO</t>
+  </si>
+  <si>
+    <t>PERPETUA ALMEIDA</t>
+  </si>
+  <si>
+    <t>SERGIO PETECAO</t>
+  </si>
+  <si>
+    <t>SORAYA THRONICKE</t>
+  </si>
+  <si>
+    <t>ULDURICO JUNIOR</t>
   </si>
   <si>
     <t>53115.015934/2021-58</t>
@@ -713,288 +947,6 @@
   </si>
   <si>
     <t>Indicar mais pontos</t>
-  </si>
-  <si>
-    <t>BANCADA AL</t>
-  </si>
-  <si>
-    <t>BANCADA MG</t>
-  </si>
-  <si>
-    <t>MISAEL VARELLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GILBERTO ABRAMO </t>
-  </si>
-  <si>
-    <t>EUCLYDES PETTERSEN</t>
-  </si>
-  <si>
-    <t>AUREA CAROLINA</t>
-  </si>
-  <si>
-    <t>ANTONIO ANASTASIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JULIO DELGADO </t>
-  </si>
-  <si>
-    <t>EROS BIONDINI</t>
-  </si>
-  <si>
-    <t>BILAC PINTO</t>
-  </si>
-  <si>
-    <t>EDUARDO BARBOSA</t>
-  </si>
-  <si>
-    <t>MAURO LOPES</t>
-  </si>
-  <si>
-    <t>ANDRE JANONES</t>
-  </si>
-  <si>
-    <t>PAULO GUEDES</t>
-  </si>
-  <si>
-    <t>SUBTENENTE GONZAGA</t>
-  </si>
-  <si>
-    <t>IGOR TIMO</t>
-  </si>
-  <si>
-    <t>PATRUS ANANIAS</t>
-  </si>
-  <si>
-    <t>FREDERICO</t>
-  </si>
-  <si>
-    <t>MARIO HERINGER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUIS TIBE </t>
-  </si>
-  <si>
-    <t>LEONARDO MONTEIRO</t>
-  </si>
-  <si>
-    <t>CABO JUNIO AMARAL BANCADA</t>
-  </si>
-  <si>
-    <t>LUCAS GONZALEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VILSON DA FETAEMG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEWTON CARDOSO </t>
-  </si>
-  <si>
-    <t>CARLOS VIANA</t>
-  </si>
-  <si>
-    <t>RODRIGO PACHECO</t>
-  </si>
-  <si>
-    <t>ZE SILVA</t>
-  </si>
-  <si>
-    <t>LINCOLN PORTELA</t>
-  </si>
-  <si>
-    <t>AECIO NEVES</t>
-  </si>
-  <si>
-    <t>DIMAS FABIANO</t>
-  </si>
-  <si>
-    <t>CHARLES EVANGELISTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZE VITOR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DELEGADO MARCELO FREITAS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">STEFANO AGUIAR </t>
-  </si>
-  <si>
-    <t>WELITON PRADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRANCO CARTAFINA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAULO ABI ACKEL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARCELO ARO </t>
-  </si>
-  <si>
-    <t>ROGERIO CORREIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PADRE JOAO </t>
-  </si>
-  <si>
-    <t>BANCADA SP</t>
-  </si>
-  <si>
-    <t>BANCADA ES</t>
-  </si>
-  <si>
-    <t>NEUCIMAR FRAGA</t>
-  </si>
-  <si>
-    <t>DEPA. LAURIETE</t>
-  </si>
-  <si>
-    <t>AMARO NETO</t>
-  </si>
-  <si>
-    <t>EVAIR DE MELO</t>
-  </si>
-  <si>
-    <t>DA VITORIA</t>
-  </si>
-  <si>
-    <t>BANCADA MA</t>
-  </si>
-  <si>
-    <t>GASTAO VIEIRA</t>
-  </si>
-  <si>
-    <t>BANCADA PA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALICE PORTUGAL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CELSO SABINO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONFUCIO MOURA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORONEL CHRISOSTOMO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIMAS FABIANO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDNA HENRIQUE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ELIAS VAZ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXPEDITO NETTO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FABIO REIS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLAVIA ARRUDA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLAVIANO MELO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GENERAL GIRAO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOAO ROMA </t>
-  </si>
-  <si>
-    <t>JOENIA WAPICHANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOSE MEDEIROS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOSE NUNES </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOSIVALDO JP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CABO JUNIO AMARAL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JUNIOR LOURENCO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEO DE BRITO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEUR LOMANTO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUCIANO BIVAR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARA ROCHA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARX BELTRAO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PERPETUA ALMEIDA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERGIO PETECAO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SORAYA THRONICKE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ULDURICO JUNIOR </t>
-  </si>
-  <si>
-    <t>BANCADA-AL</t>
-  </si>
-  <si>
-    <t>BANCADA-MG</t>
-  </si>
-  <si>
-    <t>DIMAS FABIANO TOLEDO JUNIOR</t>
-  </si>
-  <si>
-    <t>BANCADA-ES</t>
-  </si>
-  <si>
-    <t>NEUCIMAR FERREIRA FRAGA</t>
-  </si>
-  <si>
-    <t>EVAIR VIEIRA DE MELO</t>
-  </si>
-  <si>
-    <t>BANCADA-MA</t>
-  </si>
-  <si>
-    <t>JOENIA BATISTA DE CARVALHO</t>
-  </si>
-  <si>
-    <t>SEN. ANTONIO ANASTASIA</t>
-  </si>
-  <si>
-    <t>SEN. CARLOS VIANA</t>
-  </si>
-  <si>
-    <t>SEN. RODRIGO PACHECO</t>
-  </si>
-  <si>
-    <t>DEP. DIMAS FABIANO TOLEDO JUNIOR</t>
-  </si>
-  <si>
-    <t>DEP. NEUCIMAR FERREIRA FRAGA</t>
-  </si>
-  <si>
-    <t>DEP. EVAIR VIEIRA DE MELO</t>
-  </si>
-  <si>
-    <t>DEP. JOENIA BATISTA DE CARVALHO</t>
   </si>
 </sst>
 </file>
@@ -1420,40 +1372,34 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2">
         <v>11200212</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>248.8936</v>
-      </c>
-      <c r="G2">
-        <v>286</v>
       </c>
       <c r="H2">
         <v>286</v>
       </c>
       <c r="I2">
+        <v>286</v>
+      </c>
+      <c r="J2">
         <v>223</v>
       </c>
-      <c r="J2" t="s">
-        <v>118</v>
-      </c>
-      <c r="K2" s="2">
+      <c r="K2" t="s">
+        <v>196</v>
+      </c>
+      <c r="L2" s="2">
         <v>44425</v>
       </c>
-      <c r="L2" t="s">
-        <v>190</v>
-      </c>
-      <c r="O2" t="s">
-        <v>217</v>
-      </c>
-      <c r="P2" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>296</v>
+      <c r="M2" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1464,36 +1410,30 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3">
+        <v>95</v>
+      </c>
+      <c r="D3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3">
         <v>18816356</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>627.2118666666667</v>
       </c>
-      <c r="J3" t="s">
-        <v>119</v>
-      </c>
-      <c r="O3" t="s">
-        <v>218</v>
-      </c>
-      <c r="P3" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>297</v>
+      <c r="K3" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4">
-        <v>11</v>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>118</v>
       </c>
       <c r="H4">
         <v>11</v>
@@ -1501,60 +1441,60 @@
       <c r="I4">
         <v>11</v>
       </c>
-      <c r="J4" t="s">
-        <v>120</v>
-      </c>
-      <c r="K4" s="2">
+      <c r="J4">
+        <v>11</v>
+      </c>
+      <c r="K4" t="s">
+        <v>198</v>
+      </c>
+      <c r="L4" s="2">
         <v>44384</v>
       </c>
-      <c r="L4" s="2">
+      <c r="M4" s="2">
         <v>44511</v>
       </c>
-      <c r="M4" t="s">
-        <v>191</v>
-      </c>
-      <c r="O4" t="s">
-        <v>219</v>
+      <c r="N4" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5">
-        <v>6</v>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>119</v>
       </c>
       <c r="H5">
         <v>6</v>
       </c>
       <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
         <v>5</v>
       </c>
-      <c r="J5" t="s">
-        <v>121</v>
-      </c>
       <c r="K5" t="s">
-        <v>188</v>
-      </c>
-      <c r="N5" t="s">
-        <v>200</v>
+        <v>199</v>
+      </c>
+      <c r="L5" t="s">
+        <v>266</v>
       </c>
       <c r="O5" t="s">
-        <v>220</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6">
-        <v>11</v>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>120</v>
       </c>
       <c r="H6">
         <v>11</v>
@@ -1562,31 +1502,31 @@
       <c r="I6">
         <v>11</v>
       </c>
-      <c r="J6" t="s">
-        <v>122</v>
-      </c>
-      <c r="K6" s="2">
+      <c r="J6">
+        <v>11</v>
+      </c>
+      <c r="K6" t="s">
+        <v>200</v>
+      </c>
+      <c r="L6" s="2">
         <v>44383</v>
       </c>
-      <c r="L6" s="2">
+      <c r="M6" s="2">
         <v>44386</v>
       </c>
-      <c r="M6" t="s">
-        <v>191</v>
-      </c>
-      <c r="O6" t="s">
-        <v>221</v>
+      <c r="N6" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7">
-        <v>11</v>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>121</v>
       </c>
       <c r="H7">
         <v>11</v>
@@ -1594,31 +1534,31 @@
       <c r="I7">
         <v>11</v>
       </c>
-      <c r="J7" t="s">
-        <v>123</v>
-      </c>
-      <c r="K7" s="2">
+      <c r="J7">
+        <v>11</v>
+      </c>
+      <c r="K7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L7" s="2">
         <v>44424</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44468</v>
       </c>
-      <c r="M7" t="s">
-        <v>191</v>
-      </c>
-      <c r="O7" t="s">
-        <v>222</v>
+      <c r="N7" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8">
-        <v>11</v>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>122</v>
       </c>
       <c r="H8">
         <v>11</v>
@@ -1626,69 +1566,63 @@
       <c r="I8">
         <v>11</v>
       </c>
-      <c r="J8" t="s">
-        <v>124</v>
-      </c>
-      <c r="K8" s="2">
+      <c r="J8">
+        <v>11</v>
+      </c>
+      <c r="K8" t="s">
+        <v>202</v>
+      </c>
+      <c r="L8" s="2">
         <v>44384</v>
       </c>
-      <c r="L8" s="2">
+      <c r="M8" s="2">
         <v>44482</v>
       </c>
-      <c r="M8" t="s">
-        <v>191</v>
-      </c>
-      <c r="O8" t="s">
-        <v>223</v>
-      </c>
-      <c r="P8" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>304</v>
+      <c r="N8" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9">
-        <v>11</v>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>123</v>
       </c>
       <c r="H9">
         <v>11</v>
       </c>
       <c r="I9">
+        <v>11</v>
+      </c>
+      <c r="J9">
         <v>9</v>
       </c>
-      <c r="J9" t="s">
-        <v>125</v>
-      </c>
-      <c r="K9" s="2">
+      <c r="K9" t="s">
+        <v>203</v>
+      </c>
+      <c r="L9" s="2">
         <v>44389</v>
       </c>
-      <c r="M9" t="s">
-        <v>191</v>
-      </c>
       <c r="N9" t="s">
-        <v>201</v>
+        <v>269</v>
       </c>
       <c r="O9" t="s">
-        <v>224</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10">
-        <v>11</v>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>124</v>
       </c>
       <c r="H10">
         <v>11</v>
@@ -1696,31 +1630,31 @@
       <c r="I10">
         <v>11</v>
       </c>
-      <c r="J10" t="s">
-        <v>126</v>
-      </c>
-      <c r="K10" s="2">
+      <c r="J10">
+        <v>11</v>
+      </c>
+      <c r="K10" t="s">
+        <v>204</v>
+      </c>
+      <c r="L10" s="2">
         <v>44391</v>
       </c>
-      <c r="L10" s="2">
+      <c r="M10" s="2">
         <v>44425</v>
       </c>
-      <c r="M10" t="s">
-        <v>192</v>
-      </c>
-      <c r="O10" t="s">
-        <v>225</v>
+      <c r="N10" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11">
-        <v>11</v>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>125</v>
       </c>
       <c r="H11">
         <v>11</v>
@@ -1728,31 +1662,31 @@
       <c r="I11">
         <v>11</v>
       </c>
-      <c r="J11" t="s">
-        <v>127</v>
-      </c>
-      <c r="K11" s="2">
+      <c r="J11">
+        <v>11</v>
+      </c>
+      <c r="K11" t="s">
+        <v>205</v>
+      </c>
+      <c r="L11" s="2">
         <v>44389</v>
       </c>
-      <c r="L11" s="2">
+      <c r="M11" s="2">
         <v>44391</v>
       </c>
-      <c r="M11" t="s">
-        <v>193</v>
-      </c>
-      <c r="O11" t="s">
-        <v>226</v>
+      <c r="N11" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12">
-        <v>11</v>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>126</v>
       </c>
       <c r="H12">
         <v>11</v>
@@ -1760,31 +1694,31 @@
       <c r="I12">
         <v>11</v>
       </c>
-      <c r="J12" t="s">
-        <v>128</v>
-      </c>
-      <c r="K12" s="2">
+      <c r="J12">
+        <v>11</v>
+      </c>
+      <c r="K12" t="s">
+        <v>206</v>
+      </c>
+      <c r="L12" s="2">
         <v>44391</v>
       </c>
-      <c r="L12" s="2">
+      <c r="M12" s="2">
         <v>44404</v>
       </c>
-      <c r="M12" t="s">
-        <v>194</v>
-      </c>
-      <c r="O12" t="s">
-        <v>227</v>
+      <c r="N12" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>13</v>
       </c>
-      <c r="C13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13">
-        <v>11</v>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>127</v>
       </c>
       <c r="H13">
         <v>11</v>
@@ -1792,31 +1726,31 @@
       <c r="I13">
         <v>11</v>
       </c>
-      <c r="J13" t="s">
-        <v>129</v>
-      </c>
-      <c r="K13" s="2">
+      <c r="J13">
+        <v>11</v>
+      </c>
+      <c r="K13" t="s">
+        <v>207</v>
+      </c>
+      <c r="L13" s="2">
         <v>44392</v>
       </c>
-      <c r="L13" s="2">
+      <c r="M13" s="2">
         <v>44505</v>
       </c>
-      <c r="M13" t="s">
-        <v>193</v>
-      </c>
-      <c r="O13" t="s">
-        <v>228</v>
+      <c r="N13" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>14</v>
       </c>
-      <c r="C14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14">
-        <v>11</v>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>128</v>
       </c>
       <c r="H14">
         <v>11</v>
@@ -1824,31 +1758,31 @@
       <c r="I14">
         <v>11</v>
       </c>
-      <c r="J14" t="s">
-        <v>130</v>
-      </c>
-      <c r="K14" s="2">
+      <c r="J14">
+        <v>11</v>
+      </c>
+      <c r="K14" t="s">
+        <v>208</v>
+      </c>
+      <c r="L14" s="2">
         <v>44389</v>
       </c>
-      <c r="L14" s="2">
+      <c r="M14" s="2">
         <v>44419</v>
       </c>
-      <c r="M14" t="s">
-        <v>195</v>
-      </c>
-      <c r="O14" t="s">
-        <v>229</v>
+      <c r="N14" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>15</v>
       </c>
-      <c r="C15" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15">
-        <v>11</v>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>129</v>
       </c>
       <c r="H15">
         <v>11</v>
@@ -1856,31 +1790,31 @@
       <c r="I15">
         <v>11</v>
       </c>
-      <c r="J15" t="s">
-        <v>131</v>
-      </c>
-      <c r="K15" s="2">
+      <c r="J15">
+        <v>11</v>
+      </c>
+      <c r="K15" t="s">
+        <v>209</v>
+      </c>
+      <c r="L15" s="2">
         <v>44390</v>
       </c>
-      <c r="L15" s="2">
+      <c r="M15" s="2">
         <v>44406</v>
       </c>
-      <c r="M15" t="s">
-        <v>193</v>
-      </c>
-      <c r="O15" t="s">
-        <v>230</v>
+      <c r="N15" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>16</v>
       </c>
-      <c r="C16" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16">
-        <v>11</v>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>130</v>
       </c>
       <c r="H16">
         <v>11</v>
@@ -1888,31 +1822,31 @@
       <c r="I16">
         <v>11</v>
       </c>
-      <c r="J16" t="s">
-        <v>132</v>
-      </c>
-      <c r="K16" s="2">
+      <c r="J16">
+        <v>11</v>
+      </c>
+      <c r="K16" t="s">
+        <v>210</v>
+      </c>
+      <c r="L16" s="2">
         <v>44389</v>
       </c>
-      <c r="L16" s="2">
+      <c r="M16" s="2">
         <v>44477</v>
       </c>
-      <c r="M16" t="s">
-        <v>196</v>
-      </c>
-      <c r="O16" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="N16" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>17</v>
       </c>
-      <c r="C17" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17">
-        <v>11</v>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>131</v>
       </c>
       <c r="H17">
         <v>11</v>
@@ -1920,34 +1854,34 @@
       <c r="I17">
         <v>11</v>
       </c>
-      <c r="J17" t="s">
-        <v>133</v>
-      </c>
-      <c r="K17" s="2">
+      <c r="J17">
+        <v>11</v>
+      </c>
+      <c r="K17" t="s">
+        <v>211</v>
+      </c>
+      <c r="L17" s="2">
         <v>44391</v>
       </c>
-      <c r="L17" s="2">
+      <c r="M17" s="2">
         <v>44399</v>
       </c>
-      <c r="M17" t="s">
-        <v>192</v>
-      </c>
-      <c r="O17" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="N17" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18">
-        <v>11</v>
+        <v>96</v>
+      </c>
+      <c r="D18" t="s">
+        <v>132</v>
       </c>
       <c r="H18">
         <v>11</v>
@@ -1955,31 +1889,31 @@
       <c r="I18">
         <v>11</v>
       </c>
-      <c r="J18" t="s">
-        <v>134</v>
-      </c>
-      <c r="K18" s="2">
+      <c r="J18">
+        <v>11</v>
+      </c>
+      <c r="K18" t="s">
+        <v>212</v>
+      </c>
+      <c r="L18" s="2">
         <v>44386</v>
       </c>
-      <c r="L18" s="2">
+      <c r="M18" s="2">
         <v>44456</v>
       </c>
-      <c r="M18" t="s">
-        <v>197</v>
-      </c>
-      <c r="O18" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="N18" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>19</v>
       </c>
-      <c r="C19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19">
-        <v>11</v>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" t="s">
+        <v>133</v>
       </c>
       <c r="H19">
         <v>11</v>
@@ -1987,31 +1921,31 @@
       <c r="I19">
         <v>11</v>
       </c>
-      <c r="J19" t="s">
-        <v>135</v>
-      </c>
-      <c r="K19" s="2">
+      <c r="J19">
+        <v>11</v>
+      </c>
+      <c r="K19" t="s">
+        <v>213</v>
+      </c>
+      <c r="L19" s="2">
         <v>44389</v>
       </c>
-      <c r="L19" s="2">
+      <c r="M19" s="2">
         <v>44392</v>
       </c>
-      <c r="M19" t="s">
-        <v>198</v>
-      </c>
-      <c r="O19" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="N19" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>20</v>
       </c>
-      <c r="C20" t="s">
-        <v>56</v>
-      </c>
-      <c r="G20">
-        <v>11</v>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" t="s">
+        <v>134</v>
       </c>
       <c r="H20">
         <v>11</v>
@@ -2019,57 +1953,57 @@
       <c r="I20">
         <v>11</v>
       </c>
-      <c r="J20" t="s">
-        <v>136</v>
-      </c>
-      <c r="K20" s="2">
+      <c r="J20">
+        <v>11</v>
+      </c>
+      <c r="K20" t="s">
+        <v>214</v>
+      </c>
+      <c r="L20" s="2">
         <v>44414</v>
       </c>
-      <c r="L20" s="2">
+      <c r="M20" s="2">
         <v>44440</v>
       </c>
-      <c r="O20" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>21</v>
       </c>
-      <c r="C21" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21">
-        <v>11</v>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" t="s">
+        <v>135</v>
       </c>
       <c r="H21">
         <v>11</v>
       </c>
       <c r="I21">
+        <v>11</v>
+      </c>
+      <c r="J21">
         <v>5</v>
       </c>
-      <c r="J21" t="s">
-        <v>137</v>
-      </c>
-      <c r="K21" s="2">
+      <c r="K21" t="s">
+        <v>215</v>
+      </c>
+      <c r="L21" s="2">
         <v>44418</v>
       </c>
-      <c r="N21" t="s">
-        <v>202</v>
-      </c>
       <c r="O21" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>22</v>
       </c>
-      <c r="C22" t="s">
-        <v>58</v>
-      </c>
-      <c r="G22">
-        <v>11</v>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" t="s">
+        <v>136</v>
       </c>
       <c r="H22">
         <v>11</v>
@@ -2077,28 +2011,28 @@
       <c r="I22">
         <v>11</v>
       </c>
-      <c r="J22" t="s">
-        <v>138</v>
-      </c>
-      <c r="K22" s="2">
+      <c r="J22">
+        <v>11</v>
+      </c>
+      <c r="K22" t="s">
+        <v>216</v>
+      </c>
+      <c r="L22" s="2">
         <v>44424</v>
       </c>
-      <c r="L22" s="2">
+      <c r="M22" s="2">
         <v>44435</v>
       </c>
-      <c r="O22" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>23</v>
       </c>
-      <c r="C23" t="s">
-        <v>59</v>
-      </c>
-      <c r="G23">
-        <v>11</v>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" t="s">
+        <v>137</v>
       </c>
       <c r="H23">
         <v>11</v>
@@ -2106,28 +2040,28 @@
       <c r="I23">
         <v>11</v>
       </c>
-      <c r="J23" t="s">
-        <v>139</v>
-      </c>
-      <c r="K23" s="2">
+      <c r="J23">
+        <v>11</v>
+      </c>
+      <c r="K23" t="s">
+        <v>217</v>
+      </c>
+      <c r="L23" s="2">
         <v>44428</v>
       </c>
-      <c r="L23" s="2">
+      <c r="M23" s="2">
         <v>44551</v>
       </c>
-      <c r="O23" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>60</v>
-      </c>
-      <c r="G24">
-        <v>10</v>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s">
+        <v>138</v>
       </c>
       <c r="H24">
         <v>10</v>
@@ -2135,86 +2069,86 @@
       <c r="I24">
         <v>10</v>
       </c>
-      <c r="J24" t="s">
-        <v>140</v>
-      </c>
-      <c r="K24" s="2">
+      <c r="J24">
+        <v>10</v>
+      </c>
+      <c r="K24" t="s">
+        <v>218</v>
+      </c>
+      <c r="L24" s="2">
         <v>44431</v>
       </c>
-      <c r="L24" s="2">
+      <c r="M24" s="2">
         <v>44470</v>
       </c>
-      <c r="O24" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>61</v>
-      </c>
-      <c r="G25">
-        <v>11</v>
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" t="s">
+        <v>139</v>
       </c>
       <c r="H25">
         <v>11</v>
       </c>
       <c r="I25">
+        <v>11</v>
+      </c>
+      <c r="J25">
         <v>9</v>
       </c>
-      <c r="J25" t="s">
-        <v>141</v>
-      </c>
-      <c r="K25" s="2">
+      <c r="K25" t="s">
+        <v>219</v>
+      </c>
+      <c r="L25" s="2">
         <v>44438</v>
       </c>
-      <c r="N25" t="s">
-        <v>203</v>
-      </c>
       <c r="O25" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="1">
         <v>26</v>
       </c>
-      <c r="C26" t="s">
-        <v>62</v>
-      </c>
-      <c r="G26">
-        <v>11</v>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" t="s">
+        <v>140</v>
       </c>
       <c r="H26">
         <v>11</v>
       </c>
       <c r="I26">
+        <v>11</v>
+      </c>
+      <c r="J26">
         <v>10</v>
       </c>
-      <c r="J26" t="s">
-        <v>142</v>
-      </c>
-      <c r="K26" s="2">
+      <c r="K26" t="s">
+        <v>220</v>
+      </c>
+      <c r="L26" s="2">
         <v>44439</v>
       </c>
-      <c r="N26" t="s">
-        <v>204</v>
-      </c>
       <c r="O26" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="1">
         <v>27</v>
       </c>
-      <c r="C27" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27">
-        <v>11</v>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" t="s">
+        <v>141</v>
       </c>
       <c r="H27">
         <v>11</v>
@@ -2222,34 +2156,28 @@
       <c r="I27">
         <v>11</v>
       </c>
-      <c r="J27" t="s">
-        <v>143</v>
-      </c>
-      <c r="K27" s="2">
+      <c r="J27">
+        <v>11</v>
+      </c>
+      <c r="K27" t="s">
+        <v>221</v>
+      </c>
+      <c r="L27" s="2">
         <v>44439</v>
       </c>
-      <c r="L27" s="2">
+      <c r="M27" s="2">
         <v>44453</v>
       </c>
-      <c r="O27" t="s">
-        <v>242</v>
-      </c>
-      <c r="P27" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="1">
         <v>28</v>
       </c>
-      <c r="C28" t="s">
-        <v>64</v>
-      </c>
-      <c r="G28">
-        <v>11</v>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" t="s">
+        <v>142</v>
       </c>
       <c r="H28">
         <v>11</v>
@@ -2257,34 +2185,28 @@
       <c r="I28">
         <v>11</v>
       </c>
-      <c r="J28" t="s">
-        <v>144</v>
-      </c>
-      <c r="K28" s="2">
+      <c r="J28">
+        <v>11</v>
+      </c>
+      <c r="K28" t="s">
+        <v>222</v>
+      </c>
+      <c r="L28" s="2">
         <v>44453</v>
       </c>
-      <c r="L28" s="2">
+      <c r="M28" s="2">
         <v>44466</v>
       </c>
-      <c r="O28" t="s">
-        <v>243</v>
-      </c>
-      <c r="P28" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="1">
         <v>29</v>
       </c>
-      <c r="C29" t="s">
-        <v>65</v>
-      </c>
-      <c r="G29">
-        <v>11</v>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" t="s">
+        <v>143</v>
       </c>
       <c r="H29">
         <v>11</v>
@@ -2292,83 +2214,83 @@
       <c r="I29">
         <v>11</v>
       </c>
-      <c r="J29" t="s">
-        <v>140</v>
-      </c>
-      <c r="K29" s="2">
+      <c r="J29">
+        <v>11</v>
+      </c>
+      <c r="K29" t="s">
+        <v>218</v>
+      </c>
+      <c r="L29" s="2">
         <v>44459</v>
       </c>
-      <c r="O29" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="1">
         <v>30</v>
       </c>
-      <c r="C30" t="s">
-        <v>66</v>
-      </c>
-      <c r="G30">
-        <v>11</v>
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" t="s">
+        <v>144</v>
       </c>
       <c r="H30">
         <v>11</v>
       </c>
       <c r="I30">
+        <v>11</v>
+      </c>
+      <c r="J30">
         <v>7</v>
       </c>
-      <c r="J30" t="s">
-        <v>145</v>
-      </c>
-      <c r="K30" s="2">
+      <c r="K30" t="s">
+        <v>223</v>
+      </c>
+      <c r="L30" s="2">
         <v>44469</v>
       </c>
-      <c r="N30" t="s">
-        <v>205</v>
-      </c>
       <c r="O30" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="1">
         <v>31</v>
       </c>
-      <c r="C31" t="s">
-        <v>67</v>
-      </c>
-      <c r="G31">
-        <v>10</v>
+      <c r="B31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" t="s">
+        <v>145</v>
       </c>
       <c r="H31">
         <v>10</v>
       </c>
       <c r="I31">
+        <v>10</v>
+      </c>
+      <c r="J31">
         <v>7</v>
       </c>
-      <c r="J31" t="s">
-        <v>146</v>
-      </c>
-      <c r="K31" s="2">
+      <c r="K31" t="s">
+        <v>224</v>
+      </c>
+      <c r="L31" s="2">
         <v>44474</v>
       </c>
-      <c r="N31" t="s">
-        <v>206</v>
-      </c>
       <c r="O31" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="1">
         <v>32</v>
       </c>
-      <c r="C32" t="s">
-        <v>68</v>
-      </c>
-      <c r="G32">
-        <v>11</v>
+      <c r="B32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" t="s">
+        <v>146</v>
       </c>
       <c r="H32">
         <v>11</v>
@@ -2376,34 +2298,28 @@
       <c r="I32">
         <v>11</v>
       </c>
-      <c r="J32" t="s">
-        <v>147</v>
-      </c>
-      <c r="K32" s="2">
+      <c r="J32">
+        <v>11</v>
+      </c>
+      <c r="K32" t="s">
+        <v>225</v>
+      </c>
+      <c r="L32" s="2">
         <v>44483</v>
       </c>
-      <c r="L32" s="2">
+      <c r="M32" s="2">
         <v>44519</v>
       </c>
-      <c r="O32" t="s">
-        <v>247</v>
-      </c>
-      <c r="P32" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="1">
         <v>33</v>
       </c>
-      <c r="C33" t="s">
-        <v>69</v>
-      </c>
-      <c r="G33">
-        <v>11</v>
+      <c r="B33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" t="s">
+        <v>147</v>
       </c>
       <c r="H33">
         <v>11</v>
@@ -2411,112 +2327,112 @@
       <c r="I33">
         <v>11</v>
       </c>
-      <c r="J33" t="s">
-        <v>148</v>
-      </c>
-      <c r="K33" s="2">
+      <c r="J33">
+        <v>11</v>
+      </c>
+      <c r="K33" t="s">
+        <v>226</v>
+      </c>
+      <c r="L33" s="2">
         <v>44483</v>
       </c>
-      <c r="O33" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="1">
         <v>34</v>
       </c>
-      <c r="C34" t="s">
-        <v>70</v>
-      </c>
-      <c r="G34">
-        <v>11</v>
+      <c r="B34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" t="s">
+        <v>148</v>
       </c>
       <c r="H34">
         <v>11</v>
       </c>
       <c r="I34">
+        <v>11</v>
+      </c>
+      <c r="J34">
         <v>6</v>
       </c>
-      <c r="J34" t="s">
-        <v>149</v>
-      </c>
-      <c r="K34" s="2">
+      <c r="K34" t="s">
+        <v>227</v>
+      </c>
+      <c r="L34" s="2">
         <v>44483</v>
       </c>
-      <c r="N34" t="s">
-        <v>207</v>
-      </c>
       <c r="O34" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="1">
         <v>35</v>
       </c>
-      <c r="C35" t="s">
-        <v>71</v>
-      </c>
-      <c r="G35">
-        <v>11</v>
+      <c r="B35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" t="s">
+        <v>149</v>
       </c>
       <c r="H35">
         <v>11</v>
       </c>
       <c r="I35">
+        <v>11</v>
+      </c>
+      <c r="J35">
         <v>4</v>
       </c>
-      <c r="J35" t="s">
-        <v>150</v>
-      </c>
-      <c r="K35" s="2">
+      <c r="K35" t="s">
+        <v>228</v>
+      </c>
+      <c r="L35" s="2">
         <v>44483</v>
       </c>
-      <c r="N35" t="s">
-        <v>208</v>
-      </c>
       <c r="O35" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="1">
         <v>36</v>
       </c>
-      <c r="C36" t="s">
-        <v>72</v>
-      </c>
-      <c r="G36">
-        <v>11</v>
+      <c r="B36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" t="s">
+        <v>150</v>
       </c>
       <c r="H36">
         <v>11</v>
       </c>
       <c r="I36">
+        <v>11</v>
+      </c>
+      <c r="J36">
         <v>9</v>
       </c>
-      <c r="J36" t="s">
-        <v>151</v>
-      </c>
-      <c r="K36" s="2">
+      <c r="K36" t="s">
+        <v>229</v>
+      </c>
+      <c r="L36" s="2">
         <v>44484</v>
       </c>
-      <c r="N36" t="s">
-        <v>203</v>
-      </c>
       <c r="O36" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="1">
         <v>37</v>
       </c>
-      <c r="C37" t="s">
-        <v>73</v>
-      </c>
-      <c r="G37">
-        <v>11</v>
+      <c r="B37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" t="s">
+        <v>151</v>
       </c>
       <c r="H37">
         <v>11</v>
@@ -2524,578 +2440,548 @@
       <c r="I37">
         <v>11</v>
       </c>
-      <c r="J37" t="s">
-        <v>152</v>
-      </c>
-      <c r="K37" s="2">
+      <c r="J37">
+        <v>11</v>
+      </c>
+      <c r="K37" t="s">
+        <v>230</v>
+      </c>
+      <c r="L37" s="2">
         <v>44491</v>
       </c>
-      <c r="L37" s="2">
+      <c r="M37" s="2">
         <v>44546</v>
       </c>
-      <c r="O37" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="1">
         <v>38</v>
       </c>
-      <c r="C38" t="s">
-        <v>74</v>
-      </c>
-      <c r="G38">
-        <v>11</v>
+      <c r="B38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" t="s">
+        <v>152</v>
       </c>
       <c r="H38">
         <v>11</v>
       </c>
       <c r="I38">
+        <v>11</v>
+      </c>
+      <c r="J38">
         <v>2</v>
       </c>
-      <c r="J38" t="s">
-        <v>153</v>
-      </c>
-      <c r="K38" s="2">
+      <c r="K38" t="s">
+        <v>231</v>
+      </c>
+      <c r="L38" s="2">
         <v>44494</v>
       </c>
-      <c r="N38" t="s">
-        <v>209</v>
-      </c>
       <c r="O38" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="1">
         <v>39</v>
       </c>
-      <c r="C39" t="s">
-        <v>75</v>
-      </c>
-      <c r="G39">
-        <v>10</v>
+      <c r="B39" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" t="s">
+        <v>153</v>
       </c>
       <c r="H39">
         <v>10</v>
       </c>
       <c r="I39">
+        <v>10</v>
+      </c>
+      <c r="J39">
         <v>9</v>
       </c>
-      <c r="J39" t="s">
-        <v>154</v>
-      </c>
-      <c r="K39" s="2">
+      <c r="K39" t="s">
+        <v>232</v>
+      </c>
+      <c r="L39" s="2">
         <v>44504</v>
       </c>
-      <c r="N39" t="s">
-        <v>204</v>
-      </c>
       <c r="O39" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" s="1">
         <v>40</v>
       </c>
-      <c r="C40" t="s">
-        <v>76</v>
-      </c>
-      <c r="G40">
-        <v>11</v>
+      <c r="B40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" t="s">
+        <v>154</v>
       </c>
       <c r="H40">
         <v>11</v>
       </c>
       <c r="I40">
+        <v>11</v>
+      </c>
+      <c r="J40">
         <v>10</v>
       </c>
-      <c r="J40" t="s">
-        <v>155</v>
-      </c>
-      <c r="K40" s="2">
+      <c r="K40" t="s">
+        <v>233</v>
+      </c>
+      <c r="L40" s="2">
         <v>44543</v>
       </c>
-      <c r="N40" t="s">
-        <v>204</v>
-      </c>
       <c r="O40" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" s="1">
         <v>41</v>
       </c>
-      <c r="C41" t="s">
-        <v>77</v>
-      </c>
-      <c r="G41">
-        <v>11</v>
+      <c r="B41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" t="s">
+        <v>155</v>
       </c>
       <c r="H41">
         <v>11</v>
       </c>
       <c r="I41">
+        <v>11</v>
+      </c>
+      <c r="J41">
         <v>3</v>
       </c>
-      <c r="J41" t="s">
-        <v>156</v>
-      </c>
-      <c r="K41" s="2">
+      <c r="K41" t="s">
+        <v>234</v>
+      </c>
+      <c r="L41" s="2">
         <v>44539</v>
       </c>
-      <c r="O41" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" s="1">
         <v>42</v>
       </c>
-      <c r="C42" t="s">
-        <v>78</v>
-      </c>
-      <c r="G42">
-        <v>11</v>
+      <c r="B42" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" t="s">
+        <v>156</v>
       </c>
       <c r="H42">
         <v>11</v>
       </c>
       <c r="I42">
+        <v>11</v>
+      </c>
+      <c r="J42">
         <v>0</v>
       </c>
-      <c r="J42" t="s">
-        <v>157</v>
-      </c>
-      <c r="N42" t="s">
-        <v>210</v>
+      <c r="K42" t="s">
+        <v>235</v>
       </c>
       <c r="O42" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" s="1">
         <v>43</v>
       </c>
-      <c r="C43" t="s">
-        <v>79</v>
-      </c>
-      <c r="D43">
+      <c r="B43" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" t="s">
+        <v>157</v>
+      </c>
+      <c r="E43">
         <v>2240042</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>49.77871111111111</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>149.3361333333333</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>88</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>0</v>
       </c>
-      <c r="J43" t="s">
-        <v>158</v>
-      </c>
-      <c r="N43" t="s">
-        <v>211</v>
+      <c r="K43" t="s">
+        <v>236</v>
       </c>
       <c r="O43" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" s="1">
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="C44" t="s">
-        <v>80</v>
-      </c>
-      <c r="D44">
+        <v>97</v>
+      </c>
+      <c r="D44" t="s">
+        <v>158</v>
+      </c>
+      <c r="E44">
         <v>8120154</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>180.4478666666667</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>541.3436</v>
       </c>
-      <c r="O44" t="s">
-        <v>259</v>
-      </c>
-      <c r="P44" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" s="1">
         <v>45</v>
       </c>
-      <c r="C45" t="s">
-        <v>81</v>
-      </c>
-      <c r="G45">
-        <v>54</v>
+      <c r="B45" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" t="s">
+        <v>159</v>
       </c>
       <c r="H45">
         <v>54</v>
       </c>
       <c r="I45">
+        <v>54</v>
+      </c>
+      <c r="J45">
         <v>50</v>
       </c>
-      <c r="J45" t="s">
-        <v>159</v>
-      </c>
-      <c r="K45" s="2">
+      <c r="K45" t="s">
+        <v>237</v>
+      </c>
+      <c r="L45" s="2">
         <v>44469</v>
       </c>
-      <c r="O45" t="s">
-        <v>260</v>
-      </c>
-      <c r="P45" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" s="1">
         <v>46</v>
       </c>
-      <c r="C46" t="s">
-        <v>82</v>
-      </c>
-      <c r="G46">
-        <v>56</v>
+      <c r="B46" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" t="s">
+        <v>160</v>
       </c>
       <c r="H46">
         <v>56</v>
       </c>
       <c r="I46">
+        <v>56</v>
+      </c>
+      <c r="J46">
         <v>30</v>
       </c>
-      <c r="J46" t="s">
-        <v>160</v>
-      </c>
-      <c r="K46" s="2">
+      <c r="K46" t="s">
+        <v>238</v>
+      </c>
+      <c r="L46" s="2">
         <v>44469</v>
       </c>
-      <c r="O46" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" s="1">
         <v>47</v>
       </c>
-      <c r="C47" t="s">
-        <v>82</v>
-      </c>
-      <c r="G47">
-        <v>19</v>
+      <c r="B47" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" t="s">
+        <v>160</v>
       </c>
       <c r="H47">
         <v>19</v>
       </c>
       <c r="I47">
+        <v>19</v>
+      </c>
+      <c r="J47">
         <v>6</v>
       </c>
-      <c r="J47" t="s">
-        <v>161</v>
-      </c>
-      <c r="K47" s="2">
+      <c r="K47" t="s">
+        <v>239</v>
+      </c>
+      <c r="L47" s="2">
         <v>44537</v>
       </c>
-      <c r="O47" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" s="1">
         <v>48</v>
       </c>
-      <c r="C48" t="s">
-        <v>83</v>
-      </c>
-      <c r="G48">
-        <v>28</v>
+      <c r="B48" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" t="s">
+        <v>161</v>
       </c>
       <c r="H48">
         <v>28</v>
       </c>
       <c r="I48">
+        <v>28</v>
+      </c>
+      <c r="J48">
         <v>24</v>
       </c>
-      <c r="J48" t="s">
-        <v>162</v>
-      </c>
-      <c r="K48" s="2">
+      <c r="K48" t="s">
+        <v>240</v>
+      </c>
+      <c r="L48" s="2">
         <v>44414</v>
       </c>
-      <c r="N48" t="s">
-        <v>205</v>
-      </c>
       <c r="O48" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" s="1">
         <v>49</v>
       </c>
-      <c r="C49" t="s">
-        <v>84</v>
-      </c>
-      <c r="G49">
-        <v>169</v>
+      <c r="B49" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" t="s">
+        <v>162</v>
       </c>
       <c r="H49">
         <v>169</v>
       </c>
       <c r="I49">
+        <v>169</v>
+      </c>
+      <c r="J49">
         <v>126</v>
       </c>
-      <c r="J49" t="s">
-        <v>163</v>
-      </c>
       <c r="K49" t="s">
-        <v>189</v>
-      </c>
-      <c r="O49" t="s">
-        <v>263</v>
-      </c>
-      <c r="P49" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17">
+        <v>241</v>
+      </c>
+      <c r="L49" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" s="1">
         <v>50</v>
       </c>
-      <c r="C50" t="s">
-        <v>84</v>
-      </c>
-      <c r="G50">
-        <v>117</v>
+      <c r="B50" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50" t="s">
+        <v>162</v>
       </c>
       <c r="H50">
         <v>117</v>
       </c>
       <c r="I50">
+        <v>117</v>
+      </c>
+      <c r="J50">
         <v>82</v>
       </c>
-      <c r="J50" t="s">
-        <v>164</v>
-      </c>
-      <c r="K50" s="2">
+      <c r="K50" t="s">
+        <v>242</v>
+      </c>
+      <c r="L50" s="2">
         <v>44488</v>
       </c>
-      <c r="O50" t="s">
-        <v>263</v>
-      </c>
-      <c r="P50" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17">
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" s="1">
         <v>51</v>
       </c>
-      <c r="C51" t="s">
-        <v>85</v>
-      </c>
-      <c r="G51">
-        <v>66</v>
+      <c r="B51" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51" t="s">
+        <v>163</v>
       </c>
       <c r="H51">
         <v>66</v>
       </c>
       <c r="I51">
+        <v>66</v>
+      </c>
+      <c r="J51">
         <v>64</v>
       </c>
-      <c r="K51" s="2">
+      <c r="L51" s="2">
         <v>44475</v>
       </c>
-      <c r="O51" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17">
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" s="1">
         <v>52</v>
       </c>
-      <c r="C52" t="s">
-        <v>86</v>
-      </c>
-      <c r="D52">
+      <c r="B52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D52" t="s">
+        <v>164</v>
+      </c>
+      <c r="E52">
         <v>750000</v>
       </c>
-      <c r="O52" t="s">
-        <v>265</v>
-      </c>
-      <c r="P52" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17">
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" s="1">
         <v>53</v>
       </c>
-      <c r="C53" t="s">
-        <v>87</v>
-      </c>
-      <c r="G53">
-        <v>20</v>
+      <c r="B53" t="s">
+        <v>65</v>
+      </c>
+      <c r="D53" t="s">
+        <v>165</v>
       </c>
       <c r="H53">
         <v>20</v>
       </c>
       <c r="I53">
+        <v>20</v>
+      </c>
+      <c r="J53">
         <v>9</v>
       </c>
-      <c r="J53" t="s">
-        <v>165</v>
-      </c>
-      <c r="K53" s="2">
+      <c r="K53" t="s">
+        <v>243</v>
+      </c>
+      <c r="L53" s="2">
         <v>44494</v>
       </c>
-      <c r="N53" t="s">
-        <v>210</v>
-      </c>
       <c r="O53" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" s="1">
         <v>54</v>
       </c>
-      <c r="C54" t="s">
-        <v>88</v>
-      </c>
-      <c r="D54">
+      <c r="B54" t="s">
+        <v>66</v>
+      </c>
+      <c r="D54" t="s">
+        <v>166</v>
+      </c>
+      <c r="E54">
         <v>1817820</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>60.594</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>181.782</v>
-      </c>
-      <c r="G54">
-        <v>32</v>
       </c>
       <c r="H54">
         <v>32</v>
       </c>
       <c r="I54">
+        <v>32</v>
+      </c>
+      <c r="J54">
         <v>14</v>
       </c>
-      <c r="J54" t="s">
-        <v>166</v>
-      </c>
-      <c r="K54" s="2">
+      <c r="K54" t="s">
+        <v>244</v>
+      </c>
+      <c r="L54" s="2">
         <v>44410</v>
       </c>
-      <c r="M54" t="s">
-        <v>199</v>
-      </c>
-      <c r="O54" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17">
+      <c r="N54" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" s="1">
         <v>56</v>
       </c>
-      <c r="C55" t="s">
-        <v>89</v>
-      </c>
-      <c r="G55">
+      <c r="B55" t="s">
+        <v>67</v>
+      </c>
+      <c r="D55" t="s">
+        <v>167</v>
+      </c>
+      <c r="H55">
         <v>0</v>
       </c>
-      <c r="N55" t="s">
-        <v>211</v>
-      </c>
       <c r="O55" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" s="1">
         <v>57</v>
       </c>
-      <c r="C56" t="s">
-        <v>90</v>
-      </c>
-      <c r="D56">
+      <c r="B56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>168</v>
+      </c>
+      <c r="E56">
         <v>215340</v>
       </c>
-      <c r="J56" t="s">
-        <v>167</v>
-      </c>
-      <c r="O56" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17">
+      <c r="K56" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" s="1">
         <v>58</v>
       </c>
-      <c r="C57" t="s">
-        <v>91</v>
-      </c>
-      <c r="D57">
+      <c r="B57" t="s">
+        <v>69</v>
+      </c>
+      <c r="D57" t="s">
+        <v>169</v>
+      </c>
+      <c r="E57">
         <v>1050000</v>
       </c>
-      <c r="J57" t="s">
-        <v>167</v>
-      </c>
-      <c r="O57" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17">
+      <c r="K57" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" s="1">
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C58" t="s">
-        <v>92</v>
-      </c>
-      <c r="D58">
+        <v>98</v>
+      </c>
+      <c r="D58" t="s">
+        <v>170</v>
+      </c>
+      <c r="E58">
         <v>200000</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>4.444444444444445</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>13.33333333333333</v>
-      </c>
-      <c r="G58">
-        <v>10</v>
       </c>
       <c r="H58">
         <v>10</v>
@@ -3103,43 +2989,43 @@
       <c r="I58">
         <v>10</v>
       </c>
-      <c r="J58" t="s">
-        <v>168</v>
-      </c>
-      <c r="K58" s="2">
+      <c r="J58">
+        <v>10</v>
+      </c>
+      <c r="K58" t="s">
+        <v>246</v>
+      </c>
+      <c r="L58" s="2">
         <v>44412</v>
       </c>
-      <c r="L58" s="2">
+      <c r="M58" s="2">
         <v>44475</v>
       </c>
-      <c r="M58" t="s">
-        <v>198</v>
-      </c>
-      <c r="O58" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17">
+      <c r="N58" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" s="1">
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C59" t="s">
-        <v>93</v>
-      </c>
-      <c r="D59">
+        <v>99</v>
+      </c>
+      <c r="D59" t="s">
+        <v>171</v>
+      </c>
+      <c r="E59">
         <v>300000</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>10</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>30</v>
-      </c>
-      <c r="G59">
-        <v>10</v>
       </c>
       <c r="H59">
         <v>10</v>
@@ -3147,37 +3033,37 @@
       <c r="I59">
         <v>10</v>
       </c>
-      <c r="J59" t="s">
-        <v>169</v>
-      </c>
-      <c r="K59" s="2">
+      <c r="J59">
+        <v>10</v>
+      </c>
+      <c r="K59" t="s">
+        <v>247</v>
+      </c>
+      <c r="L59" s="2">
         <v>44483</v>
       </c>
-      <c r="L59" s="2">
+      <c r="M59" s="2">
         <v>44519</v>
       </c>
-      <c r="O59" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17">
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60" s="1">
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="C60" t="s">
-        <v>94</v>
-      </c>
-      <c r="D60">
+        <v>100</v>
+      </c>
+      <c r="D60" t="s">
+        <v>172</v>
+      </c>
+      <c r="E60">
         <v>300000</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>6.666666666666667</v>
-      </c>
-      <c r="G60">
-        <v>12</v>
       </c>
       <c r="H60">
         <v>12</v>
@@ -3185,110 +3071,110 @@
       <c r="I60">
         <v>12</v>
       </c>
-      <c r="J60" t="s">
-        <v>170</v>
-      </c>
-      <c r="K60" s="2">
+      <c r="J60">
+        <v>12</v>
+      </c>
+      <c r="K60" t="s">
+        <v>248</v>
+      </c>
+      <c r="L60" s="2">
         <v>44382</v>
       </c>
-      <c r="M60" t="s">
-        <v>197</v>
-      </c>
-      <c r="O60" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17">
+      <c r="N60" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61" s="1">
         <v>62</v>
       </c>
-      <c r="C61" t="s">
-        <v>95</v>
-      </c>
-      <c r="D61">
+      <c r="B61" t="s">
+        <v>72</v>
+      </c>
+      <c r="D61" t="s">
+        <v>173</v>
+      </c>
+      <c r="E61">
         <v>400000</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>24.5398773006135</v>
-      </c>
-      <c r="G61">
-        <v>14</v>
       </c>
       <c r="H61">
         <v>14</v>
       </c>
       <c r="I61">
+        <v>14</v>
+      </c>
+      <c r="J61">
         <v>8</v>
       </c>
-      <c r="J61" t="s">
-        <v>171</v>
-      </c>
-      <c r="K61" s="2">
+      <c r="K61" t="s">
+        <v>249</v>
+      </c>
+      <c r="L61" s="2">
         <v>44519</v>
       </c>
-      <c r="N61" t="s">
-        <v>212</v>
-      </c>
       <c r="O61" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62" s="1">
         <v>63</v>
       </c>
-      <c r="C62" t="s">
-        <v>96</v>
-      </c>
-      <c r="D62">
+      <c r="B62" t="s">
+        <v>73</v>
+      </c>
+      <c r="D62" t="s">
+        <v>174</v>
+      </c>
+      <c r="E62">
         <v>339993</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>11.3331</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>33.9993</v>
-      </c>
-      <c r="G62">
-        <v>6</v>
       </c>
       <c r="H62">
         <v>6</v>
       </c>
       <c r="I62">
+        <v>6</v>
+      </c>
+      <c r="J62">
         <v>3</v>
       </c>
-      <c r="J62" t="s">
-        <v>172</v>
-      </c>
-      <c r="K62" s="2">
+      <c r="K62" t="s">
+        <v>250</v>
+      </c>
+      <c r="L62" s="2">
         <v>44483</v>
       </c>
-      <c r="N62" t="s">
-        <v>206</v>
-      </c>
       <c r="O62" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63" s="1">
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="C63" t="s">
-        <v>97</v>
-      </c>
-      <c r="D63">
+        <v>101</v>
+      </c>
+      <c r="D63" t="s">
+        <v>175</v>
+      </c>
+      <c r="E63">
         <v>150000</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>3.333333333333333</v>
-      </c>
-      <c r="G63">
-        <v>5</v>
       </c>
       <c r="H63">
         <v>5</v>
@@ -3296,171 +3182,171 @@
       <c r="I63">
         <v>5</v>
       </c>
-      <c r="J63" t="s">
-        <v>173</v>
-      </c>
-      <c r="K63" s="2">
-        <v>44382</v>
+      <c r="J63">
+        <v>5</v>
+      </c>
+      <c r="K63" t="s">
+        <v>251</v>
       </c>
       <c r="L63" s="2">
         <v>44382</v>
       </c>
-      <c r="M63" t="s">
-        <v>197</v>
-      </c>
-      <c r="O63" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17">
+      <c r="M63" s="2">
+        <v>44382</v>
+      </c>
+      <c r="N63" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64" s="1">
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="C64" t="s">
-        <v>98</v>
-      </c>
-      <c r="D64">
+        <v>102</v>
+      </c>
+      <c r="D64" t="s">
+        <v>176</v>
+      </c>
+      <c r="E64">
         <v>1500000</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>50</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>100</v>
-      </c>
-      <c r="G64">
-        <v>61</v>
       </c>
       <c r="H64">
         <v>61</v>
       </c>
       <c r="I64">
+        <v>61</v>
+      </c>
+      <c r="J64">
         <v>21</v>
       </c>
-      <c r="J64" t="s">
-        <v>174</v>
-      </c>
-      <c r="N64" t="s">
-        <v>213</v>
+      <c r="K64" t="s">
+        <v>252</v>
       </c>
       <c r="O64" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65" s="1">
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="C65" t="s">
-        <v>99</v>
-      </c>
-      <c r="D65">
+        <v>103</v>
+      </c>
+      <c r="D65" t="s">
+        <v>177</v>
+      </c>
+      <c r="E65">
         <v>627190</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>34.84388888888889</v>
-      </c>
-      <c r="G65">
-        <v>22</v>
       </c>
       <c r="H65">
         <v>22</v>
       </c>
       <c r="I65">
+        <v>22</v>
+      </c>
+      <c r="J65">
         <v>21</v>
       </c>
-      <c r="J65" t="s">
-        <v>175</v>
-      </c>
-      <c r="K65" s="2">
+      <c r="K65" t="s">
+        <v>253</v>
+      </c>
+      <c r="L65" s="2">
         <v>44435</v>
       </c>
-      <c r="O65" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17">
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66" s="1">
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="C66" t="s">
-        <v>100</v>
-      </c>
-      <c r="D66">
+        <v>104</v>
+      </c>
+      <c r="D66" t="s">
+        <v>178</v>
+      </c>
+      <c r="E66">
         <v>300000</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>6.666666666666667</v>
-      </c>
-      <c r="G66">
-        <v>10</v>
       </c>
       <c r="H66">
         <v>10</v>
       </c>
       <c r="I66">
+        <v>10</v>
+      </c>
+      <c r="J66">
         <v>8</v>
       </c>
-      <c r="J66" t="s">
-        <v>176</v>
-      </c>
-      <c r="K66" s="2">
+      <c r="K66" t="s">
+        <v>254</v>
+      </c>
+      <c r="L66" s="2">
         <v>44382</v>
       </c>
-      <c r="M66" t="s">
-        <v>197</v>
-      </c>
       <c r="N66" t="s">
-        <v>203</v>
+        <v>275</v>
       </c>
       <c r="O66" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67" s="1">
         <v>68</v>
       </c>
-      <c r="C67" t="s">
-        <v>101</v>
-      </c>
-      <c r="D67">
+      <c r="B67" t="s">
+        <v>78</v>
+      </c>
+      <c r="D67" t="s">
+        <v>179</v>
+      </c>
+      <c r="E67">
         <v>1029986</v>
       </c>
-      <c r="J67" t="s">
-        <v>167</v>
-      </c>
-      <c r="O67" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17">
+      <c r="K67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68" s="1">
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C68" t="s">
-        <v>102</v>
-      </c>
-      <c r="D68">
+        <v>105</v>
+      </c>
+      <c r="D68" t="s">
+        <v>180</v>
+      </c>
+      <c r="E68">
         <v>440000</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>29.33333333333333</v>
-      </c>
-      <c r="G68">
-        <v>8</v>
       </c>
       <c r="H68">
         <v>8</v>
@@ -3468,89 +3354,83 @@
       <c r="I68">
         <v>8</v>
       </c>
-      <c r="J68" t="s">
-        <v>177</v>
-      </c>
-      <c r="L68" s="2">
+      <c r="J68">
+        <v>8</v>
+      </c>
+      <c r="K68" t="s">
+        <v>255</v>
+      </c>
+      <c r="M68" s="2">
         <v>44377</v>
       </c>
-      <c r="M68" t="s">
-        <v>197</v>
-      </c>
-      <c r="O68" t="s">
-        <v>281</v>
-      </c>
-      <c r="P68" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17">
+      <c r="N68" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69" s="1">
         <v>70</v>
       </c>
-      <c r="C69" t="s">
-        <v>103</v>
-      </c>
-      <c r="D69">
+      <c r="B69" t="s">
+        <v>80</v>
+      </c>
+      <c r="D69" t="s">
+        <v>181</v>
+      </c>
+      <c r="E69">
         <v>659340</v>
       </c>
-      <c r="J69" t="s">
-        <v>167</v>
-      </c>
-      <c r="O69" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17">
+      <c r="K69" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70" s="1">
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="C70" t="s">
-        <v>104</v>
-      </c>
-      <c r="D70">
+        <v>106</v>
+      </c>
+      <c r="D70" t="s">
+        <v>182</v>
+      </c>
+      <c r="E70">
         <v>300000</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>10</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>30</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>0</v>
       </c>
-      <c r="N70" t="s">
-        <v>211</v>
-      </c>
       <c r="O70" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71" s="1">
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="C71" t="s">
-        <v>105</v>
-      </c>
-      <c r="D71">
+        <v>107</v>
+      </c>
+      <c r="D71" t="s">
+        <v>183</v>
+      </c>
+      <c r="E71">
         <v>150000</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>3.333333333333333</v>
-      </c>
-      <c r="G71">
-        <v>8</v>
       </c>
       <c r="H71">
         <v>8</v>
@@ -3558,40 +3438,40 @@
       <c r="I71">
         <v>8</v>
       </c>
-      <c r="J71" t="s">
-        <v>178</v>
-      </c>
-      <c r="K71" s="2">
+      <c r="J71">
+        <v>8</v>
+      </c>
+      <c r="K71" t="s">
+        <v>256</v>
+      </c>
+      <c r="L71" s="2">
         <v>44384</v>
       </c>
-      <c r="L71" s="2">
+      <c r="M71" s="2">
         <v>44495</v>
       </c>
-      <c r="M71" t="s">
-        <v>193</v>
-      </c>
-      <c r="O71" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17">
+      <c r="N71" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72" s="1">
         <v>73</v>
       </c>
-      <c r="C72" t="s">
-        <v>106</v>
-      </c>
-      <c r="D72">
+      <c r="B72" t="s">
+        <v>83</v>
+      </c>
+      <c r="D72" t="s">
+        <v>184</v>
+      </c>
+      <c r="E72">
         <v>300000</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>6.666666666666667</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>20</v>
-      </c>
-      <c r="G72">
-        <v>10</v>
       </c>
       <c r="H72">
         <v>10</v>
@@ -3599,107 +3479,107 @@
       <c r="I72">
         <v>10</v>
       </c>
-      <c r="J72" t="s">
-        <v>179</v>
-      </c>
-      <c r="K72" s="2">
+      <c r="J72">
+        <v>10</v>
+      </c>
+      <c r="K72" t="s">
+        <v>257</v>
+      </c>
+      <c r="L72" s="2">
         <v>44418</v>
       </c>
-      <c r="L72" s="2">
+      <c r="M72" s="2">
         <v>44552</v>
       </c>
-      <c r="O72" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17">
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73" s="1">
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="C73" t="s">
-        <v>107</v>
-      </c>
-      <c r="D73">
+        <v>108</v>
+      </c>
+      <c r="D73" t="s">
+        <v>185</v>
+      </c>
+      <c r="E73">
         <v>500000</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>16.66666666666667</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>50</v>
-      </c>
-      <c r="G73">
-        <v>10</v>
       </c>
       <c r="H73">
         <v>10</v>
       </c>
       <c r="I73">
+        <v>10</v>
+      </c>
+      <c r="J73">
         <v>9</v>
       </c>
-      <c r="J73" t="s">
-        <v>180</v>
-      </c>
-      <c r="N73" t="s">
-        <v>214</v>
+      <c r="K73" t="s">
+        <v>258</v>
       </c>
       <c r="O73" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74" s="1">
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="C74" t="s">
-        <v>108</v>
-      </c>
-      <c r="D74">
+        <v>109</v>
+      </c>
+      <c r="D74" t="s">
+        <v>186</v>
+      </c>
+      <c r="E74">
         <v>600000</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>20</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>60</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <v>0</v>
       </c>
-      <c r="N74" t="s">
-        <v>211</v>
-      </c>
       <c r="O74" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75" s="1">
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="C75" t="s">
-        <v>109</v>
-      </c>
-      <c r="D75">
+        <v>110</v>
+      </c>
+      <c r="D75" t="s">
+        <v>187</v>
+      </c>
+      <c r="E75">
         <v>100000</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>2.222222222222222</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>6.666666666666667</v>
-      </c>
-      <c r="G75">
-        <v>4</v>
       </c>
       <c r="H75">
         <v>4</v>
@@ -3707,37 +3587,37 @@
       <c r="I75">
         <v>4</v>
       </c>
-      <c r="J75" t="s">
-        <v>181</v>
-      </c>
-      <c r="K75" s="2">
+      <c r="J75">
+        <v>4</v>
+      </c>
+      <c r="K75" t="s">
+        <v>259</v>
+      </c>
+      <c r="L75" s="2">
         <v>44389</v>
       </c>
-      <c r="L75" s="2">
+      <c r="M75" s="2">
         <v>44405</v>
       </c>
-      <c r="M75" t="s">
-        <v>192</v>
-      </c>
-      <c r="O75" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17">
+      <c r="N75" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76" s="1">
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="C76" t="s">
-        <v>110</v>
-      </c>
-      <c r="D76">
+        <v>111</v>
+      </c>
+      <c r="D76" t="s">
+        <v>188</v>
+      </c>
+      <c r="E76">
         <v>300000</v>
-      </c>
-      <c r="G76">
-        <v>10</v>
       </c>
       <c r="H76">
         <v>10</v>
@@ -3745,78 +3625,78 @@
       <c r="I76">
         <v>10</v>
       </c>
-      <c r="J76" t="s">
-        <v>182</v>
-      </c>
-      <c r="K76" s="2">
+      <c r="J76">
+        <v>10</v>
+      </c>
+      <c r="K76" t="s">
+        <v>260</v>
+      </c>
+      <c r="L76" s="2">
         <v>44469</v>
       </c>
-      <c r="L76" s="2">
+      <c r="M76" s="2">
         <v>44517</v>
       </c>
-      <c r="O76" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17">
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77" s="1">
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C77" t="s">
-        <v>111</v>
-      </c>
-      <c r="D77">
+        <v>112</v>
+      </c>
+      <c r="D77" t="s">
+        <v>189</v>
+      </c>
+      <c r="E77">
         <v>300000</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>10</v>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>30</v>
-      </c>
-      <c r="G77">
-        <v>9</v>
       </c>
       <c r="H77">
         <v>9</v>
       </c>
       <c r="I77">
+        <v>9</v>
+      </c>
+      <c r="J77">
         <v>3</v>
       </c>
-      <c r="J77" t="s">
-        <v>183</v>
-      </c>
-      <c r="K77" s="2">
+      <c r="K77" t="s">
+        <v>261</v>
+      </c>
+      <c r="L77" s="2">
         <v>44497</v>
       </c>
-      <c r="N77" t="s">
-        <v>215</v>
-      </c>
       <c r="O77" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78" s="1">
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C78" t="s">
-        <v>112</v>
-      </c>
-      <c r="D78">
+        <v>113</v>
+      </c>
+      <c r="D78" t="s">
+        <v>190</v>
+      </c>
+      <c r="E78">
         <v>600000</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <v>13.33333333333333</v>
-      </c>
-      <c r="G78">
-        <v>30</v>
       </c>
       <c r="H78">
         <v>30</v>
@@ -3824,34 +3704,34 @@
       <c r="I78">
         <v>30</v>
       </c>
-      <c r="J78" t="s">
-        <v>184</v>
-      </c>
-      <c r="K78" s="2">
+      <c r="J78">
+        <v>30</v>
+      </c>
+      <c r="K78" t="s">
+        <v>262</v>
+      </c>
+      <c r="L78" s="2">
         <v>44421</v>
       </c>
-      <c r="L78" s="2">
+      <c r="M78" s="2">
         <v>44453</v>
       </c>
-      <c r="O78" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17">
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79" s="1">
         <v>80</v>
       </c>
-      <c r="C79" t="s">
-        <v>113</v>
-      </c>
-      <c r="D79">
+      <c r="B79" t="s">
+        <v>89</v>
+      </c>
+      <c r="D79" t="s">
+        <v>191</v>
+      </c>
+      <c r="E79">
         <v>300000</v>
       </c>
-      <c r="E79">
+      <c r="F79">
         <v>6.666666666666667</v>
-      </c>
-      <c r="G79">
-        <v>10</v>
       </c>
       <c r="H79">
         <v>10</v>
@@ -3859,55 +3739,55 @@
       <c r="I79">
         <v>10</v>
       </c>
-      <c r="J79" t="s">
-        <v>185</v>
-      </c>
-      <c r="K79" s="2">
+      <c r="J79">
+        <v>10</v>
+      </c>
+      <c r="K79" t="s">
+        <v>263</v>
+      </c>
+      <c r="L79" s="2">
         <v>44421</v>
       </c>
-      <c r="L79" s="2">
+      <c r="M79" s="2">
         <v>44503</v>
       </c>
-      <c r="O79" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17">
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80" s="1">
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="C80" t="s">
         <v>114</v>
       </c>
-      <c r="D80">
+      <c r="D80" t="s">
+        <v>192</v>
+      </c>
+      <c r="E80">
         <v>606996</v>
       </c>
-      <c r="E80">
+      <c r="F80">
         <v>20.2332</v>
       </c>
-      <c r="F80">
+      <c r="G80">
         <v>60.6996</v>
-      </c>
-      <c r="G80">
-        <v>36</v>
       </c>
       <c r="H80">
         <v>36</v>
       </c>
       <c r="I80">
+        <v>36</v>
+      </c>
+      <c r="J80">
         <v>25</v>
       </c>
-      <c r="J80" t="s">
-        <v>186</v>
-      </c>
-      <c r="K80" s="2">
+      <c r="K80" t="s">
+        <v>264</v>
+      </c>
+      <c r="L80" s="2">
         <v>44496</v>
-      </c>
-      <c r="O80" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="81" spans="1:15">
@@ -3915,60 +3795,60 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="C81" t="s">
-        <v>115</v>
-      </c>
-      <c r="D81">
+        <v>114</v>
+      </c>
+      <c r="D81" t="s">
+        <v>193</v>
+      </c>
+      <c r="E81">
         <v>417600</v>
       </c>
-      <c r="E81">
+      <c r="F81">
         <v>13.92</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>41.76</v>
-      </c>
-      <c r="G81">
-        <v>25</v>
       </c>
       <c r="H81">
         <v>25</v>
       </c>
       <c r="I81">
+        <v>25</v>
+      </c>
+      <c r="J81">
         <v>21</v>
       </c>
-      <c r="J81" t="s">
-        <v>187</v>
-      </c>
-      <c r="K81" s="2">
+      <c r="K81" t="s">
+        <v>265</v>
+      </c>
+      <c r="L81" s="2">
         <v>44457</v>
       </c>
-      <c r="L81" s="2">
+      <c r="M81" s="2">
         <v>44491</v>
-      </c>
-      <c r="O81" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="82" spans="1:15">
       <c r="A82" s="1">
         <v>83</v>
       </c>
-      <c r="C82" t="s">
-        <v>116</v>
-      </c>
-      <c r="D82">
+      <c r="B82" t="s">
+        <v>92</v>
+      </c>
+      <c r="D82" t="s">
+        <v>194</v>
+      </c>
+      <c r="E82">
         <v>500000</v>
       </c>
-      <c r="E82">
+      <c r="F82">
         <v>16.66666666666667</v>
       </c>
-      <c r="F82">
+      <c r="G82">
         <v>50</v>
-      </c>
-      <c r="G82">
-        <v>4</v>
       </c>
       <c r="H82">
         <v>4</v>
@@ -3976,14 +3856,14 @@
       <c r="I82">
         <v>4</v>
       </c>
-      <c r="K82" s="2">
+      <c r="J82">
+        <v>4</v>
+      </c>
+      <c r="L82" s="2">
         <v>44459</v>
       </c>
-      <c r="L82" s="2">
+      <c r="M82" s="2">
         <v>44468</v>
-      </c>
-      <c r="N82" t="s">
-        <v>216</v>
       </c>
       <c r="O82" t="s">
         <v>294</v>
@@ -3994,28 +3874,28 @@
         <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="C83" t="s">
-        <v>117</v>
-      </c>
-      <c r="D83">
+        <v>115</v>
+      </c>
+      <c r="D83" t="s">
+        <v>195</v>
+      </c>
+      <c r="E83">
         <v>450000</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <v>15</v>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>45</v>
       </c>
-      <c r="G83">
+      <c r="H83">
         <v>0</v>
       </c>
-      <c r="N83" t="s">
-        <v>211</v>
-      </c>
       <c r="O83" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>

--- a/PowerBI_Dataset/xlsx/df_em.xlsx
+++ b/PowerBI_Dataset/xlsx/df_em.xlsx
@@ -14,288 +14,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="358">
+  <si>
+    <t>processo</t>
+  </si>
+  <si>
+    <t>emenda</t>
+  </si>
+  <si>
+    <t>valor</t>
+  </si>
+  <si>
+    <t>pontos_livre_(18_meses</t>
+  </si>
+  <si>
+    <t>pontos_gesac</t>
+  </si>
+  <si>
+    <t>pontos_indicados</t>
+  </si>
+  <si>
+    <t>pontos_analisados</t>
+  </si>
+  <si>
+    <t>pontos_aprovados</t>
+  </si>
+  <si>
+    <t>encaminhamento</t>
+  </si>
+  <si>
+    <t>data_aspar_informada</t>
+  </si>
+  <si>
+    <t>data_cadastrado</t>
+  </si>
+  <si>
+    <t>responsavel</t>
+  </si>
+  <si>
+    <t>pendencia_28/12</t>
+  </si>
   <si>
     <t>proponente</t>
   </si>
   <si>
-    <t>processo</t>
-  </si>
-  <si>
-    <t>emenda</t>
-  </si>
-  <si>
-    <t>valor</t>
-  </si>
-  <si>
-    <t>pontos_livre_(18_meses</t>
-  </si>
-  <si>
-    <t>pontos_gesac</t>
-  </si>
-  <si>
-    <t>pontos_indicados</t>
-  </si>
-  <si>
-    <t>pontos_analisados</t>
-  </si>
-  <si>
-    <t>pontos_aprovados</t>
-  </si>
-  <si>
-    <t>encaminhamento</t>
-  </si>
-  <si>
-    <t>data_aspar_informada</t>
-  </si>
-  <si>
-    <t>data_cadastrado</t>
-  </si>
-  <si>
-    <t>responsavel</t>
-  </si>
-  <si>
-    <t>pendencia_28/12</t>
-  </si>
-  <si>
     <t>prop_pk1</t>
   </si>
   <si>
     <t>prop_pk2</t>
-  </si>
-  <si>
-    <t>BANCADA-AL</t>
-  </si>
-  <si>
-    <t>BANCADA-MG</t>
-  </si>
-  <si>
-    <t>MISAEL VARELLA</t>
-  </si>
-  <si>
-    <t>GILBERTO ABRAMO</t>
-  </si>
-  <si>
-    <t>EUCLYDES PETTERSEN</t>
-  </si>
-  <si>
-    <t>AUREA CAROLINA</t>
-  </si>
-  <si>
-    <t>ANTONIO ANASTASIA</t>
-  </si>
-  <si>
-    <t>JULIO DELGADO</t>
-  </si>
-  <si>
-    <t>EROS BIONDINI</t>
-  </si>
-  <si>
-    <t>BILAC PINTO</t>
-  </si>
-  <si>
-    <t>EDUARDO BARBOSA</t>
-  </si>
-  <si>
-    <t>MAURO LOPES</t>
-  </si>
-  <si>
-    <t>ANDRE JANONES</t>
-  </si>
-  <si>
-    <t>PAULO GUEDES</t>
-  </si>
-  <si>
-    <t>SUBTENENTE GONZAGA</t>
-  </si>
-  <si>
-    <t>IGOR TIMO</t>
-  </si>
-  <si>
-    <t>PATRUS ANANIAS</t>
-  </si>
-  <si>
-    <t>FREDERICO</t>
-  </si>
-  <si>
-    <t>MARIO HERINGER</t>
-  </si>
-  <si>
-    <t>LUIS TIBE</t>
-  </si>
-  <si>
-    <t>LEONARDO MONTEIRO</t>
-  </si>
-  <si>
-    <t>CABO JUNIO AMARAL BANCADA</t>
-  </si>
-  <si>
-    <t>LUCAS GONZALEZ</t>
-  </si>
-  <si>
-    <t>VILSON DA FETAEMG</t>
-  </si>
-  <si>
-    <t>NEWTON CARDOSO</t>
-  </si>
-  <si>
-    <t>CARLOS VIANA</t>
-  </si>
-  <si>
-    <t>RODRIGO PACHECO</t>
-  </si>
-  <si>
-    <t>ZE SILVA</t>
-  </si>
-  <si>
-    <t>LINCOLN PORTELA</t>
-  </si>
-  <si>
-    <t>AECIO NEVES</t>
-  </si>
-  <si>
-    <t>DIMAS FABIANO</t>
-  </si>
-  <si>
-    <t>CHARLES EVANGELISTA</t>
-  </si>
-  <si>
-    <t>ZE VITOR</t>
-  </si>
-  <si>
-    <t>DELEGADO MARCELO FREITAS</t>
-  </si>
-  <si>
-    <t>STEFANO AGUIAR</t>
-  </si>
-  <si>
-    <t>WELITON PRADO</t>
-  </si>
-  <si>
-    <t>FRANCO CARTAFINA</t>
-  </si>
-  <si>
-    <t>PAULO ABI ACKEL</t>
-  </si>
-  <si>
-    <t>MARCELO ARO</t>
-  </si>
-  <si>
-    <t>ROGERIO CORREIA</t>
-  </si>
-  <si>
-    <t>PADRE JOAO</t>
-  </si>
-  <si>
-    <t>BANCADA-SP</t>
-  </si>
-  <si>
-    <t>BANCADA-ES</t>
-  </si>
-  <si>
-    <t>NEUCIMAR FRAGA</t>
-  </si>
-  <si>
-    <t>DEPA. LAURIETE</t>
-  </si>
-  <si>
-    <t>AMARO NETO</t>
-  </si>
-  <si>
-    <t>EVAIR DE MELO</t>
-  </si>
-  <si>
-    <t>DA VITORIA</t>
-  </si>
-  <si>
-    <t>BANCADA-MA</t>
-  </si>
-  <si>
-    <t>GASTAO VIEIRA</t>
-  </si>
-  <si>
-    <t>BANCADA-PA</t>
-  </si>
-  <si>
-    <t>ALICE PORTUGAL</t>
-  </si>
-  <si>
-    <t>CELSO SABINO</t>
-  </si>
-  <si>
-    <t>CONFUCIO MOURA</t>
-  </si>
-  <si>
-    <t>CORONEL CHRISOSTOMO</t>
-  </si>
-  <si>
-    <t>EDNA HENRIQUE</t>
-  </si>
-  <si>
-    <t>ELIAS VAZ</t>
-  </si>
-  <si>
-    <t>EXPEDITO NETTO</t>
-  </si>
-  <si>
-    <t>FABIO REIS</t>
-  </si>
-  <si>
-    <t>FLAVIA ARRUDA</t>
-  </si>
-  <si>
-    <t>FLAVIANO MELO</t>
-  </si>
-  <si>
-    <t>GENERAL GIRAO</t>
-  </si>
-  <si>
-    <t>JOAO ROMA</t>
-  </si>
-  <si>
-    <t>JOENIA WAPICHANA</t>
-  </si>
-  <si>
-    <t>JOSE MEDEIROS</t>
-  </si>
-  <si>
-    <t>JOSE NUNES</t>
-  </si>
-  <si>
-    <t>JOSIVALDO JP</t>
-  </si>
-  <si>
-    <t>CABO JUNIO AMARAL</t>
-  </si>
-  <si>
-    <t>JUNIOR LOURENCO</t>
-  </si>
-  <si>
-    <t>LEO DE BRITO</t>
-  </si>
-  <si>
-    <t>LEUR LOMANTO</t>
-  </si>
-  <si>
-    <t>LUCIANO BIVAR</t>
-  </si>
-  <si>
-    <t>MARA ROCHA</t>
-  </si>
-  <si>
-    <t>MARX BELTRAO</t>
-  </si>
-  <si>
-    <t>PERPETUA ALMEIDA</t>
-  </si>
-  <si>
-    <t>SERGIO PETECAO</t>
-  </si>
-  <si>
-    <t>SORAYA THRONICKE</t>
-  </si>
-  <si>
-    <t>ULDURICO JUNIOR</t>
   </si>
   <si>
     <t>53115.015934/2021-58</t>
@@ -947,6 +713,429 @@
   </si>
   <si>
     <t>Indicar mais pontos</t>
+  </si>
+  <si>
+    <t>BANCADA-AL</t>
+  </si>
+  <si>
+    <t>BANCADA-MG</t>
+  </si>
+  <si>
+    <t>MISAEL VARELLA</t>
+  </si>
+  <si>
+    <t>GILBERTO ABRAMO</t>
+  </si>
+  <si>
+    <t>EUCLYDES PETTERSEN</t>
+  </si>
+  <si>
+    <t>AUREA CAROLINA</t>
+  </si>
+  <si>
+    <t>ANTONIO ANASTASIA</t>
+  </si>
+  <si>
+    <t>JULIO DELGADO</t>
+  </si>
+  <si>
+    <t>EROS BIONDINI</t>
+  </si>
+  <si>
+    <t>BILAC PINTO</t>
+  </si>
+  <si>
+    <t>EDUARDO BARBOSA</t>
+  </si>
+  <si>
+    <t>MAURO LOPES</t>
+  </si>
+  <si>
+    <t>ANDRE JANONES</t>
+  </si>
+  <si>
+    <t>PAULO GUEDES</t>
+  </si>
+  <si>
+    <t>SUBTENENTE GONZAGA</t>
+  </si>
+  <si>
+    <t>IGOR TIMO</t>
+  </si>
+  <si>
+    <t>PATRUS ANANIAS</t>
+  </si>
+  <si>
+    <t>FREDERICO</t>
+  </si>
+  <si>
+    <t>MARIO HERINGER</t>
+  </si>
+  <si>
+    <t>LUIS TIBE</t>
+  </si>
+  <si>
+    <t>LEONARDO MONTEIRO</t>
+  </si>
+  <si>
+    <t>CABO JUNIO AMARAL BANCADA</t>
+  </si>
+  <si>
+    <t>LUCAS GONZALEZ</t>
+  </si>
+  <si>
+    <t>VILSON DA FETAEMG</t>
+  </si>
+  <si>
+    <t>NEWTON CARDOSO</t>
+  </si>
+  <si>
+    <t>CARLOS VIANA</t>
+  </si>
+  <si>
+    <t>RODRIGO PACHECO</t>
+  </si>
+  <si>
+    <t>ZE SILVA</t>
+  </si>
+  <si>
+    <t>LINCOLN PORTELA</t>
+  </si>
+  <si>
+    <t>AECIO NEVES</t>
+  </si>
+  <si>
+    <t>DIMAS FABIANO</t>
+  </si>
+  <si>
+    <t>CHARLES EVANGELISTA</t>
+  </si>
+  <si>
+    <t>ZE VITOR</t>
+  </si>
+  <si>
+    <t>DELEGADO MARCELO FREITAS</t>
+  </si>
+  <si>
+    <t>STEFANO AGUIAR</t>
+  </si>
+  <si>
+    <t>WELITON PRADO</t>
+  </si>
+  <si>
+    <t>FRANCO CARTAFINA</t>
+  </si>
+  <si>
+    <t>PAULO ABI ACKEL</t>
+  </si>
+  <si>
+    <t>MARCELO ARO</t>
+  </si>
+  <si>
+    <t>ROGERIO CORREIA</t>
+  </si>
+  <si>
+    <t>PADRE JOAO</t>
+  </si>
+  <si>
+    <t>BANCADA-SP</t>
+  </si>
+  <si>
+    <t>BANCADA-ES</t>
+  </si>
+  <si>
+    <t>NEUCIMAR FRAGA</t>
+  </si>
+  <si>
+    <t>DEPA. LAURIETE</t>
+  </si>
+  <si>
+    <t>AMARO NETO</t>
+  </si>
+  <si>
+    <t>EVAIR DE MELO</t>
+  </si>
+  <si>
+    <t>DA VITORIA</t>
+  </si>
+  <si>
+    <t>BANCADA-MA</t>
+  </si>
+  <si>
+    <t>GASTAO VIEIRA</t>
+  </si>
+  <si>
+    <t>BANCADA-PA</t>
+  </si>
+  <si>
+    <t>ALICE PORTUGAL</t>
+  </si>
+  <si>
+    <t>CELSO SABINO</t>
+  </si>
+  <si>
+    <t>CONFUCIO MOURA</t>
+  </si>
+  <si>
+    <t>CORONEL CHRISOSTOMO</t>
+  </si>
+  <si>
+    <t>EDNA HENRIQUE</t>
+  </si>
+  <si>
+    <t>ELIAS VAZ</t>
+  </si>
+  <si>
+    <t>EXPEDITO NETTO</t>
+  </si>
+  <si>
+    <t>FABIO REIS</t>
+  </si>
+  <si>
+    <t>FLAVIA ARRUDA</t>
+  </si>
+  <si>
+    <t>FLAVIANO MELO</t>
+  </si>
+  <si>
+    <t>GENERAL GIRAO</t>
+  </si>
+  <si>
+    <t>JOAO ROMA</t>
+  </si>
+  <si>
+    <t>JOENIA WAPICHANA</t>
+  </si>
+  <si>
+    <t>JOSE MEDEIROS</t>
+  </si>
+  <si>
+    <t>JOSE NUNES</t>
+  </si>
+  <si>
+    <t>JOSIVALDO JP</t>
+  </si>
+  <si>
+    <t>CABO JUNIO AMARAL</t>
+  </si>
+  <si>
+    <t>JUNIOR LOURENCO</t>
+  </si>
+  <si>
+    <t>LEO DE BRITO</t>
+  </si>
+  <si>
+    <t>LEUR LOMANTO</t>
+  </si>
+  <si>
+    <t>LUCIANO BIVAR</t>
+  </si>
+  <si>
+    <t>MARA ROCHA</t>
+  </si>
+  <si>
+    <t>MARX BELTRAO</t>
+  </si>
+  <si>
+    <t>PERPETUA ALMEIDA</t>
+  </si>
+  <si>
+    <t>SERGIO PETECAO</t>
+  </si>
+  <si>
+    <t>SORAYA THRONICKE</t>
+  </si>
+  <si>
+    <t>ULDURICO JUNIOR</t>
+  </si>
+  <si>
+    <t>LUIS HENRIQUE DE OLIVEIRA RESENDE</t>
+  </si>
+  <si>
+    <t>DIMAS FABIANO TOLEDO JUNIOR</t>
+  </si>
+  <si>
+    <t>NEUCIMAR FERREIRA FRAGA</t>
+  </si>
+  <si>
+    <t>EVAIR VIEIRA DE MELO</t>
+  </si>
+  <si>
+    <t>ALICE MAZZUCO PORTUGAL</t>
+  </si>
+  <si>
+    <t>CELSO SABINO DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>CONFUCIO AIRES MOURA</t>
+  </si>
+  <si>
+    <t>JOAO CHRISOSTOMO DE MOURA</t>
+  </si>
+  <si>
+    <t>EDNACE ALVES SILVESTRE HENRIQUE</t>
+  </si>
+  <si>
+    <t>ELIAS VAZ DE ANDRADE</t>
+  </si>
+  <si>
+    <t>EXPEDITO GONCALVES FERREIRA NETTO</t>
+  </si>
+  <si>
+    <t>FABIO DE ALMEIDA REIS</t>
+  </si>
+  <si>
+    <t>FLAVIA CAROLINA PERES</t>
+  </si>
+  <si>
+    <t>FLAVIANO FLAVIO BAPTISTA DE MELO</t>
+  </si>
+  <si>
+    <t>ELIESER GIRAO MONTEIRO FILHO</t>
+  </si>
+  <si>
+    <t>JOAO INACIO RIBEIRO ROMA NETO</t>
+  </si>
+  <si>
+    <t>JOENIA BATISTA DE CARVALHO</t>
+  </si>
+  <si>
+    <t>JOSE ANTONIO DOS SANTOS MEDEIROS</t>
+  </si>
+  <si>
+    <t>JOSE NUNES SOARES</t>
+  </si>
+  <si>
+    <t>JOSIVALDO DOS SANTOS MELO</t>
+  </si>
+  <si>
+    <t>GERALDO JUNIO DO AMARAL</t>
+  </si>
+  <si>
+    <t>JOSE LOURENCO BOMFIM JUNIOR</t>
+  </si>
+  <si>
+    <t>LEONARDO CUNHA DE BRITO</t>
+  </si>
+  <si>
+    <t>LEUR ANTONIO DE BRITTO LOMANTO JUNIOR</t>
+  </si>
+  <si>
+    <t>LUCIANO CALDAS BIVAR</t>
+  </si>
+  <si>
+    <t>CYLMARA FERNANDES DA ROCHA GRIPP</t>
+  </si>
+  <si>
+    <t>MARX BELTRAO LIMA SIQUEIRA</t>
+  </si>
+  <si>
+    <t>MARIA PERPETUA DE ALMEIDA</t>
+  </si>
+  <si>
+    <t>ULDURICO ALENCAR PINTO</t>
+  </si>
+  <si>
+    <t>SEN. ANTONIO ANASTASIA</t>
+  </si>
+  <si>
+    <t>DEP. LUIS HENRIQUE DE OLIVEIRA RESENDE</t>
+  </si>
+  <si>
+    <t>SEN. CARLOS VIANA</t>
+  </si>
+  <si>
+    <t>SEN. RODRIGO PACHECO</t>
+  </si>
+  <si>
+    <t>DEP. DIMAS FABIANO TOLEDO JUNIOR</t>
+  </si>
+  <si>
+    <t>DEP. NEUCIMAR FERREIRA FRAGA</t>
+  </si>
+  <si>
+    <t>DEP. EVAIR VIEIRA DE MELO</t>
+  </si>
+  <si>
+    <t>DEP. ALICE MAZZUCO PORTUGAL</t>
+  </si>
+  <si>
+    <t>DEP. CELSO SABINO DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>SEN. CONFUCIO AIRES MOURA</t>
+  </si>
+  <si>
+    <t>DEP. JOAO CHRISOSTOMO DE MOURA</t>
+  </si>
+  <si>
+    <t>DEP. EDNACE ALVES SILVESTRE HENRIQUE</t>
+  </si>
+  <si>
+    <t>DEP. ELIAS VAZ DE ANDRADE</t>
+  </si>
+  <si>
+    <t>DEP. EXPEDITO GONCALVES FERREIRA NETTO</t>
+  </si>
+  <si>
+    <t>DEP. FABIO DE ALMEIDA REIS</t>
+  </si>
+  <si>
+    <t>DEP. FLAVIA CAROLINA PERES</t>
+  </si>
+  <si>
+    <t>DEP. FLAVIANO FLAVIO BAPTISTA DE MELO</t>
+  </si>
+  <si>
+    <t>DEP. ELIESER GIRAO MONTEIRO FILHO</t>
+  </si>
+  <si>
+    <t>DEP. JOAO INACIO RIBEIRO ROMA NETO</t>
+  </si>
+  <si>
+    <t>DEP. JOENIA BATISTA DE CARVALHO</t>
+  </si>
+  <si>
+    <t>DEP. JOSE ANTONIO DOS SANTOS MEDEIROS</t>
+  </si>
+  <si>
+    <t>DEP. JOSE NUNES SOARES</t>
+  </si>
+  <si>
+    <t>DEP. JOSIVALDO DOS SANTOS MELO</t>
+  </si>
+  <si>
+    <t>DEP. GERALDO JUNIO DO AMARAL</t>
+  </si>
+  <si>
+    <t>DEP. JOSE LOURENCO BOMFIM JUNIOR</t>
+  </si>
+  <si>
+    <t>DEP. LEONARDO CUNHA DE BRITO</t>
+  </si>
+  <si>
+    <t>DEP. LEUR ANTONIO DE BRITTO LOMANTO JUNIOR</t>
+  </si>
+  <si>
+    <t>DEP. LUCIANO CALDAS BIVAR</t>
+  </si>
+  <si>
+    <t>DEP. CYLMARA FERNANDES DA ROCHA GRIPP</t>
+  </si>
+  <si>
+    <t>DEP. MARX BELTRAO LIMA SIQUEIRA</t>
+  </si>
+  <si>
+    <t>DEP. MARIA PERPETUA DE ALMEIDA</t>
+  </si>
+  <si>
+    <t>SEN. SERGIO PETECAO</t>
+  </si>
+  <si>
+    <t>SEN. SORAYA THRONICKE</t>
+  </si>
+  <si>
+    <t>DEP. ULDURICO ALENCAR PINTO</t>
   </si>
 </sst>
 </file>
@@ -1372,34 +1561,40 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" t="s">
-        <v>116</v>
+        <v>38</v>
+      </c>
+      <c r="D2">
+        <v>11200212</v>
       </c>
       <c r="E2">
-        <v>11200212</v>
-      </c>
-      <c r="F2">
         <v>248.8936</v>
+      </c>
+      <c r="G2">
+        <v>286</v>
       </c>
       <c r="H2">
         <v>286</v>
       </c>
       <c r="I2">
-        <v>286</v>
-      </c>
-      <c r="J2">
         <v>223</v>
       </c>
-      <c r="K2" t="s">
-        <v>196</v>
-      </c>
-      <c r="L2" s="2">
+      <c r="J2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K2" s="2">
         <v>44425</v>
       </c>
-      <c r="M2" t="s">
-        <v>268</v>
+      <c r="L2" t="s">
+        <v>190</v>
+      </c>
+      <c r="O2" t="s">
+        <v>217</v>
+      </c>
+      <c r="P2" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1410,30 +1605,36 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" t="s">
-        <v>117</v>
+        <v>39</v>
+      </c>
+      <c r="D3">
+        <v>18816356</v>
       </c>
       <c r="E3">
-        <v>18816356</v>
-      </c>
-      <c r="F3">
         <v>627.2118666666667</v>
       </c>
-      <c r="K3" t="s">
-        <v>197</v>
+      <c r="J3" t="s">
+        <v>119</v>
+      </c>
+      <c r="O3" t="s">
+        <v>218</v>
+      </c>
+      <c r="P3" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>118</v>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4">
+        <v>11</v>
       </c>
       <c r="H4">
         <v>11</v>
@@ -1441,60 +1642,60 @@
       <c r="I4">
         <v>11</v>
       </c>
-      <c r="J4">
-        <v>11</v>
-      </c>
-      <c r="K4" t="s">
-        <v>198</v>
+      <c r="J4" t="s">
+        <v>120</v>
+      </c>
+      <c r="K4" s="2">
+        <v>44384</v>
       </c>
       <c r="L4" s="2">
-        <v>44384</v>
-      </c>
-      <c r="M4" s="2">
         <v>44511</v>
       </c>
-      <c r="N4" t="s">
-        <v>269</v>
+      <c r="M4" t="s">
+        <v>191</v>
+      </c>
+      <c r="O4" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>119</v>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
       </c>
       <c r="H5">
         <v>6</v>
       </c>
       <c r="I5">
-        <v>6</v>
-      </c>
-      <c r="J5">
         <v>5</v>
       </c>
+      <c r="J5" t="s">
+        <v>121</v>
+      </c>
       <c r="K5" t="s">
-        <v>199</v>
-      </c>
-      <c r="L5" t="s">
-        <v>266</v>
+        <v>188</v>
+      </c>
+      <c r="N5" t="s">
+        <v>200</v>
       </c>
       <c r="O5" t="s">
-        <v>278</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>120</v>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6">
+        <v>11</v>
       </c>
       <c r="H6">
         <v>11</v>
@@ -1502,31 +1703,31 @@
       <c r="I6">
         <v>11</v>
       </c>
-      <c r="J6">
-        <v>11</v>
-      </c>
-      <c r="K6" t="s">
-        <v>200</v>
+      <c r="J6" t="s">
+        <v>122</v>
+      </c>
+      <c r="K6" s="2">
+        <v>44383</v>
       </c>
       <c r="L6" s="2">
-        <v>44383</v>
-      </c>
-      <c r="M6" s="2">
         <v>44386</v>
       </c>
-      <c r="N6" t="s">
-        <v>269</v>
+      <c r="M6" t="s">
+        <v>191</v>
+      </c>
+      <c r="O6" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>121</v>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7">
+        <v>11</v>
       </c>
       <c r="H7">
         <v>11</v>
@@ -1534,31 +1735,31 @@
       <c r="I7">
         <v>11</v>
       </c>
-      <c r="J7">
-        <v>11</v>
-      </c>
-      <c r="K7" t="s">
-        <v>201</v>
+      <c r="J7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K7" s="2">
+        <v>44424</v>
       </c>
       <c r="L7" s="2">
-        <v>44424</v>
-      </c>
-      <c r="M7" s="2">
         <v>44468</v>
       </c>
-      <c r="N7" t="s">
-        <v>269</v>
+      <c r="M7" t="s">
+        <v>191</v>
+      </c>
+      <c r="O7" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>122</v>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8">
+        <v>11</v>
       </c>
       <c r="H8">
         <v>11</v>
@@ -1566,63 +1767,69 @@
       <c r="I8">
         <v>11</v>
       </c>
-      <c r="J8">
-        <v>11</v>
-      </c>
-      <c r="K8" t="s">
-        <v>202</v>
+      <c r="J8" t="s">
+        <v>124</v>
+      </c>
+      <c r="K8" s="2">
+        <v>44384</v>
       </c>
       <c r="L8" s="2">
-        <v>44384</v>
-      </c>
-      <c r="M8" s="2">
         <v>44482</v>
       </c>
-      <c r="N8" t="s">
-        <v>269</v>
+      <c r="M8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O8" t="s">
+        <v>223</v>
+      </c>
+      <c r="P8" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>123</v>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9">
+        <v>11</v>
       </c>
       <c r="H9">
         <v>11</v>
       </c>
       <c r="I9">
-        <v>11</v>
-      </c>
-      <c r="J9">
         <v>9</v>
       </c>
-      <c r="K9" t="s">
-        <v>203</v>
-      </c>
-      <c r="L9" s="2">
+      <c r="J9" t="s">
+        <v>125</v>
+      </c>
+      <c r="K9" s="2">
         <v>44389</v>
       </c>
+      <c r="M9" t="s">
+        <v>191</v>
+      </c>
       <c r="N9" t="s">
-        <v>269</v>
+        <v>201</v>
       </c>
       <c r="O9" t="s">
-        <v>279</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>124</v>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10">
+        <v>11</v>
       </c>
       <c r="H10">
         <v>11</v>
@@ -1630,31 +1837,31 @@
       <c r="I10">
         <v>11</v>
       </c>
-      <c r="J10">
-        <v>11</v>
-      </c>
-      <c r="K10" t="s">
-        <v>204</v>
+      <c r="J10" t="s">
+        <v>126</v>
+      </c>
+      <c r="K10" s="2">
+        <v>44391</v>
       </c>
       <c r="L10" s="2">
-        <v>44391</v>
-      </c>
-      <c r="M10" s="2">
         <v>44425</v>
       </c>
-      <c r="N10" t="s">
-        <v>270</v>
+      <c r="M10" t="s">
+        <v>192</v>
+      </c>
+      <c r="O10" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>125</v>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11">
+        <v>11</v>
       </c>
       <c r="H11">
         <v>11</v>
@@ -1662,31 +1869,31 @@
       <c r="I11">
         <v>11</v>
       </c>
-      <c r="J11">
-        <v>11</v>
-      </c>
-      <c r="K11" t="s">
-        <v>205</v>
+      <c r="J11" t="s">
+        <v>127</v>
+      </c>
+      <c r="K11" s="2">
+        <v>44389</v>
       </c>
       <c r="L11" s="2">
-        <v>44389</v>
-      </c>
-      <c r="M11" s="2">
         <v>44391</v>
       </c>
-      <c r="N11" t="s">
-        <v>271</v>
+      <c r="M11" t="s">
+        <v>193</v>
+      </c>
+      <c r="O11" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>126</v>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12">
+        <v>11</v>
       </c>
       <c r="H12">
         <v>11</v>
@@ -1694,31 +1901,31 @@
       <c r="I12">
         <v>11</v>
       </c>
-      <c r="J12">
-        <v>11</v>
-      </c>
-      <c r="K12" t="s">
-        <v>206</v>
+      <c r="J12" t="s">
+        <v>128</v>
+      </c>
+      <c r="K12" s="2">
+        <v>44391</v>
       </c>
       <c r="L12" s="2">
-        <v>44391</v>
-      </c>
-      <c r="M12" s="2">
         <v>44404</v>
       </c>
-      <c r="N12" t="s">
-        <v>272</v>
+      <c r="M12" t="s">
+        <v>194</v>
+      </c>
+      <c r="O12" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>127</v>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13">
+        <v>11</v>
       </c>
       <c r="H13">
         <v>11</v>
@@ -1726,31 +1933,31 @@
       <c r="I13">
         <v>11</v>
       </c>
-      <c r="J13">
-        <v>11</v>
-      </c>
-      <c r="K13" t="s">
-        <v>207</v>
+      <c r="J13" t="s">
+        <v>129</v>
+      </c>
+      <c r="K13" s="2">
+        <v>44392</v>
       </c>
       <c r="L13" s="2">
-        <v>44392</v>
-      </c>
-      <c r="M13" s="2">
         <v>44505</v>
       </c>
-      <c r="N13" t="s">
-        <v>271</v>
+      <c r="M13" t="s">
+        <v>193</v>
+      </c>
+      <c r="O13" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" t="s">
-        <v>128</v>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14">
+        <v>11</v>
       </c>
       <c r="H14">
         <v>11</v>
@@ -1758,31 +1965,31 @@
       <c r="I14">
         <v>11</v>
       </c>
-      <c r="J14">
-        <v>11</v>
-      </c>
-      <c r="K14" t="s">
-        <v>208</v>
+      <c r="J14" t="s">
+        <v>130</v>
+      </c>
+      <c r="K14" s="2">
+        <v>44389</v>
       </c>
       <c r="L14" s="2">
-        <v>44389</v>
-      </c>
-      <c r="M14" s="2">
         <v>44419</v>
       </c>
-      <c r="N14" t="s">
-        <v>273</v>
+      <c r="M14" t="s">
+        <v>195</v>
+      </c>
+      <c r="O14" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" t="s">
-        <v>129</v>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15">
+        <v>11</v>
       </c>
       <c r="H15">
         <v>11</v>
@@ -1790,31 +1997,31 @@
       <c r="I15">
         <v>11</v>
       </c>
-      <c r="J15">
-        <v>11</v>
-      </c>
-      <c r="K15" t="s">
-        <v>209</v>
+      <c r="J15" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15" s="2">
+        <v>44390</v>
       </c>
       <c r="L15" s="2">
-        <v>44390</v>
-      </c>
-      <c r="M15" s="2">
         <v>44406</v>
       </c>
-      <c r="N15" t="s">
-        <v>271</v>
+      <c r="M15" t="s">
+        <v>193</v>
+      </c>
+      <c r="O15" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" t="s">
-        <v>130</v>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16">
+        <v>11</v>
       </c>
       <c r="H16">
         <v>11</v>
@@ -1822,31 +2029,31 @@
       <c r="I16">
         <v>11</v>
       </c>
-      <c r="J16">
-        <v>11</v>
-      </c>
-      <c r="K16" t="s">
-        <v>210</v>
+      <c r="J16" t="s">
+        <v>132</v>
+      </c>
+      <c r="K16" s="2">
+        <v>44389</v>
       </c>
       <c r="L16" s="2">
-        <v>44389</v>
-      </c>
-      <c r="M16" s="2">
         <v>44477</v>
       </c>
-      <c r="N16" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="M16" t="s">
+        <v>196</v>
+      </c>
+      <c r="O16" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" t="s">
-        <v>131</v>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17">
+        <v>11</v>
       </c>
       <c r="H17">
         <v>11</v>
@@ -1854,34 +2061,34 @@
       <c r="I17">
         <v>11</v>
       </c>
-      <c r="J17">
-        <v>11</v>
-      </c>
-      <c r="K17" t="s">
-        <v>211</v>
+      <c r="J17" t="s">
+        <v>133</v>
+      </c>
+      <c r="K17" s="2">
+        <v>44391</v>
       </c>
       <c r="L17" s="2">
-        <v>44391</v>
-      </c>
-      <c r="M17" s="2">
         <v>44399</v>
       </c>
-      <c r="N17" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="M17" t="s">
+        <v>192</v>
+      </c>
+      <c r="O17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" t="s">
-        <v>132</v>
+        <v>54</v>
+      </c>
+      <c r="G18">
+        <v>11</v>
       </c>
       <c r="H18">
         <v>11</v>
@@ -1889,31 +2096,31 @@
       <c r="I18">
         <v>11</v>
       </c>
-      <c r="J18">
-        <v>11</v>
-      </c>
-      <c r="K18" t="s">
-        <v>212</v>
+      <c r="J18" t="s">
+        <v>134</v>
+      </c>
+      <c r="K18" s="2">
+        <v>44386</v>
       </c>
       <c r="L18" s="2">
-        <v>44386</v>
-      </c>
-      <c r="M18" s="2">
         <v>44456</v>
       </c>
-      <c r="N18" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="M18" t="s">
+        <v>197</v>
+      </c>
+      <c r="O18" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" t="s">
-        <v>133</v>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19">
+        <v>11</v>
       </c>
       <c r="H19">
         <v>11</v>
@@ -1921,31 +2128,31 @@
       <c r="I19">
         <v>11</v>
       </c>
-      <c r="J19">
-        <v>11</v>
-      </c>
-      <c r="K19" t="s">
-        <v>213</v>
+      <c r="J19" t="s">
+        <v>135</v>
+      </c>
+      <c r="K19" s="2">
+        <v>44389</v>
       </c>
       <c r="L19" s="2">
-        <v>44389</v>
-      </c>
-      <c r="M19" s="2">
         <v>44392</v>
       </c>
-      <c r="N19" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="M19" t="s">
+        <v>198</v>
+      </c>
+      <c r="O19" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" t="s">
-        <v>134</v>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20">
+        <v>11</v>
       </c>
       <c r="H20">
         <v>11</v>
@@ -1953,57 +2160,63 @@
       <c r="I20">
         <v>11</v>
       </c>
-      <c r="J20">
-        <v>11</v>
-      </c>
-      <c r="K20" t="s">
-        <v>214</v>
+      <c r="J20" t="s">
+        <v>136</v>
+      </c>
+      <c r="K20" s="2">
+        <v>44414</v>
       </c>
       <c r="L20" s="2">
-        <v>44414</v>
-      </c>
-      <c r="M20" s="2">
         <v>44440</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="O20" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" t="s">
-        <v>135</v>
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21">
+        <v>11</v>
       </c>
       <c r="H21">
         <v>11</v>
       </c>
       <c r="I21">
-        <v>11</v>
-      </c>
-      <c r="J21">
         <v>5</v>
       </c>
-      <c r="K21" t="s">
-        <v>215</v>
-      </c>
-      <c r="L21" s="2">
+      <c r="J21" t="s">
+        <v>137</v>
+      </c>
+      <c r="K21" s="2">
         <v>44418</v>
       </c>
+      <c r="N21" t="s">
+        <v>202</v>
+      </c>
       <c r="O21" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>236</v>
+      </c>
+      <c r="P21" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" t="s">
-        <v>136</v>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22">
+        <v>11</v>
       </c>
       <c r="H22">
         <v>11</v>
@@ -2011,28 +2224,28 @@
       <c r="I22">
         <v>11</v>
       </c>
-      <c r="J22">
-        <v>11</v>
-      </c>
-      <c r="K22" t="s">
-        <v>216</v>
+      <c r="J22" t="s">
+        <v>138</v>
+      </c>
+      <c r="K22" s="2">
+        <v>44424</v>
       </c>
       <c r="L22" s="2">
-        <v>44424</v>
-      </c>
-      <c r="M22" s="2">
         <v>44435</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="O22" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" t="s">
-        <v>137</v>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23">
+        <v>11</v>
       </c>
       <c r="H23">
         <v>11</v>
@@ -2040,28 +2253,28 @@
       <c r="I23">
         <v>11</v>
       </c>
-      <c r="J23">
-        <v>11</v>
-      </c>
-      <c r="K23" t="s">
-        <v>217</v>
+      <c r="J23" t="s">
+        <v>139</v>
+      </c>
+      <c r="K23" s="2">
+        <v>44428</v>
       </c>
       <c r="L23" s="2">
-        <v>44428</v>
-      </c>
-      <c r="M23" s="2">
         <v>44551</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="O23" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" t="s">
-        <v>138</v>
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24">
+        <v>10</v>
       </c>
       <c r="H24">
         <v>10</v>
@@ -2069,86 +2282,86 @@
       <c r="I24">
         <v>10</v>
       </c>
-      <c r="J24">
-        <v>10</v>
-      </c>
-      <c r="K24" t="s">
-        <v>218</v>
+      <c r="J24" t="s">
+        <v>140</v>
+      </c>
+      <c r="K24" s="2">
+        <v>44431</v>
       </c>
       <c r="L24" s="2">
-        <v>44431</v>
-      </c>
-      <c r="M24" s="2">
         <v>44470</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="O24" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" t="s">
-        <v>139</v>
+      <c r="C25" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25">
+        <v>11</v>
       </c>
       <c r="H25">
         <v>11</v>
       </c>
       <c r="I25">
-        <v>11</v>
-      </c>
-      <c r="J25">
         <v>9</v>
       </c>
-      <c r="K25" t="s">
-        <v>219</v>
-      </c>
-      <c r="L25" s="2">
+      <c r="J25" t="s">
+        <v>141</v>
+      </c>
+      <c r="K25" s="2">
         <v>44438</v>
       </c>
+      <c r="N25" t="s">
+        <v>203</v>
+      </c>
       <c r="O25" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="1">
         <v>26</v>
       </c>
-      <c r="B26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" t="s">
-        <v>140</v>
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26">
+        <v>11</v>
       </c>
       <c r="H26">
         <v>11</v>
       </c>
       <c r="I26">
-        <v>11</v>
-      </c>
-      <c r="J26">
         <v>10</v>
       </c>
-      <c r="K26" t="s">
-        <v>220</v>
-      </c>
-      <c r="L26" s="2">
+      <c r="J26" t="s">
+        <v>142</v>
+      </c>
+      <c r="K26" s="2">
         <v>44439</v>
       </c>
+      <c r="N26" t="s">
+        <v>204</v>
+      </c>
       <c r="O26" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="1">
         <v>27</v>
       </c>
-      <c r="B27" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" t="s">
-        <v>141</v>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27">
+        <v>11</v>
       </c>
       <c r="H27">
         <v>11</v>
@@ -2156,28 +2369,34 @@
       <c r="I27">
         <v>11</v>
       </c>
-      <c r="J27">
-        <v>11</v>
-      </c>
-      <c r="K27" t="s">
-        <v>221</v>
+      <c r="J27" t="s">
+        <v>143</v>
+      </c>
+      <c r="K27" s="2">
+        <v>44439</v>
       </c>
       <c r="L27" s="2">
-        <v>44439</v>
-      </c>
-      <c r="M27" s="2">
         <v>44453</v>
       </c>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="O27" t="s">
+        <v>242</v>
+      </c>
+      <c r="P27" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="1">
         <v>28</v>
       </c>
-      <c r="B28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" t="s">
-        <v>142</v>
+      <c r="C28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28">
+        <v>11</v>
       </c>
       <c r="H28">
         <v>11</v>
@@ -2185,28 +2404,34 @@
       <c r="I28">
         <v>11</v>
       </c>
-      <c r="J28">
-        <v>11</v>
-      </c>
-      <c r="K28" t="s">
-        <v>222</v>
+      <c r="J28" t="s">
+        <v>144</v>
+      </c>
+      <c r="K28" s="2">
+        <v>44453</v>
       </c>
       <c r="L28" s="2">
-        <v>44453</v>
-      </c>
-      <c r="M28" s="2">
         <v>44466</v>
       </c>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="O28" t="s">
+        <v>243</v>
+      </c>
+      <c r="P28" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="1">
         <v>29</v>
       </c>
-      <c r="B29" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" t="s">
-        <v>143</v>
+      <c r="C29" t="s">
+        <v>65</v>
+      </c>
+      <c r="G29">
+        <v>11</v>
       </c>
       <c r="H29">
         <v>11</v>
@@ -2214,83 +2439,83 @@
       <c r="I29">
         <v>11</v>
       </c>
-      <c r="J29">
-        <v>11</v>
-      </c>
-      <c r="K29" t="s">
-        <v>218</v>
-      </c>
-      <c r="L29" s="2">
+      <c r="J29" t="s">
+        <v>140</v>
+      </c>
+      <c r="K29" s="2">
         <v>44459</v>
       </c>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="O29" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="1">
         <v>30</v>
       </c>
-      <c r="B30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" t="s">
-        <v>144</v>
+      <c r="C30" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30">
+        <v>11</v>
       </c>
       <c r="H30">
         <v>11</v>
       </c>
       <c r="I30">
-        <v>11</v>
-      </c>
-      <c r="J30">
         <v>7</v>
       </c>
-      <c r="K30" t="s">
-        <v>223</v>
-      </c>
-      <c r="L30" s="2">
+      <c r="J30" t="s">
+        <v>145</v>
+      </c>
+      <c r="K30" s="2">
         <v>44469</v>
       </c>
+      <c r="N30" t="s">
+        <v>205</v>
+      </c>
       <c r="O30" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="1">
         <v>31</v>
       </c>
-      <c r="B31" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" t="s">
-        <v>145</v>
+      <c r="C31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31">
+        <v>10</v>
       </c>
       <c r="H31">
         <v>10</v>
       </c>
       <c r="I31">
-        <v>10</v>
-      </c>
-      <c r="J31">
         <v>7</v>
       </c>
-      <c r="K31" t="s">
-        <v>224</v>
-      </c>
-      <c r="L31" s="2">
+      <c r="J31" t="s">
+        <v>146</v>
+      </c>
+      <c r="K31" s="2">
         <v>44474</v>
       </c>
+      <c r="N31" t="s">
+        <v>206</v>
+      </c>
       <c r="O31" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="1">
         <v>32</v>
       </c>
-      <c r="B32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" t="s">
-        <v>146</v>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32">
+        <v>11</v>
       </c>
       <c r="H32">
         <v>11</v>
@@ -2298,28 +2523,34 @@
       <c r="I32">
         <v>11</v>
       </c>
-      <c r="J32">
-        <v>11</v>
-      </c>
-      <c r="K32" t="s">
-        <v>225</v>
+      <c r="J32" t="s">
+        <v>147</v>
+      </c>
+      <c r="K32" s="2">
+        <v>44483</v>
       </c>
       <c r="L32" s="2">
-        <v>44483</v>
-      </c>
-      <c r="M32" s="2">
         <v>44519</v>
       </c>
-    </row>
-    <row r="33" spans="1:15">
+      <c r="O32" t="s">
+        <v>247</v>
+      </c>
+      <c r="P32" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="1">
         <v>33</v>
       </c>
-      <c r="B33" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" t="s">
-        <v>147</v>
+      <c r="C33" t="s">
+        <v>69</v>
+      </c>
+      <c r="G33">
+        <v>11</v>
       </c>
       <c r="H33">
         <v>11</v>
@@ -2327,112 +2558,112 @@
       <c r="I33">
         <v>11</v>
       </c>
-      <c r="J33">
-        <v>11</v>
-      </c>
-      <c r="K33" t="s">
-        <v>226</v>
-      </c>
-      <c r="L33" s="2">
+      <c r="J33" t="s">
+        <v>148</v>
+      </c>
+      <c r="K33" s="2">
         <v>44483</v>
       </c>
-    </row>
-    <row r="34" spans="1:15">
+      <c r="O33" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" s="1">
         <v>34</v>
       </c>
-      <c r="B34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" t="s">
-        <v>148</v>
+      <c r="C34" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34">
+        <v>11</v>
       </c>
       <c r="H34">
         <v>11</v>
       </c>
       <c r="I34">
-        <v>11</v>
-      </c>
-      <c r="J34">
         <v>6</v>
       </c>
-      <c r="K34" t="s">
-        <v>227</v>
-      </c>
-      <c r="L34" s="2">
+      <c r="J34" t="s">
+        <v>149</v>
+      </c>
+      <c r="K34" s="2">
         <v>44483</v>
       </c>
+      <c r="N34" t="s">
+        <v>207</v>
+      </c>
       <c r="O34" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" s="1">
         <v>35</v>
       </c>
-      <c r="B35" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" t="s">
-        <v>149</v>
+      <c r="C35" t="s">
+        <v>71</v>
+      </c>
+      <c r="G35">
+        <v>11</v>
       </c>
       <c r="H35">
         <v>11</v>
       </c>
       <c r="I35">
-        <v>11</v>
-      </c>
-      <c r="J35">
         <v>4</v>
       </c>
-      <c r="K35" t="s">
-        <v>228</v>
-      </c>
-      <c r="L35" s="2">
+      <c r="J35" t="s">
+        <v>150</v>
+      </c>
+      <c r="K35" s="2">
         <v>44483</v>
       </c>
+      <c r="N35" t="s">
+        <v>208</v>
+      </c>
       <c r="O35" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" s="1">
         <v>36</v>
       </c>
-      <c r="B36" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" t="s">
-        <v>150</v>
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
+      <c r="G36">
+        <v>11</v>
       </c>
       <c r="H36">
         <v>11</v>
       </c>
       <c r="I36">
-        <v>11</v>
-      </c>
-      <c r="J36">
         <v>9</v>
       </c>
-      <c r="K36" t="s">
-        <v>229</v>
-      </c>
-      <c r="L36" s="2">
+      <c r="J36" t="s">
+        <v>151</v>
+      </c>
+      <c r="K36" s="2">
         <v>44484</v>
       </c>
+      <c r="N36" t="s">
+        <v>203</v>
+      </c>
       <c r="O36" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" s="1">
         <v>37</v>
       </c>
-      <c r="B37" t="s">
-        <v>51</v>
-      </c>
-      <c r="D37" t="s">
-        <v>151</v>
+      <c r="C37" t="s">
+        <v>73</v>
+      </c>
+      <c r="G37">
+        <v>11</v>
       </c>
       <c r="H37">
         <v>11</v>
@@ -2440,548 +2671,608 @@
       <c r="I37">
         <v>11</v>
       </c>
-      <c r="J37">
-        <v>11</v>
-      </c>
-      <c r="K37" t="s">
-        <v>230</v>
+      <c r="J37" t="s">
+        <v>152</v>
+      </c>
+      <c r="K37" s="2">
+        <v>44491</v>
       </c>
       <c r="L37" s="2">
-        <v>44491</v>
-      </c>
-      <c r="M37" s="2">
         <v>44546</v>
       </c>
-    </row>
-    <row r="38" spans="1:15">
+      <c r="O37" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" s="1">
         <v>38</v>
       </c>
-      <c r="B38" t="s">
-        <v>52</v>
-      </c>
-      <c r="D38" t="s">
-        <v>152</v>
+      <c r="C38" t="s">
+        <v>74</v>
+      </c>
+      <c r="G38">
+        <v>11</v>
       </c>
       <c r="H38">
         <v>11</v>
       </c>
       <c r="I38">
-        <v>11</v>
-      </c>
-      <c r="J38">
         <v>2</v>
       </c>
-      <c r="K38" t="s">
-        <v>231</v>
-      </c>
-      <c r="L38" s="2">
+      <c r="J38" t="s">
+        <v>153</v>
+      </c>
+      <c r="K38" s="2">
         <v>44494</v>
       </c>
+      <c r="N38" t="s">
+        <v>209</v>
+      </c>
       <c r="O38" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" s="1">
         <v>39</v>
       </c>
-      <c r="B39" t="s">
-        <v>53</v>
-      </c>
-      <c r="D39" t="s">
-        <v>153</v>
+      <c r="C39" t="s">
+        <v>75</v>
+      </c>
+      <c r="G39">
+        <v>10</v>
       </c>
       <c r="H39">
         <v>10</v>
       </c>
       <c r="I39">
-        <v>10</v>
-      </c>
-      <c r="J39">
         <v>9</v>
       </c>
-      <c r="K39" t="s">
-        <v>232</v>
-      </c>
-      <c r="L39" s="2">
+      <c r="J39" t="s">
+        <v>154</v>
+      </c>
+      <c r="K39" s="2">
         <v>44504</v>
       </c>
+      <c r="N39" t="s">
+        <v>204</v>
+      </c>
       <c r="O39" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" s="1">
         <v>40</v>
       </c>
-      <c r="B40" t="s">
-        <v>54</v>
-      </c>
-      <c r="D40" t="s">
-        <v>154</v>
+      <c r="C40" t="s">
+        <v>76</v>
+      </c>
+      <c r="G40">
+        <v>11</v>
       </c>
       <c r="H40">
         <v>11</v>
       </c>
       <c r="I40">
-        <v>11</v>
-      </c>
-      <c r="J40">
         <v>10</v>
       </c>
-      <c r="K40" t="s">
-        <v>233</v>
-      </c>
-      <c r="L40" s="2">
+      <c r="J40" t="s">
+        <v>155</v>
+      </c>
+      <c r="K40" s="2">
         <v>44543</v>
       </c>
+      <c r="N40" t="s">
+        <v>204</v>
+      </c>
       <c r="O40" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" s="1">
         <v>41</v>
       </c>
-      <c r="B41" t="s">
-        <v>55</v>
-      </c>
-      <c r="D41" t="s">
-        <v>155</v>
+      <c r="C41" t="s">
+        <v>77</v>
+      </c>
+      <c r="G41">
+        <v>11</v>
       </c>
       <c r="H41">
         <v>11</v>
       </c>
       <c r="I41">
-        <v>11</v>
-      </c>
-      <c r="J41">
         <v>3</v>
       </c>
-      <c r="K41" t="s">
-        <v>234</v>
-      </c>
-      <c r="L41" s="2">
+      <c r="J41" t="s">
+        <v>156</v>
+      </c>
+      <c r="K41" s="2">
         <v>44539</v>
       </c>
-    </row>
-    <row r="42" spans="1:15">
+      <c r="O41" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" s="1">
         <v>42</v>
       </c>
-      <c r="B42" t="s">
-        <v>56</v>
-      </c>
-      <c r="D42" t="s">
-        <v>156</v>
+      <c r="C42" t="s">
+        <v>78</v>
+      </c>
+      <c r="G42">
+        <v>11</v>
       </c>
       <c r="H42">
         <v>11</v>
       </c>
       <c r="I42">
-        <v>11</v>
-      </c>
-      <c r="J42">
         <v>0</v>
       </c>
-      <c r="K42" t="s">
-        <v>235</v>
+      <c r="J42" t="s">
+        <v>157</v>
+      </c>
+      <c r="N42" t="s">
+        <v>210</v>
       </c>
       <c r="O42" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" s="1">
         <v>43</v>
       </c>
-      <c r="B43" t="s">
-        <v>57</v>
-      </c>
-      <c r="D43" t="s">
-        <v>157</v>
+      <c r="C43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D43">
+        <v>2240042</v>
       </c>
       <c r="E43">
-        <v>2240042</v>
+        <v>49.77871111111111</v>
       </c>
       <c r="F43">
-        <v>49.77871111111111</v>
+        <v>149.3361333333333</v>
       </c>
       <c r="G43">
-        <v>149.3361333333333</v>
-      </c>
-      <c r="H43">
         <v>88</v>
       </c>
-      <c r="J43">
+      <c r="I43">
         <v>0</v>
       </c>
-      <c r="K43" t="s">
-        <v>236</v>
+      <c r="J43" t="s">
+        <v>158</v>
+      </c>
+      <c r="N43" t="s">
+        <v>211</v>
       </c>
       <c r="O43" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
+        <v>258</v>
+      </c>
+      <c r="P43" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" s="1">
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="C44" t="s">
-        <v>97</v>
-      </c>
-      <c r="D44" t="s">
-        <v>158</v>
+        <v>80</v>
+      </c>
+      <c r="D44">
+        <v>8120154</v>
       </c>
       <c r="E44">
-        <v>8120154</v>
+        <v>180.4478666666667</v>
       </c>
       <c r="F44">
-        <v>180.4478666666667</v>
-      </c>
-      <c r="G44">
         <v>541.3436</v>
       </c>
-    </row>
-    <row r="45" spans="1:15">
+      <c r="O44" t="s">
+        <v>259</v>
+      </c>
+      <c r="P44" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45" s="1">
         <v>45</v>
       </c>
-      <c r="B45" t="s">
-        <v>59</v>
-      </c>
-      <c r="D45" t="s">
-        <v>159</v>
+      <c r="C45" t="s">
+        <v>81</v>
+      </c>
+      <c r="G45">
+        <v>54</v>
       </c>
       <c r="H45">
         <v>54</v>
       </c>
       <c r="I45">
-        <v>54</v>
-      </c>
-      <c r="J45">
         <v>50</v>
       </c>
-      <c r="K45" t="s">
-        <v>237</v>
-      </c>
-      <c r="L45" s="2">
+      <c r="J45" t="s">
+        <v>159</v>
+      </c>
+      <c r="K45" s="2">
         <v>44469</v>
       </c>
-    </row>
-    <row r="46" spans="1:15">
+      <c r="O45" t="s">
+        <v>260</v>
+      </c>
+      <c r="P45" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46" s="1">
         <v>46</v>
       </c>
-      <c r="B46" t="s">
-        <v>60</v>
-      </c>
-      <c r="D46" t="s">
-        <v>160</v>
+      <c r="C46" t="s">
+        <v>82</v>
+      </c>
+      <c r="G46">
+        <v>56</v>
       </c>
       <c r="H46">
         <v>56</v>
       </c>
       <c r="I46">
-        <v>56</v>
-      </c>
-      <c r="J46">
         <v>30</v>
       </c>
-      <c r="K46" t="s">
-        <v>238</v>
-      </c>
-      <c r="L46" s="2">
+      <c r="J46" t="s">
+        <v>160</v>
+      </c>
+      <c r="K46" s="2">
         <v>44469</v>
       </c>
-    </row>
-    <row r="47" spans="1:15">
+      <c r="O46" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" s="1">
         <v>47</v>
       </c>
-      <c r="B47" t="s">
-        <v>60</v>
-      </c>
-      <c r="D47" t="s">
-        <v>160</v>
+      <c r="C47" t="s">
+        <v>82</v>
+      </c>
+      <c r="G47">
+        <v>19</v>
       </c>
       <c r="H47">
         <v>19</v>
       </c>
       <c r="I47">
-        <v>19</v>
-      </c>
-      <c r="J47">
         <v>6</v>
       </c>
-      <c r="K47" t="s">
-        <v>239</v>
-      </c>
-      <c r="L47" s="2">
+      <c r="J47" t="s">
+        <v>161</v>
+      </c>
+      <c r="K47" s="2">
         <v>44537</v>
       </c>
-    </row>
-    <row r="48" spans="1:15">
+      <c r="O47" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48" s="1">
         <v>48</v>
       </c>
-      <c r="B48" t="s">
-        <v>61</v>
-      </c>
-      <c r="D48" t="s">
-        <v>161</v>
+      <c r="C48" t="s">
+        <v>83</v>
+      </c>
+      <c r="G48">
+        <v>28</v>
       </c>
       <c r="H48">
         <v>28</v>
       </c>
       <c r="I48">
-        <v>28</v>
-      </c>
-      <c r="J48">
         <v>24</v>
       </c>
-      <c r="K48" t="s">
-        <v>240</v>
-      </c>
-      <c r="L48" s="2">
+      <c r="J48" t="s">
+        <v>162</v>
+      </c>
+      <c r="K48" s="2">
         <v>44414</v>
       </c>
+      <c r="N48" t="s">
+        <v>205</v>
+      </c>
       <c r="O48" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49" s="1">
         <v>49</v>
       </c>
-      <c r="B49" t="s">
-        <v>62</v>
-      </c>
-      <c r="D49" t="s">
-        <v>162</v>
+      <c r="C49" t="s">
+        <v>84</v>
+      </c>
+      <c r="G49">
+        <v>169</v>
       </c>
       <c r="H49">
         <v>169</v>
       </c>
       <c r="I49">
-        <v>169</v>
-      </c>
-      <c r="J49">
         <v>126</v>
       </c>
+      <c r="J49" t="s">
+        <v>163</v>
+      </c>
       <c r="K49" t="s">
-        <v>241</v>
-      </c>
-      <c r="L49" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
+        <v>189</v>
+      </c>
+      <c r="O49" t="s">
+        <v>263</v>
+      </c>
+      <c r="P49" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50" s="1">
         <v>50</v>
       </c>
-      <c r="B50" t="s">
-        <v>62</v>
-      </c>
-      <c r="D50" t="s">
-        <v>162</v>
+      <c r="C50" t="s">
+        <v>84</v>
+      </c>
+      <c r="G50">
+        <v>117</v>
       </c>
       <c r="H50">
         <v>117</v>
       </c>
       <c r="I50">
-        <v>117</v>
-      </c>
-      <c r="J50">
         <v>82</v>
       </c>
-      <c r="K50" t="s">
-        <v>242</v>
-      </c>
-      <c r="L50" s="2">
+      <c r="J50" t="s">
+        <v>164</v>
+      </c>
+      <c r="K50" s="2">
         <v>44488</v>
       </c>
-    </row>
-    <row r="51" spans="1:15">
+      <c r="O50" t="s">
+        <v>263</v>
+      </c>
+      <c r="P50" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51" s="1">
         <v>51</v>
       </c>
-      <c r="B51" t="s">
-        <v>63</v>
-      </c>
-      <c r="D51" t="s">
-        <v>163</v>
+      <c r="C51" t="s">
+        <v>85</v>
+      </c>
+      <c r="G51">
+        <v>66</v>
       </c>
       <c r="H51">
         <v>66</v>
       </c>
       <c r="I51">
-        <v>66</v>
-      </c>
-      <c r="J51">
         <v>64</v>
       </c>
-      <c r="L51" s="2">
+      <c r="K51" s="2">
         <v>44475</v>
       </c>
-    </row>
-    <row r="52" spans="1:15">
+      <c r="O51" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
       <c r="A52" s="1">
         <v>52</v>
       </c>
-      <c r="B52" t="s">
-        <v>64</v>
-      </c>
-      <c r="D52" t="s">
-        <v>164</v>
-      </c>
-      <c r="E52">
+      <c r="C52" t="s">
+        <v>86</v>
+      </c>
+      <c r="D52">
         <v>750000</v>
       </c>
-    </row>
-    <row r="53" spans="1:15">
+      <c r="O52" t="s">
+        <v>265</v>
+      </c>
+      <c r="P52" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
       <c r="A53" s="1">
         <v>53</v>
       </c>
-      <c r="B53" t="s">
-        <v>65</v>
-      </c>
-      <c r="D53" t="s">
-        <v>165</v>
+      <c r="C53" t="s">
+        <v>87</v>
+      </c>
+      <c r="G53">
+        <v>20</v>
       </c>
       <c r="H53">
         <v>20</v>
       </c>
       <c r="I53">
-        <v>20</v>
-      </c>
-      <c r="J53">
         <v>9</v>
       </c>
-      <c r="K53" t="s">
-        <v>243</v>
-      </c>
-      <c r="L53" s="2">
+      <c r="J53" t="s">
+        <v>165</v>
+      </c>
+      <c r="K53" s="2">
         <v>44494</v>
       </c>
+      <c r="N53" t="s">
+        <v>210</v>
+      </c>
       <c r="O53" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
       <c r="A54" s="1">
         <v>54</v>
       </c>
-      <c r="B54" t="s">
-        <v>66</v>
-      </c>
-      <c r="D54" t="s">
-        <v>166</v>
+      <c r="C54" t="s">
+        <v>88</v>
+      </c>
+      <c r="D54">
+        <v>1817820</v>
       </c>
       <c r="E54">
-        <v>1817820</v>
+        <v>60.594</v>
       </c>
       <c r="F54">
-        <v>60.594</v>
+        <v>181.782</v>
       </c>
       <c r="G54">
-        <v>181.782</v>
+        <v>32</v>
       </c>
       <c r="H54">
         <v>32</v>
       </c>
       <c r="I54">
-        <v>32</v>
-      </c>
-      <c r="J54">
         <v>14</v>
       </c>
-      <c r="K54" t="s">
-        <v>244</v>
-      </c>
-      <c r="L54" s="2">
+      <c r="J54" t="s">
+        <v>166</v>
+      </c>
+      <c r="K54" s="2">
         <v>44410</v>
       </c>
-      <c r="N54" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15">
+      <c r="M54" t="s">
+        <v>199</v>
+      </c>
+      <c r="O54" t="s">
+        <v>267</v>
+      </c>
+      <c r="P54" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
       <c r="A55" s="1">
         <v>56</v>
       </c>
-      <c r="B55" t="s">
-        <v>67</v>
-      </c>
-      <c r="D55" t="s">
-        <v>167</v>
-      </c>
-      <c r="H55">
+      <c r="C55" t="s">
+        <v>89</v>
+      </c>
+      <c r="G55">
         <v>0</v>
       </c>
+      <c r="N55" t="s">
+        <v>211</v>
+      </c>
       <c r="O55" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15">
+        <v>268</v>
+      </c>
+      <c r="P55" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
       <c r="A56" s="1">
         <v>57</v>
       </c>
-      <c r="B56" t="s">
-        <v>68</v>
-      </c>
-      <c r="D56" t="s">
-        <v>168</v>
-      </c>
-      <c r="E56">
+      <c r="C56" t="s">
+        <v>90</v>
+      </c>
+      <c r="D56">
         <v>215340</v>
       </c>
-      <c r="K56" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15">
+      <c r="J56" t="s">
+        <v>167</v>
+      </c>
+      <c r="O56" t="s">
+        <v>269</v>
+      </c>
+      <c r="P56" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
       <c r="A57" s="1">
         <v>58</v>
       </c>
-      <c r="B57" t="s">
-        <v>69</v>
-      </c>
-      <c r="D57" t="s">
-        <v>169</v>
-      </c>
-      <c r="E57">
+      <c r="C57" t="s">
+        <v>91</v>
+      </c>
+      <c r="D57">
         <v>1050000</v>
       </c>
-      <c r="K57" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15">
+      <c r="J57" t="s">
+        <v>167</v>
+      </c>
+      <c r="O57" t="s">
+        <v>270</v>
+      </c>
+      <c r="P57" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
       <c r="A58" s="1">
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C58" t="s">
-        <v>98</v>
-      </c>
-      <c r="D58" t="s">
-        <v>170</v>
+        <v>92</v>
+      </c>
+      <c r="D58">
+        <v>200000</v>
       </c>
       <c r="E58">
-        <v>200000</v>
+        <v>4.444444444444445</v>
       </c>
       <c r="F58">
-        <v>4.444444444444445</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="G58">
-        <v>13.33333333333333</v>
+        <v>10</v>
       </c>
       <c r="H58">
         <v>10</v>
@@ -2989,43 +3280,49 @@
       <c r="I58">
         <v>10</v>
       </c>
-      <c r="J58">
-        <v>10</v>
-      </c>
-      <c r="K58" t="s">
-        <v>246</v>
+      <c r="J58" t="s">
+        <v>168</v>
+      </c>
+      <c r="K58" s="2">
+        <v>44412</v>
       </c>
       <c r="L58" s="2">
-        <v>44412</v>
-      </c>
-      <c r="M58" s="2">
         <v>44475</v>
       </c>
-      <c r="N58" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15">
+      <c r="M58" t="s">
+        <v>198</v>
+      </c>
+      <c r="O58" t="s">
+        <v>271</v>
+      </c>
+      <c r="P58" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
       <c r="A59" s="1">
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C59" t="s">
-        <v>99</v>
-      </c>
-      <c r="D59" t="s">
-        <v>171</v>
+        <v>93</v>
+      </c>
+      <c r="D59">
+        <v>300000</v>
       </c>
       <c r="E59">
-        <v>300000</v>
+        <v>10</v>
       </c>
       <c r="F59">
+        <v>30</v>
+      </c>
+      <c r="G59">
         <v>10</v>
-      </c>
-      <c r="G59">
-        <v>30</v>
       </c>
       <c r="H59">
         <v>10</v>
@@ -3033,37 +3330,43 @@
       <c r="I59">
         <v>10</v>
       </c>
-      <c r="J59">
-        <v>10</v>
-      </c>
-      <c r="K59" t="s">
+      <c r="J59" t="s">
+        <v>169</v>
+      </c>
+      <c r="K59" s="2">
+        <v>44483</v>
+      </c>
+      <c r="L59" s="2">
+        <v>44519</v>
+      </c>
+      <c r="O59" t="s">
         <v>247</v>
       </c>
-      <c r="L59" s="2">
-        <v>44483</v>
-      </c>
-      <c r="M59" s="2">
-        <v>44519</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15">
+      <c r="P59" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
       <c r="A60" s="1">
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="C60" t="s">
-        <v>100</v>
-      </c>
-      <c r="D60" t="s">
-        <v>172</v>
+        <v>94</v>
+      </c>
+      <c r="D60">
+        <v>300000</v>
       </c>
       <c r="E60">
-        <v>300000</v>
-      </c>
-      <c r="F60">
         <v>6.666666666666667</v>
+      </c>
+      <c r="G60">
+        <v>12</v>
       </c>
       <c r="H60">
         <v>12</v>
@@ -3071,110 +3374,128 @@
       <c r="I60">
         <v>12</v>
       </c>
-      <c r="J60">
-        <v>12</v>
-      </c>
-      <c r="K60" t="s">
-        <v>248</v>
-      </c>
-      <c r="L60" s="2">
+      <c r="J60" t="s">
+        <v>170</v>
+      </c>
+      <c r="K60" s="2">
         <v>44382</v>
       </c>
-      <c r="N60" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15">
+      <c r="M60" t="s">
+        <v>197</v>
+      </c>
+      <c r="O60" t="s">
+        <v>272</v>
+      </c>
+      <c r="P60" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
       <c r="A61" s="1">
         <v>62</v>
       </c>
-      <c r="B61" t="s">
-        <v>72</v>
-      </c>
-      <c r="D61" t="s">
-        <v>173</v>
-      </c>
-      <c r="E61">
+      <c r="C61" t="s">
+        <v>95</v>
+      </c>
+      <c r="D61">
         <v>400000</v>
       </c>
+      <c r="F61">
+        <v>24.5398773006135</v>
+      </c>
       <c r="G61">
-        <v>24.5398773006135</v>
+        <v>14</v>
       </c>
       <c r="H61">
         <v>14</v>
       </c>
       <c r="I61">
-        <v>14</v>
-      </c>
-      <c r="J61">
         <v>8</v>
       </c>
-      <c r="K61" t="s">
-        <v>249</v>
-      </c>
-      <c r="L61" s="2">
+      <c r="J61" t="s">
+        <v>171</v>
+      </c>
+      <c r="K61" s="2">
         <v>44519</v>
       </c>
+      <c r="N61" t="s">
+        <v>212</v>
+      </c>
       <c r="O61" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15">
+        <v>273</v>
+      </c>
+      <c r="P61" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
       <c r="A62" s="1">
         <v>63</v>
       </c>
-      <c r="B62" t="s">
-        <v>73</v>
-      </c>
-      <c r="D62" t="s">
-        <v>174</v>
+      <c r="C62" t="s">
+        <v>96</v>
+      </c>
+      <c r="D62">
+        <v>339993</v>
       </c>
       <c r="E62">
-        <v>339993</v>
+        <v>11.3331</v>
       </c>
       <c r="F62">
-        <v>11.3331</v>
+        <v>33.9993</v>
       </c>
       <c r="G62">
-        <v>33.9993</v>
+        <v>6</v>
       </c>
       <c r="H62">
         <v>6</v>
       </c>
       <c r="I62">
-        <v>6</v>
-      </c>
-      <c r="J62">
         <v>3</v>
       </c>
-      <c r="K62" t="s">
-        <v>250</v>
-      </c>
-      <c r="L62" s="2">
+      <c r="J62" t="s">
+        <v>172</v>
+      </c>
+      <c r="K62" s="2">
         <v>44483</v>
       </c>
+      <c r="N62" t="s">
+        <v>206</v>
+      </c>
       <c r="O62" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15">
+        <v>274</v>
+      </c>
+      <c r="P62" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
       <c r="A63" s="1">
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="C63" t="s">
-        <v>101</v>
-      </c>
-      <c r="D63" t="s">
-        <v>175</v>
+        <v>97</v>
+      </c>
+      <c r="D63">
+        <v>150000</v>
       </c>
       <c r="E63">
-        <v>150000</v>
-      </c>
-      <c r="F63">
         <v>3.333333333333333</v>
+      </c>
+      <c r="G63">
+        <v>5</v>
       </c>
       <c r="H63">
         <v>5</v>
@@ -3182,171 +3503,201 @@
       <c r="I63">
         <v>5</v>
       </c>
-      <c r="J63">
-        <v>5</v>
-      </c>
-      <c r="K63" t="s">
-        <v>251</v>
+      <c r="J63" t="s">
+        <v>173</v>
+      </c>
+      <c r="K63" s="2">
+        <v>44382</v>
       </c>
       <c r="L63" s="2">
         <v>44382</v>
       </c>
-      <c r="M63" s="2">
-        <v>44382</v>
-      </c>
-      <c r="N63" t="s">
+      <c r="M63" t="s">
+        <v>197</v>
+      </c>
+      <c r="O63" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="64" spans="1:15">
+      <c r="P63" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
       <c r="A64" s="1">
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="C64" t="s">
-        <v>102</v>
-      </c>
-      <c r="D64" t="s">
-        <v>176</v>
+        <v>98</v>
+      </c>
+      <c r="D64">
+        <v>1500000</v>
       </c>
       <c r="E64">
-        <v>1500000</v>
+        <v>50</v>
       </c>
       <c r="F64">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G64">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="H64">
         <v>61</v>
       </c>
       <c r="I64">
-        <v>61</v>
-      </c>
-      <c r="J64">
         <v>21</v>
       </c>
-      <c r="K64" t="s">
-        <v>252</v>
+      <c r="J64" t="s">
+        <v>174</v>
+      </c>
+      <c r="N64" t="s">
+        <v>213</v>
       </c>
       <c r="O64" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15">
+        <v>276</v>
+      </c>
+      <c r="P64" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
       <c r="A65" s="1">
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="C65" t="s">
-        <v>103</v>
-      </c>
-      <c r="D65" t="s">
-        <v>177</v>
-      </c>
-      <c r="E65">
+        <v>99</v>
+      </c>
+      <c r="D65">
         <v>627190</v>
       </c>
+      <c r="F65">
+        <v>34.84388888888889</v>
+      </c>
       <c r="G65">
-        <v>34.84388888888889</v>
+        <v>22</v>
       </c>
       <c r="H65">
         <v>22</v>
       </c>
       <c r="I65">
-        <v>22</v>
-      </c>
-      <c r="J65">
         <v>21</v>
       </c>
-      <c r="K65" t="s">
-        <v>253</v>
-      </c>
-      <c r="L65" s="2">
+      <c r="J65" t="s">
+        <v>175</v>
+      </c>
+      <c r="K65" s="2">
         <v>44435</v>
       </c>
-    </row>
-    <row r="66" spans="1:15">
+      <c r="O65" t="s">
+        <v>277</v>
+      </c>
+      <c r="P65" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
       <c r="A66" s="1">
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="C66" t="s">
-        <v>104</v>
-      </c>
-      <c r="D66" t="s">
-        <v>178</v>
+        <v>100</v>
+      </c>
+      <c r="D66">
+        <v>300000</v>
       </c>
       <c r="E66">
-        <v>300000</v>
-      </c>
-      <c r="F66">
         <v>6.666666666666667</v>
+      </c>
+      <c r="G66">
+        <v>10</v>
       </c>
       <c r="H66">
         <v>10</v>
       </c>
       <c r="I66">
-        <v>10</v>
-      </c>
-      <c r="J66">
         <v>8</v>
       </c>
-      <c r="K66" t="s">
-        <v>254</v>
-      </c>
-      <c r="L66" s="2">
+      <c r="J66" t="s">
+        <v>176</v>
+      </c>
+      <c r="K66" s="2">
         <v>44382</v>
       </c>
+      <c r="M66" t="s">
+        <v>197</v>
+      </c>
       <c r="N66" t="s">
-        <v>275</v>
+        <v>203</v>
       </c>
       <c r="O66" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15">
+        <v>278</v>
+      </c>
+      <c r="P66" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
       <c r="A67" s="1">
         <v>68</v>
       </c>
-      <c r="B67" t="s">
-        <v>78</v>
-      </c>
-      <c r="D67" t="s">
-        <v>179</v>
-      </c>
-      <c r="E67">
+      <c r="C67" t="s">
+        <v>101</v>
+      </c>
+      <c r="D67">
         <v>1029986</v>
       </c>
-      <c r="K67" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15">
+      <c r="J67" t="s">
+        <v>167</v>
+      </c>
+      <c r="O67" t="s">
+        <v>279</v>
+      </c>
+      <c r="P67" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
       <c r="A68" s="1">
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="C68" t="s">
-        <v>105</v>
-      </c>
-      <c r="D68" t="s">
-        <v>180</v>
-      </c>
-      <c r="E68">
+        <v>102</v>
+      </c>
+      <c r="D68">
         <v>440000</v>
       </c>
+      <c r="F68">
+        <v>29.33333333333333</v>
+      </c>
       <c r="G68">
-        <v>29.33333333333333</v>
+        <v>8</v>
       </c>
       <c r="H68">
         <v>8</v>
@@ -3354,83 +3705,101 @@
       <c r="I68">
         <v>8</v>
       </c>
-      <c r="J68">
-        <v>8</v>
-      </c>
-      <c r="K68" t="s">
-        <v>255</v>
-      </c>
-      <c r="M68" s="2">
+      <c r="J68" t="s">
+        <v>177</v>
+      </c>
+      <c r="L68" s="2">
         <v>44377</v>
       </c>
-      <c r="N68" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15">
+      <c r="M68" t="s">
+        <v>197</v>
+      </c>
+      <c r="O68" t="s">
+        <v>280</v>
+      </c>
+      <c r="P68" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
       <c r="A69" s="1">
         <v>70</v>
       </c>
-      <c r="B69" t="s">
-        <v>80</v>
-      </c>
-      <c r="D69" t="s">
-        <v>181</v>
-      </c>
-      <c r="E69">
+      <c r="C69" t="s">
+        <v>103</v>
+      </c>
+      <c r="D69">
         <v>659340</v>
       </c>
-      <c r="K69" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15">
+      <c r="J69" t="s">
+        <v>167</v>
+      </c>
+      <c r="O69" t="s">
+        <v>281</v>
+      </c>
+      <c r="P69" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
       <c r="A70" s="1">
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="C70" t="s">
-        <v>106</v>
-      </c>
-      <c r="D70" t="s">
-        <v>182</v>
+        <v>104</v>
+      </c>
+      <c r="D70">
+        <v>300000</v>
       </c>
       <c r="E70">
-        <v>300000</v>
+        <v>10</v>
       </c>
       <c r="F70">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G70">
-        <v>30</v>
-      </c>
-      <c r="H70">
         <v>0</v>
       </c>
+      <c r="N70" t="s">
+        <v>211</v>
+      </c>
       <c r="O70" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15">
+        <v>282</v>
+      </c>
+      <c r="P70" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
       <c r="A71" s="1">
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="C71" t="s">
-        <v>107</v>
-      </c>
-      <c r="D71" t="s">
-        <v>183</v>
+        <v>105</v>
+      </c>
+      <c r="D71">
+        <v>150000</v>
       </c>
       <c r="E71">
-        <v>150000</v>
-      </c>
-      <c r="F71">
         <v>3.333333333333333</v>
+      </c>
+      <c r="G71">
+        <v>8</v>
       </c>
       <c r="H71">
         <v>8</v>
@@ -3438,40 +3807,46 @@
       <c r="I71">
         <v>8</v>
       </c>
-      <c r="J71">
-        <v>8</v>
-      </c>
-      <c r="K71" t="s">
-        <v>256</v>
+      <c r="J71" t="s">
+        <v>178</v>
+      </c>
+      <c r="K71" s="2">
+        <v>44384</v>
       </c>
       <c r="L71" s="2">
-        <v>44384</v>
-      </c>
-      <c r="M71" s="2">
         <v>44495</v>
       </c>
-      <c r="N71" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15">
+      <c r="M71" t="s">
+        <v>193</v>
+      </c>
+      <c r="O71" t="s">
+        <v>283</v>
+      </c>
+      <c r="P71" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
       <c r="A72" s="1">
         <v>73</v>
       </c>
-      <c r="B72" t="s">
-        <v>83</v>
-      </c>
-      <c r="D72" t="s">
-        <v>184</v>
+      <c r="C72" t="s">
+        <v>106</v>
+      </c>
+      <c r="D72">
+        <v>300000</v>
       </c>
       <c r="E72">
-        <v>300000</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="F72">
-        <v>6.666666666666667</v>
+        <v>20</v>
       </c>
       <c r="G72">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H72">
         <v>10</v>
@@ -3479,107 +3854,125 @@
       <c r="I72">
         <v>10</v>
       </c>
-      <c r="J72">
-        <v>10</v>
-      </c>
-      <c r="K72" t="s">
-        <v>257</v>
+      <c r="J72" t="s">
+        <v>179</v>
+      </c>
+      <c r="K72" s="2">
+        <v>44418</v>
       </c>
       <c r="L72" s="2">
-        <v>44418</v>
-      </c>
-      <c r="M72" s="2">
         <v>44552</v>
       </c>
-    </row>
-    <row r="73" spans="1:15">
+      <c r="O72" t="s">
+        <v>284</v>
+      </c>
+      <c r="P72" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
       <c r="A73" s="1">
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="C73" t="s">
-        <v>108</v>
-      </c>
-      <c r="D73" t="s">
-        <v>185</v>
+        <v>107</v>
+      </c>
+      <c r="D73">
+        <v>500000</v>
       </c>
       <c r="E73">
-        <v>500000</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="F73">
-        <v>16.66666666666667</v>
+        <v>50</v>
       </c>
       <c r="G73">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="H73">
         <v>10</v>
       </c>
       <c r="I73">
-        <v>10</v>
-      </c>
-      <c r="J73">
         <v>9</v>
       </c>
-      <c r="K73" t="s">
-        <v>258</v>
+      <c r="J73" t="s">
+        <v>180</v>
+      </c>
+      <c r="N73" t="s">
+        <v>214</v>
       </c>
       <c r="O73" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15">
+        <v>285</v>
+      </c>
+      <c r="P73" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
       <c r="A74" s="1">
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="C74" t="s">
-        <v>109</v>
-      </c>
-      <c r="D74" t="s">
-        <v>186</v>
+        <v>108</v>
+      </c>
+      <c r="D74">
+        <v>600000</v>
       </c>
       <c r="E74">
-        <v>600000</v>
+        <v>20</v>
       </c>
       <c r="F74">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="G74">
-        <v>60</v>
-      </c>
-      <c r="H74">
         <v>0</v>
       </c>
+      <c r="N74" t="s">
+        <v>211</v>
+      </c>
       <c r="O74" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15">
+        <v>286</v>
+      </c>
+      <c r="P74" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
       <c r="A75" s="1">
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="C75" t="s">
-        <v>110</v>
-      </c>
-      <c r="D75" t="s">
-        <v>187</v>
+        <v>109</v>
+      </c>
+      <c r="D75">
+        <v>100000</v>
       </c>
       <c r="E75">
-        <v>100000</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="F75">
-        <v>2.222222222222222</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="G75">
-        <v>6.666666666666667</v>
+        <v>4</v>
       </c>
       <c r="H75">
         <v>4</v>
@@ -3587,37 +3980,43 @@
       <c r="I75">
         <v>4</v>
       </c>
-      <c r="J75">
-        <v>4</v>
-      </c>
-      <c r="K75" t="s">
-        <v>259</v>
+      <c r="J75" t="s">
+        <v>181</v>
+      </c>
+      <c r="K75" s="2">
+        <v>44389</v>
       </c>
       <c r="L75" s="2">
-        <v>44389</v>
-      </c>
-      <c r="M75" s="2">
         <v>44405</v>
       </c>
-      <c r="N75" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15">
+      <c r="M75" t="s">
+        <v>192</v>
+      </c>
+      <c r="O75" t="s">
+        <v>287</v>
+      </c>
+      <c r="P75" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
       <c r="A76" s="1">
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="C76" t="s">
-        <v>111</v>
-      </c>
-      <c r="D76" t="s">
-        <v>188</v>
-      </c>
-      <c r="E76">
+        <v>110</v>
+      </c>
+      <c r="D76">
         <v>300000</v>
+      </c>
+      <c r="G76">
+        <v>10</v>
       </c>
       <c r="H76">
         <v>10</v>
@@ -3625,78 +4024,90 @@
       <c r="I76">
         <v>10</v>
       </c>
-      <c r="J76">
-        <v>10</v>
-      </c>
-      <c r="K76" t="s">
-        <v>260</v>
+      <c r="J76" t="s">
+        <v>182</v>
+      </c>
+      <c r="K76" s="2">
+        <v>44469</v>
       </c>
       <c r="L76" s="2">
-        <v>44469</v>
-      </c>
-      <c r="M76" s="2">
         <v>44517</v>
       </c>
-    </row>
-    <row r="77" spans="1:15">
+      <c r="O76" t="s">
+        <v>288</v>
+      </c>
+      <c r="P76" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
       <c r="A77" s="1">
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C77" t="s">
-        <v>112</v>
-      </c>
-      <c r="D77" t="s">
-        <v>189</v>
+        <v>111</v>
+      </c>
+      <c r="D77">
+        <v>300000</v>
       </c>
       <c r="E77">
-        <v>300000</v>
+        <v>10</v>
       </c>
       <c r="F77">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G77">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="H77">
         <v>9</v>
       </c>
       <c r="I77">
-        <v>9</v>
-      </c>
-      <c r="J77">
         <v>3</v>
       </c>
-      <c r="K77" t="s">
-        <v>261</v>
-      </c>
-      <c r="L77" s="2">
+      <c r="J77" t="s">
+        <v>183</v>
+      </c>
+      <c r="K77" s="2">
         <v>44497</v>
       </c>
+      <c r="N77" t="s">
+        <v>215</v>
+      </c>
       <c r="O77" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15">
+        <v>236</v>
+      </c>
+      <c r="P77" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
       <c r="A78" s="1">
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="C78" t="s">
-        <v>113</v>
-      </c>
-      <c r="D78" t="s">
-        <v>190</v>
+        <v>112</v>
+      </c>
+      <c r="D78">
+        <v>600000</v>
       </c>
       <c r="E78">
-        <v>600000</v>
-      </c>
-      <c r="F78">
         <v>13.33333333333333</v>
+      </c>
+      <c r="G78">
+        <v>30</v>
       </c>
       <c r="H78">
         <v>30</v>
@@ -3704,34 +4115,40 @@
       <c r="I78">
         <v>30</v>
       </c>
-      <c r="J78">
-        <v>30</v>
-      </c>
-      <c r="K78" t="s">
-        <v>262</v>
+      <c r="J78" t="s">
+        <v>184</v>
+      </c>
+      <c r="K78" s="2">
+        <v>44421</v>
       </c>
       <c r="L78" s="2">
-        <v>44421</v>
-      </c>
-      <c r="M78" s="2">
         <v>44453</v>
       </c>
-    </row>
-    <row r="79" spans="1:15">
+      <c r="O78" t="s">
+        <v>289</v>
+      </c>
+      <c r="P78" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
       <c r="A79" s="1">
         <v>80</v>
       </c>
-      <c r="B79" t="s">
-        <v>89</v>
-      </c>
-      <c r="D79" t="s">
-        <v>191</v>
+      <c r="C79" t="s">
+        <v>113</v>
+      </c>
+      <c r="D79">
+        <v>300000</v>
       </c>
       <c r="E79">
-        <v>300000</v>
-      </c>
-      <c r="F79">
         <v>6.666666666666667</v>
+      </c>
+      <c r="G79">
+        <v>10</v>
       </c>
       <c r="H79">
         <v>10</v>
@@ -3739,116 +4156,134 @@
       <c r="I79">
         <v>10</v>
       </c>
-      <c r="J79">
-        <v>10</v>
-      </c>
-      <c r="K79" t="s">
-        <v>263</v>
+      <c r="J79" t="s">
+        <v>185</v>
+      </c>
+      <c r="K79" s="2">
+        <v>44421</v>
       </c>
       <c r="L79" s="2">
-        <v>44421</v>
-      </c>
-      <c r="M79" s="2">
         <v>44503</v>
       </c>
-    </row>
-    <row r="80" spans="1:15">
+      <c r="O79" t="s">
+        <v>290</v>
+      </c>
+      <c r="P79" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
       <c r="A80" s="1">
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="C80" t="s">
         <v>114</v>
       </c>
-      <c r="D80" t="s">
-        <v>192</v>
+      <c r="D80">
+        <v>606996</v>
       </c>
       <c r="E80">
-        <v>606996</v>
+        <v>20.2332</v>
       </c>
       <c r="F80">
-        <v>20.2332</v>
+        <v>60.6996</v>
       </c>
       <c r="G80">
-        <v>60.6996</v>
+        <v>36</v>
       </c>
       <c r="H80">
         <v>36</v>
       </c>
       <c r="I80">
-        <v>36</v>
-      </c>
-      <c r="J80">
         <v>25</v>
       </c>
-      <c r="K80" t="s">
-        <v>264</v>
-      </c>
-      <c r="L80" s="2">
+      <c r="J80" t="s">
+        <v>186</v>
+      </c>
+      <c r="K80" s="2">
         <v>44496</v>
       </c>
-    </row>
-    <row r="81" spans="1:15">
+      <c r="O80" t="s">
+        <v>291</v>
+      </c>
+      <c r="P80" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
       <c r="A81" s="1">
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="C81" t="s">
-        <v>114</v>
-      </c>
-      <c r="D81" t="s">
-        <v>193</v>
+        <v>115</v>
+      </c>
+      <c r="D81">
+        <v>417600</v>
       </c>
       <c r="E81">
-        <v>417600</v>
+        <v>13.92</v>
       </c>
       <c r="F81">
-        <v>13.92</v>
+        <v>41.76</v>
       </c>
       <c r="G81">
-        <v>41.76</v>
+        <v>25</v>
       </c>
       <c r="H81">
         <v>25</v>
       </c>
       <c r="I81">
-        <v>25</v>
-      </c>
-      <c r="J81">
         <v>21</v>
       </c>
-      <c r="K81" t="s">
-        <v>265</v>
+      <c r="J81" t="s">
+        <v>187</v>
+      </c>
+      <c r="K81" s="2">
+        <v>44457</v>
       </c>
       <c r="L81" s="2">
-        <v>44457</v>
-      </c>
-      <c r="M81" s="2">
         <v>44491</v>
       </c>
-    </row>
-    <row r="82" spans="1:15">
+      <c r="O81" t="s">
+        <v>292</v>
+      </c>
+      <c r="P81" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17">
       <c r="A82" s="1">
         <v>83</v>
       </c>
-      <c r="B82" t="s">
-        <v>92</v>
-      </c>
-      <c r="D82" t="s">
-        <v>194</v>
+      <c r="C82" t="s">
+        <v>116</v>
+      </c>
+      <c r="D82">
+        <v>500000</v>
       </c>
       <c r="E82">
-        <v>500000</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="F82">
-        <v>16.66666666666667</v>
+        <v>50</v>
       </c>
       <c r="G82">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="H82">
         <v>4</v>
@@ -3856,46 +4291,58 @@
       <c r="I82">
         <v>4</v>
       </c>
-      <c r="J82">
-        <v>4</v>
+      <c r="K82" s="2">
+        <v>44459</v>
       </c>
       <c r="L82" s="2">
-        <v>44459</v>
-      </c>
-      <c r="M82" s="2">
         <v>44468</v>
       </c>
+      <c r="N82" t="s">
+        <v>216</v>
+      </c>
       <c r="O82" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15">
+        <v>293</v>
+      </c>
+      <c r="P82" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
       <c r="A83" s="1">
         <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="C83" t="s">
-        <v>115</v>
-      </c>
-      <c r="D83" t="s">
-        <v>195</v>
+        <v>117</v>
+      </c>
+      <c r="D83">
+        <v>450000</v>
       </c>
       <c r="E83">
-        <v>450000</v>
+        <v>15</v>
       </c>
       <c r="F83">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="G83">
-        <v>45</v>
-      </c>
-      <c r="H83">
         <v>0</v>
       </c>
+      <c r="N83" t="s">
+        <v>211</v>
+      </c>
       <c r="O83" t="s">
-        <v>289</v>
+        <v>294</v>
+      </c>
+      <c r="P83" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>357</v>
       </c>
     </row>
   </sheetData>

--- a/PowerBI_Dataset/xlsx/df_em.xlsx
+++ b/PowerBI_Dataset/xlsx/df_em.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="303">
   <si>
     <t>processo</t>
   </si>
@@ -368,6 +368,12 @@
   </si>
   <si>
     <t>Uldurico Junior - BA</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Não indicados</t>
   </si>
   <si>
     <t>63 serão atendidos por fibra óptica</t>
@@ -542,6 +548,9 @@
   <si>
     <t>4 local não encontrado, 1 já atendido e 13 não atendem aos critérios
 Enviou 2a lista pedindo para desconsiderar a 1a</t>
+  </si>
+  <si>
+    <t>4 local não encontrado, 4 já atendidos, 3 falta o estabelecimento e 4 não atendem aos critérios</t>
   </si>
   <si>
     <t>manutenção de pontos</t>
@@ -700,6 +709,9 @@
     <t>Enviar indicações</t>
   </si>
   <si>
+    <t>Corrigir 15 pontos e indicar mais</t>
+  </si>
+  <si>
     <t>Corrigir 8 pontos</t>
   </si>
   <si>
@@ -718,25 +730,28 @@
     <t>BANCADA-AL</t>
   </si>
   <si>
+    <t>NAN</t>
+  </si>
+  <si>
     <t>BANCADA-MG</t>
   </si>
   <si>
     <t>MISAEL VARELLA</t>
   </si>
   <si>
-    <t>GILBERTO ABRAMO</t>
-  </si>
-  <si>
-    <t>EUCLYDES PETTERSEN</t>
+    <t xml:space="preserve">GILBERTO ABRAMO </t>
+  </si>
+  <si>
+    <t>EUCLYDES PETTER</t>
   </si>
   <si>
     <t>AUREA CAROLINA</t>
   </si>
   <si>
-    <t>ANTONIO ANASTASIA</t>
-  </si>
-  <si>
-    <t>JULIO DELGADO</t>
+    <t xml:space="preserve"> ANTONIO ANASTASIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JULIO DELGADO </t>
   </si>
   <si>
     <t>EROS BIONDINI</t>
@@ -772,7 +787,7 @@
     <t>MARIO HERINGER</t>
   </si>
   <si>
-    <t>LUIS TIBE</t>
+    <t xml:space="preserve">LUIS TIBE </t>
   </si>
   <si>
     <t>LEONARDO MONTEIRO</t>
@@ -784,16 +799,16 @@
     <t>LUCAS GONZALEZ</t>
   </si>
   <si>
-    <t>VILSON DA FETAEMG</t>
-  </si>
-  <si>
-    <t>NEWTON CARDOSO</t>
-  </si>
-  <si>
-    <t>CARLOS VIANA</t>
-  </si>
-  <si>
-    <t>RODRIGO PACHECO</t>
+    <t xml:space="preserve">VILSON DA FETAEMG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEWTON CARDOSO </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CARLOS VIANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RODRIGO PACHECO</t>
   </si>
   <si>
     <t>ZE SILVA</t>
@@ -811,31 +826,31 @@
     <t>CHARLES EVANGELISTA</t>
   </si>
   <si>
-    <t>ZE VITOR</t>
-  </si>
-  <si>
-    <t>DELEGADO MARCELO FREITAS</t>
-  </si>
-  <si>
-    <t>STEFANO AGUIAR</t>
+    <t xml:space="preserve">ZE VITOR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELEGADO MARCELO FREITAS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STEFANO AGUIAR </t>
   </si>
   <si>
     <t>WELITON PRADO</t>
   </si>
   <si>
-    <t>FRANCO CARTAFINA</t>
-  </si>
-  <si>
-    <t>PAULO ABI ACKEL</t>
-  </si>
-  <si>
-    <t>MARCELO ARO</t>
+    <t xml:space="preserve">FRANCO CARTAFINA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAULO ABI ACKEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARCELO ARO </t>
   </si>
   <si>
     <t>ROGERIO CORREIA</t>
   </si>
   <si>
-    <t>PADRE JOAO</t>
+    <t xml:space="preserve">PADRE JOAO  </t>
   </si>
   <si>
     <t>BANCADA-SP</t>
@@ -868,274 +883,94 @@
     <t>BANCADA-PA</t>
   </si>
   <si>
-    <t>ALICE PORTUGAL</t>
-  </si>
-  <si>
-    <t>CELSO SABINO</t>
-  </si>
-  <si>
-    <t>CONFUCIO MOURA</t>
-  </si>
-  <si>
-    <t>CORONEL CHRISOSTOMO</t>
-  </si>
-  <si>
-    <t>EDNA HENRIQUE</t>
-  </si>
-  <si>
-    <t>ELIAS VAZ</t>
-  </si>
-  <si>
-    <t>EXPEDITO NETTO</t>
-  </si>
-  <si>
-    <t>FABIO REIS</t>
-  </si>
-  <si>
-    <t>FLAVIA ARRUDA</t>
-  </si>
-  <si>
-    <t>FLAVIANO MELO</t>
-  </si>
-  <si>
-    <t>GENERAL GIRAO</t>
-  </si>
-  <si>
-    <t>JOAO ROMA</t>
+    <t xml:space="preserve">ALICE PORTUGAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CELSO SABINO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFUCIO MOURA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORONEL CHRISOSTOMO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIMAS FABIANO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDNA HENRIQUE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELIAS VAZ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXPEDITO NETTO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FABIO REIS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLAVIA ARRUDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLAVIANO MELO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GENERAL GIRAO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOAO ROMA </t>
   </si>
   <si>
     <t>JOENIA WAPICHANA</t>
   </si>
   <si>
-    <t>JOSE MEDEIROS</t>
-  </si>
-  <si>
-    <t>JOSE NUNES</t>
-  </si>
-  <si>
-    <t>JOSIVALDO JP</t>
-  </si>
-  <si>
-    <t>CABO JUNIO AMARAL</t>
-  </si>
-  <si>
-    <t>JUNIOR LOURENCO</t>
-  </si>
-  <si>
-    <t>LEO DE BRITO</t>
-  </si>
-  <si>
-    <t>LEUR LOMANTO</t>
-  </si>
-  <si>
-    <t>LUCIANO BIVAR</t>
-  </si>
-  <si>
-    <t>MARA ROCHA</t>
-  </si>
-  <si>
-    <t>MARX BELTRAO</t>
-  </si>
-  <si>
-    <t>PERPETUA ALMEIDA</t>
-  </si>
-  <si>
-    <t>SERGIO PETECAO</t>
-  </si>
-  <si>
-    <t>SORAYA THRONICKE</t>
-  </si>
-  <si>
-    <t>ULDURICO JUNIOR</t>
-  </si>
-  <si>
-    <t>LUIS HENRIQUE DE OLIVEIRA RESENDE</t>
-  </si>
-  <si>
-    <t>DIMAS FABIANO TOLEDO JUNIOR</t>
-  </si>
-  <si>
-    <t>NEUCIMAR FERREIRA FRAGA</t>
-  </si>
-  <si>
-    <t>EVAIR VIEIRA DE MELO</t>
-  </si>
-  <si>
-    <t>ALICE MAZZUCO PORTUGAL</t>
-  </si>
-  <si>
-    <t>CELSO SABINO DE OLIVEIRA</t>
-  </si>
-  <si>
-    <t>CONFUCIO AIRES MOURA</t>
-  </si>
-  <si>
-    <t>JOAO CHRISOSTOMO DE MOURA</t>
-  </si>
-  <si>
-    <t>EDNACE ALVES SILVESTRE HENRIQUE</t>
-  </si>
-  <si>
-    <t>ELIAS VAZ DE ANDRADE</t>
-  </si>
-  <si>
-    <t>EXPEDITO GONCALVES FERREIRA NETTO</t>
-  </si>
-  <si>
-    <t>FABIO DE ALMEIDA REIS</t>
-  </si>
-  <si>
-    <t>FLAVIA CAROLINA PERES</t>
-  </si>
-  <si>
-    <t>FLAVIANO FLAVIO BAPTISTA DE MELO</t>
-  </si>
-  <si>
-    <t>ELIESER GIRAO MONTEIRO FILHO</t>
-  </si>
-  <si>
-    <t>JOAO INACIO RIBEIRO ROMA NETO</t>
-  </si>
-  <si>
-    <t>JOENIA BATISTA DE CARVALHO</t>
-  </si>
-  <si>
-    <t>JOSE ANTONIO DOS SANTOS MEDEIROS</t>
-  </si>
-  <si>
-    <t>JOSE NUNES SOARES</t>
-  </si>
-  <si>
-    <t>JOSIVALDO DOS SANTOS MELO</t>
-  </si>
-  <si>
-    <t>GERALDO JUNIO DO AMARAL</t>
-  </si>
-  <si>
-    <t>JOSE LOURENCO BOMFIM JUNIOR</t>
-  </si>
-  <si>
-    <t>LEONARDO CUNHA DE BRITO</t>
-  </si>
-  <si>
-    <t>LEUR ANTONIO DE BRITTO LOMANTO JUNIOR</t>
-  </si>
-  <si>
-    <t>LUCIANO CALDAS BIVAR</t>
-  </si>
-  <si>
-    <t>CYLMARA FERNANDES DA ROCHA GRIPP</t>
-  </si>
-  <si>
-    <t>MARX BELTRAO LIMA SIQUEIRA</t>
-  </si>
-  <si>
-    <t>MARIA PERPETUA DE ALMEIDA</t>
-  </si>
-  <si>
-    <t>ULDURICO ALENCAR PINTO</t>
-  </si>
-  <si>
-    <t>SEN. ANTONIO ANASTASIA</t>
-  </si>
-  <si>
-    <t>DEP. LUIS HENRIQUE DE OLIVEIRA RESENDE</t>
-  </si>
-  <si>
-    <t>SEN. CARLOS VIANA</t>
-  </si>
-  <si>
-    <t>SEN. RODRIGO PACHECO</t>
-  </si>
-  <si>
-    <t>DEP. DIMAS FABIANO TOLEDO JUNIOR</t>
-  </si>
-  <si>
-    <t>DEP. NEUCIMAR FERREIRA FRAGA</t>
-  </si>
-  <si>
-    <t>DEP. EVAIR VIEIRA DE MELO</t>
-  </si>
-  <si>
-    <t>DEP. ALICE MAZZUCO PORTUGAL</t>
-  </si>
-  <si>
-    <t>DEP. CELSO SABINO DE OLIVEIRA</t>
-  </si>
-  <si>
-    <t>SEN. CONFUCIO AIRES MOURA</t>
-  </si>
-  <si>
-    <t>DEP. JOAO CHRISOSTOMO DE MOURA</t>
-  </si>
-  <si>
-    <t>DEP. EDNACE ALVES SILVESTRE HENRIQUE</t>
-  </si>
-  <si>
-    <t>DEP. ELIAS VAZ DE ANDRADE</t>
-  </si>
-  <si>
-    <t>DEP. EXPEDITO GONCALVES FERREIRA NETTO</t>
-  </si>
-  <si>
-    <t>DEP. FABIO DE ALMEIDA REIS</t>
-  </si>
-  <si>
-    <t>DEP. FLAVIA CAROLINA PERES</t>
-  </si>
-  <si>
-    <t>DEP. FLAVIANO FLAVIO BAPTISTA DE MELO</t>
-  </si>
-  <si>
-    <t>DEP. ELIESER GIRAO MONTEIRO FILHO</t>
-  </si>
-  <si>
-    <t>DEP. JOAO INACIO RIBEIRO ROMA NETO</t>
-  </si>
-  <si>
-    <t>DEP. JOENIA BATISTA DE CARVALHO</t>
-  </si>
-  <si>
-    <t>DEP. JOSE ANTONIO DOS SANTOS MEDEIROS</t>
-  </si>
-  <si>
-    <t>DEP. JOSE NUNES SOARES</t>
-  </si>
-  <si>
-    <t>DEP. JOSIVALDO DOS SANTOS MELO</t>
-  </si>
-  <si>
-    <t>DEP. GERALDO JUNIO DO AMARAL</t>
-  </si>
-  <si>
-    <t>DEP. JOSE LOURENCO BOMFIM JUNIOR</t>
-  </si>
-  <si>
-    <t>DEP. LEONARDO CUNHA DE BRITO</t>
-  </si>
-  <si>
-    <t>DEP. LEUR ANTONIO DE BRITTO LOMANTO JUNIOR</t>
-  </si>
-  <si>
-    <t>DEP. LUCIANO CALDAS BIVAR</t>
-  </si>
-  <si>
-    <t>DEP. CYLMARA FERNANDES DA ROCHA GRIPP</t>
-  </si>
-  <si>
-    <t>DEP. MARX BELTRAO LIMA SIQUEIRA</t>
-  </si>
-  <si>
-    <t>DEP. MARIA PERPETUA DE ALMEIDA</t>
-  </si>
-  <si>
-    <t>SEN. SERGIO PETECAO</t>
-  </si>
-  <si>
-    <t>SEN. SORAYA THRONICKE</t>
-  </si>
-  <si>
-    <t>DEP. ULDURICO ALENCAR PINTO</t>
+    <t xml:space="preserve">JOSE MEDEIROS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOSE NUNES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOSIVALDO JP </t>
+  </si>
+  <si>
+    <t>CABO JUNIO AMARAL  INDIVIDUAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUNIOR LOURENCO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEO DE BRITO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEUR LOMANTO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUCIANO BIVAR </t>
+  </si>
+  <si>
+    <t>LUIS TIBE  INDIVIDUAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARA ROCHA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARX BELTRAO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERPETUA ALMEIDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERGIO PETECAO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SORAYA THRONICKE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ULDURICO JUNIOR </t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -1497,7 +1332,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q83"/>
+  <dimension ref="A1:Q98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1579,120 +1414,84 @@
         <v>223</v>
       </c>
       <c r="J2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K2" s="2">
         <v>44425</v>
       </c>
       <c r="L2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O2" t="s">
-        <v>217</v>
-      </c>
-      <c r="P2" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3">
-        <v>18816356</v>
-      </c>
-      <c r="E3">
-        <v>627.2118666666667</v>
-      </c>
-      <c r="J3" t="s">
-        <v>119</v>
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>23</v>
+      </c>
+      <c r="H3">
+        <v>23</v>
+      </c>
+      <c r="I3">
+        <v>23</v>
       </c>
       <c r="O3" t="s">
-        <v>218</v>
-      </c>
-      <c r="P3" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I4">
-        <v>11</v>
-      </c>
-      <c r="J4" t="s">
-        <v>120</v>
-      </c>
-      <c r="K4" s="2">
-        <v>44384</v>
+        <v>8</v>
       </c>
       <c r="L4" s="2">
-        <v>44511</v>
-      </c>
-      <c r="M4" t="s">
-        <v>191</v>
+        <v>44545</v>
       </c>
       <c r="O4" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5">
-        <v>6</v>
-      </c>
-      <c r="H5">
-        <v>6</v>
-      </c>
-      <c r="I5">
-        <v>5</v>
+        <v>39</v>
+      </c>
+      <c r="D5">
+        <v>18816356</v>
+      </c>
+      <c r="E5">
+        <v>627.2118666666667</v>
       </c>
       <c r="J5" t="s">
         <v>121</v>
       </c>
-      <c r="K5" t="s">
-        <v>188</v>
-      </c>
-      <c r="N5" t="s">
-        <v>200</v>
-      </c>
       <c r="O5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G6">
         <v>11</v>
@@ -1707,56 +1506,53 @@
         <v>122</v>
       </c>
       <c r="K6" s="2">
-        <v>44383</v>
+        <v>44384</v>
       </c>
       <c r="L6" s="2">
-        <v>44386</v>
+        <v>44511</v>
       </c>
       <c r="M6" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O6" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I7">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J7" t="s">
         <v>123</v>
       </c>
-      <c r="K7" s="2">
-        <v>44424</v>
-      </c>
-      <c r="L7" s="2">
-        <v>44468</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="K7" t="s">
         <v>191</v>
       </c>
+      <c r="N7" t="s">
+        <v>203</v>
+      </c>
       <c r="O7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G8">
         <v>11</v>
@@ -1771,30 +1567,24 @@
         <v>124</v>
       </c>
       <c r="K8" s="2">
-        <v>44384</v>
+        <v>44383</v>
       </c>
       <c r="L8" s="2">
-        <v>44482</v>
+        <v>44386</v>
       </c>
       <c r="M8" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O8" t="s">
-        <v>223</v>
-      </c>
-      <c r="P8" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>324</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G9">
         <v>11</v>
@@ -1803,30 +1593,30 @@
         <v>11</v>
       </c>
       <c r="I9">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J9" t="s">
         <v>125</v>
       </c>
       <c r="K9" s="2">
-        <v>44389</v>
+        <v>44424</v>
+      </c>
+      <c r="L9" s="2">
+        <v>44468</v>
       </c>
       <c r="M9" t="s">
-        <v>191</v>
-      </c>
-      <c r="N9" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="O9" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G10">
         <v>11</v>
@@ -1841,24 +1631,24 @@
         <v>126</v>
       </c>
       <c r="K10" s="2">
-        <v>44391</v>
+        <v>44384</v>
       </c>
       <c r="L10" s="2">
-        <v>44425</v>
+        <v>44482</v>
       </c>
       <c r="M10" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O10" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G11">
         <v>11</v>
@@ -1867,7 +1657,7 @@
         <v>11</v>
       </c>
       <c r="I11">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J11" t="s">
         <v>127</v>
@@ -1875,22 +1665,22 @@
       <c r="K11" s="2">
         <v>44389</v>
       </c>
-      <c r="L11" s="2">
-        <v>44391</v>
-      </c>
       <c r="M11" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="N11" t="s">
+        <v>204</v>
       </c>
       <c r="O11" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G12">
         <v>11</v>
@@ -1908,21 +1698,21 @@
         <v>44391</v>
       </c>
       <c r="L12" s="2">
-        <v>44404</v>
+        <v>44425</v>
       </c>
       <c r="M12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O12" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G13">
         <v>11</v>
@@ -1937,24 +1727,24 @@
         <v>129</v>
       </c>
       <c r="K13" s="2">
-        <v>44392</v>
+        <v>44389</v>
       </c>
       <c r="L13" s="2">
-        <v>44505</v>
+        <v>44391</v>
       </c>
       <c r="M13" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="O13" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G14">
         <v>11</v>
@@ -1969,24 +1759,24 @@
         <v>130</v>
       </c>
       <c r="K14" s="2">
-        <v>44389</v>
+        <v>44391</v>
       </c>
       <c r="L14" s="2">
-        <v>44419</v>
+        <v>44404</v>
       </c>
       <c r="M14" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="O14" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G15">
         <v>11</v>
@@ -2001,24 +1791,24 @@
         <v>131</v>
       </c>
       <c r="K15" s="2">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="L15" s="2">
-        <v>44406</v>
+        <v>44505</v>
       </c>
       <c r="M15" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="O15" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G16">
         <v>11</v>
@@ -2036,21 +1826,21 @@
         <v>44389</v>
       </c>
       <c r="L16" s="2">
-        <v>44477</v>
+        <v>44419</v>
       </c>
       <c r="M16" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O16" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G17">
         <v>11</v>
@@ -2065,27 +1855,24 @@
         <v>133</v>
       </c>
       <c r="K17" s="2">
-        <v>44391</v>
+        <v>44390</v>
       </c>
       <c r="L17" s="2">
-        <v>44399</v>
+        <v>44406</v>
       </c>
       <c r="M17" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="O17" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G18">
         <v>11</v>
@@ -2100,24 +1887,24 @@
         <v>134</v>
       </c>
       <c r="K18" s="2">
-        <v>44386</v>
+        <v>44389</v>
       </c>
       <c r="L18" s="2">
-        <v>44456</v>
+        <v>44477</v>
       </c>
       <c r="M18" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O18" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G19">
         <v>11</v>
@@ -2132,24 +1919,27 @@
         <v>135</v>
       </c>
       <c r="K19" s="2">
-        <v>44389</v>
+        <v>44391</v>
       </c>
       <c r="L19" s="2">
-        <v>44392</v>
+        <v>44399</v>
       </c>
       <c r="M19" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="O19" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G20">
         <v>11</v>
@@ -2164,21 +1954,24 @@
         <v>136</v>
       </c>
       <c r="K20" s="2">
-        <v>44414</v>
+        <v>44386</v>
       </c>
       <c r="L20" s="2">
-        <v>44440</v>
+        <v>44456</v>
+      </c>
+      <c r="M20" t="s">
+        <v>200</v>
       </c>
       <c r="O20" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G21">
         <v>11</v>
@@ -2187,33 +1980,30 @@
         <v>11</v>
       </c>
       <c r="I21">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J21" t="s">
         <v>137</v>
       </c>
       <c r="K21" s="2">
-        <v>44418</v>
-      </c>
-      <c r="N21" t="s">
-        <v>202</v>
+        <v>44389</v>
+      </c>
+      <c r="L21" s="2">
+        <v>44392</v>
+      </c>
+      <c r="M21" t="s">
+        <v>201</v>
       </c>
       <c r="O21" t="s">
-        <v>236</v>
-      </c>
-      <c r="P21" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G22">
         <v>11</v>
@@ -2228,21 +2018,21 @@
         <v>138</v>
       </c>
       <c r="K22" s="2">
-        <v>44424</v>
+        <v>44414</v>
       </c>
       <c r="L22" s="2">
-        <v>44435</v>
+        <v>44440</v>
       </c>
       <c r="O22" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G23">
         <v>11</v>
@@ -2251,56 +2041,56 @@
         <v>11</v>
       </c>
       <c r="I23">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J23" t="s">
         <v>139</v>
       </c>
       <c r="K23" s="2">
-        <v>44428</v>
-      </c>
-      <c r="L23" s="2">
-        <v>44551</v>
+        <v>44418</v>
+      </c>
+      <c r="N23" t="s">
+        <v>205</v>
       </c>
       <c r="O23" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J24" t="s">
         <v>140</v>
       </c>
       <c r="K24" s="2">
-        <v>44431</v>
+        <v>44424</v>
       </c>
       <c r="L24" s="2">
-        <v>44470</v>
+        <v>44435</v>
       </c>
       <c r="O24" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G25">
         <v>11</v>
@@ -2309,33 +2099,33 @@
         <v>11</v>
       </c>
       <c r="I25">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J25" t="s">
         <v>141</v>
       </c>
       <c r="K25" s="2">
-        <v>44438</v>
-      </c>
-      <c r="N25" t="s">
-        <v>203</v>
+        <v>44428</v>
+      </c>
+      <c r="L25" s="2">
+        <v>44551</v>
       </c>
       <c r="O25" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G26">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H26">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I26">
         <v>10</v>
@@ -2344,21 +2134,21 @@
         <v>142</v>
       </c>
       <c r="K26" s="2">
-        <v>44439</v>
-      </c>
-      <c r="N26" t="s">
-        <v>204</v>
+        <v>44431</v>
+      </c>
+      <c r="L26" s="2">
+        <v>44470</v>
       </c>
       <c r="O26" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G27">
         <v>11</v>
@@ -2367,33 +2157,27 @@
         <v>11</v>
       </c>
       <c r="I27">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J27" t="s">
         <v>143</v>
       </c>
       <c r="K27" s="2">
-        <v>44439</v>
-      </c>
-      <c r="L27" s="2">
-        <v>44453</v>
+        <v>44438</v>
+      </c>
+      <c r="N27" t="s">
+        <v>206</v>
       </c>
       <c r="O27" t="s">
-        <v>242</v>
-      </c>
-      <c r="P27" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G28">
         <v>11</v>
@@ -2402,178 +2186,169 @@
         <v>11</v>
       </c>
       <c r="I28">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J28" t="s">
         <v>144</v>
       </c>
       <c r="K28" s="2">
+        <v>44439</v>
+      </c>
+      <c r="N28" t="s">
+        <v>207</v>
+      </c>
+      <c r="O28" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29">
+        <v>11</v>
+      </c>
+      <c r="H29">
+        <v>11</v>
+      </c>
+      <c r="I29">
+        <v>11</v>
+      </c>
+      <c r="J29" t="s">
+        <v>145</v>
+      </c>
+      <c r="K29" s="2">
+        <v>44439</v>
+      </c>
+      <c r="L29" s="2">
         <v>44453</v>
       </c>
-      <c r="L28" s="2">
+      <c r="O29" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30">
+        <v>11</v>
+      </c>
+      <c r="H30">
+        <v>11</v>
+      </c>
+      <c r="I30">
+        <v>11</v>
+      </c>
+      <c r="J30" t="s">
+        <v>146</v>
+      </c>
+      <c r="K30" s="2">
+        <v>44453</v>
+      </c>
+      <c r="L30" s="2">
         <v>44466</v>
       </c>
-      <c r="O28" t="s">
-        <v>243</v>
-      </c>
-      <c r="P28" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="1">
+      <c r="O30" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C31" t="s">
         <v>65</v>
       </c>
-      <c r="G29">
-        <v>11</v>
-      </c>
-      <c r="H29">
-        <v>11</v>
-      </c>
-      <c r="I29">
-        <v>11</v>
-      </c>
-      <c r="J29" t="s">
-        <v>140</v>
-      </c>
-      <c r="K29" s="2">
+      <c r="G31">
+        <v>11</v>
+      </c>
+      <c r="H31">
+        <v>11</v>
+      </c>
+      <c r="I31">
+        <v>11</v>
+      </c>
+      <c r="J31" t="s">
+        <v>142</v>
+      </c>
+      <c r="K31" s="2">
         <v>44459</v>
       </c>
-      <c r="O29" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="1">
+      <c r="O31" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C32" t="s">
         <v>66</v>
       </c>
-      <c r="G30">
-        <v>11</v>
-      </c>
-      <c r="H30">
-        <v>11</v>
-      </c>
-      <c r="I30">
+      <c r="G32">
+        <v>11</v>
+      </c>
+      <c r="H32">
+        <v>11</v>
+      </c>
+      <c r="I32">
         <v>7</v>
-      </c>
-      <c r="J30" t="s">
-        <v>145</v>
-      </c>
-      <c r="K30" s="2">
-        <v>44469</v>
-      </c>
-      <c r="N30" t="s">
-        <v>205</v>
-      </c>
-      <c r="O30" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="1">
-        <v>31</v>
-      </c>
-      <c r="C31" t="s">
-        <v>67</v>
-      </c>
-      <c r="G31">
-        <v>10</v>
-      </c>
-      <c r="H31">
-        <v>10</v>
-      </c>
-      <c r="I31">
-        <v>7</v>
-      </c>
-      <c r="J31" t="s">
-        <v>146</v>
-      </c>
-      <c r="K31" s="2">
-        <v>44474</v>
-      </c>
-      <c r="N31" t="s">
-        <v>206</v>
-      </c>
-      <c r="O31" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="1">
-        <v>32</v>
-      </c>
-      <c r="C32" t="s">
-        <v>68</v>
-      </c>
-      <c r="G32">
-        <v>11</v>
-      </c>
-      <c r="H32">
-        <v>11</v>
-      </c>
-      <c r="I32">
-        <v>11</v>
       </c>
       <c r="J32" t="s">
         <v>147</v>
       </c>
       <c r="K32" s="2">
-        <v>44483</v>
-      </c>
-      <c r="L32" s="2">
-        <v>44519</v>
+        <v>44469</v>
+      </c>
+      <c r="N32" t="s">
+        <v>208</v>
       </c>
       <c r="O32" t="s">
-        <v>247</v>
-      </c>
-      <c r="P32" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G33">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H33">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I33">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J33" t="s">
         <v>148</v>
       </c>
       <c r="K33" s="2">
-        <v>44483</v>
+        <v>44474</v>
+      </c>
+      <c r="N33" t="s">
+        <v>209</v>
       </c>
       <c r="O33" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G34">
         <v>11</v>
@@ -2582,7 +2357,7 @@
         <v>11</v>
       </c>
       <c r="I34">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J34" t="s">
         <v>149</v>
@@ -2590,19 +2365,19 @@
       <c r="K34" s="2">
         <v>44483</v>
       </c>
-      <c r="N34" t="s">
-        <v>207</v>
+      <c r="L34" s="2">
+        <v>44519</v>
       </c>
       <c r="O34" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="1">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G35">
         <v>11</v>
@@ -2611,7 +2386,7 @@
         <v>11</v>
       </c>
       <c r="I35">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J35" t="s">
         <v>150</v>
@@ -2619,19 +2394,16 @@
       <c r="K35" s="2">
         <v>44483</v>
       </c>
-      <c r="N35" t="s">
-        <v>208</v>
-      </c>
       <c r="O35" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="1">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G36">
         <v>11</v>
@@ -2640,27 +2412,27 @@
         <v>11</v>
       </c>
       <c r="I36">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J36" t="s">
         <v>151</v>
       </c>
       <c r="K36" s="2">
-        <v>44484</v>
+        <v>44483</v>
       </c>
       <c r="N36" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="O36" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="1">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G37">
         <v>11</v>
@@ -2669,27 +2441,27 @@
         <v>11</v>
       </c>
       <c r="I37">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J37" t="s">
         <v>152</v>
       </c>
       <c r="K37" s="2">
-        <v>44491</v>
-      </c>
-      <c r="L37" s="2">
-        <v>44546</v>
+        <v>44483</v>
+      </c>
+      <c r="N37" t="s">
+        <v>211</v>
       </c>
       <c r="O37" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="1">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G38">
         <v>11</v>
@@ -2698,56 +2470,56 @@
         <v>11</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J38" t="s">
         <v>153</v>
       </c>
       <c r="K38" s="2">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="N38" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="O38" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="1">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G39">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H39">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I39">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J39" t="s">
         <v>154</v>
       </c>
       <c r="K39" s="2">
-        <v>44504</v>
-      </c>
-      <c r="N39" t="s">
-        <v>204</v>
+        <v>44491</v>
+      </c>
+      <c r="L39" s="2">
+        <v>44546</v>
       </c>
       <c r="O39" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" s="1">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G40">
         <v>11</v>
@@ -2756,53 +2528,56 @@
         <v>11</v>
       </c>
       <c r="I40">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J40" t="s">
         <v>155</v>
       </c>
       <c r="K40" s="2">
-        <v>44543</v>
+        <v>44494</v>
       </c>
       <c r="N40" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="O40" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" s="1">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G41">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H41">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I41">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J41" t="s">
         <v>156</v>
       </c>
       <c r="K41" s="2">
-        <v>44539</v>
+        <v>44504</v>
+      </c>
+      <c r="N41" t="s">
+        <v>207</v>
       </c>
       <c r="O41" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" s="1">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G42">
         <v>11</v>
@@ -2811,653 +2586,539 @@
         <v>11</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J42" t="s">
         <v>157</v>
       </c>
+      <c r="K42" s="2">
+        <v>44543</v>
+      </c>
       <c r="N42" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="O42" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" s="1">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>79</v>
-      </c>
-      <c r="D43">
-        <v>2240042</v>
-      </c>
-      <c r="E43">
-        <v>49.77871111111111</v>
-      </c>
-      <c r="F43">
-        <v>149.3361333333333</v>
+        <v>77</v>
       </c>
       <c r="G43">
-        <v>88</v>
+        <v>11</v>
+      </c>
+      <c r="H43">
+        <v>11</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J43" t="s">
         <v>158</v>
       </c>
-      <c r="N43" t="s">
-        <v>211</v>
+      <c r="K43" s="2">
+        <v>44539</v>
       </c>
       <c r="O43" t="s">
-        <v>258</v>
-      </c>
-      <c r="P43" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="C44" t="s">
+        <v>78</v>
+      </c>
+      <c r="G44">
+        <v>11</v>
+      </c>
+      <c r="H44">
+        <v>11</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44" t="s">
+        <v>159</v>
+      </c>
+      <c r="N44" t="s">
+        <v>213</v>
+      </c>
+      <c r="O44" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="C45" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45">
+        <v>2240042</v>
+      </c>
+      <c r="E45">
+        <v>49.77871111111111</v>
+      </c>
+      <c r="F45">
+        <v>149.3361333333333</v>
+      </c>
+      <c r="G45">
+        <v>88</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45" t="s">
+        <v>160</v>
+      </c>
+      <c r="N45" t="s">
+        <v>214</v>
+      </c>
+      <c r="O45" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B46" t="s">
         <v>19</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C46" t="s">
         <v>80</v>
       </c>
-      <c r="D44">
+      <c r="D46">
         <v>8120154</v>
       </c>
-      <c r="E44">
+      <c r="E46">
         <v>180.4478666666667</v>
       </c>
-      <c r="F44">
+      <c r="F46">
         <v>541.3436</v>
       </c>
-      <c r="O44" t="s">
-        <v>259</v>
-      </c>
-      <c r="P44" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="A45" s="1">
+      <c r="O46" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C47" t="s">
         <v>81</v>
       </c>
-      <c r="G45">
+      <c r="G47">
         <v>54</v>
       </c>
-      <c r="H45">
+      <c r="H47">
         <v>54</v>
       </c>
-      <c r="I45">
+      <c r="I47">
         <v>50</v>
-      </c>
-      <c r="J45" t="s">
-        <v>159</v>
-      </c>
-      <c r="K45" s="2">
-        <v>44469</v>
-      </c>
-      <c r="O45" t="s">
-        <v>260</v>
-      </c>
-      <c r="P45" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="A46" s="1">
-        <v>46</v>
-      </c>
-      <c r="C46" t="s">
-        <v>82</v>
-      </c>
-      <c r="G46">
-        <v>56</v>
-      </c>
-      <c r="H46">
-        <v>56</v>
-      </c>
-      <c r="I46">
-        <v>30</v>
-      </c>
-      <c r="J46" t="s">
-        <v>160</v>
-      </c>
-      <c r="K46" s="2">
-        <v>44469</v>
-      </c>
-      <c r="O46" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="A47" s="1">
-        <v>47</v>
-      </c>
-      <c r="C47" t="s">
-        <v>82</v>
-      </c>
-      <c r="G47">
-        <v>19</v>
-      </c>
-      <c r="H47">
-        <v>19</v>
-      </c>
-      <c r="I47">
-        <v>6</v>
       </c>
       <c r="J47" t="s">
         <v>161</v>
       </c>
       <c r="K47" s="2">
-        <v>44537</v>
+        <v>44469</v>
       </c>
       <c r="O47" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" s="1">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G48">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="H48">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="I48">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J48" t="s">
         <v>162</v>
       </c>
       <c r="K48" s="2">
-        <v>44414</v>
-      </c>
-      <c r="N48" t="s">
-        <v>205</v>
+        <v>44469</v>
       </c>
       <c r="O48" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" s="1">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G49">
-        <v>169</v>
+        <v>19</v>
       </c>
       <c r="H49">
-        <v>169</v>
+        <v>19</v>
       </c>
       <c r="I49">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="J49" t="s">
         <v>163</v>
       </c>
-      <c r="K49" t="s">
-        <v>189</v>
+      <c r="K49" s="2">
+        <v>44537</v>
       </c>
       <c r="O49" t="s">
-        <v>263</v>
-      </c>
-      <c r="P49" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" s="1">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G50">
-        <v>117</v>
+        <v>28</v>
       </c>
       <c r="H50">
-        <v>117</v>
+        <v>28</v>
       </c>
       <c r="I50">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="J50" t="s">
         <v>164</v>
       </c>
       <c r="K50" s="2">
+        <v>44414</v>
+      </c>
+      <c r="N50" t="s">
+        <v>208</v>
+      </c>
+      <c r="O50" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="C51" t="s">
+        <v>84</v>
+      </c>
+      <c r="G51">
+        <v>169</v>
+      </c>
+      <c r="H51">
+        <v>169</v>
+      </c>
+      <c r="I51">
+        <v>126</v>
+      </c>
+      <c r="J51" t="s">
+        <v>165</v>
+      </c>
+      <c r="K51" t="s">
+        <v>192</v>
+      </c>
+      <c r="O51" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="C52" t="s">
+        <v>84</v>
+      </c>
+      <c r="G52">
+        <v>117</v>
+      </c>
+      <c r="H52">
+        <v>117</v>
+      </c>
+      <c r="I52">
+        <v>82</v>
+      </c>
+      <c r="J52" t="s">
+        <v>166</v>
+      </c>
+      <c r="K52" s="2">
         <v>44488</v>
       </c>
-      <c r="O50" t="s">
-        <v>263</v>
-      </c>
-      <c r="P50" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17">
-      <c r="A51" s="1">
+      <c r="O52" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C53" t="s">
         <v>85</v>
       </c>
-      <c r="G51">
+      <c r="G53">
         <v>66</v>
       </c>
-      <c r="H51">
+      <c r="H53">
         <v>66</v>
       </c>
-      <c r="I51">
+      <c r="I53">
         <v>64</v>
       </c>
-      <c r="K51" s="2">
+      <c r="K53" s="2">
         <v>44475</v>
       </c>
-      <c r="O51" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17">
-      <c r="A52" s="1">
+      <c r="O53" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C54" t="s">
         <v>86</v>
       </c>
-      <c r="D52">
+      <c r="D54">
         <v>750000</v>
       </c>
-      <c r="O52" t="s">
-        <v>265</v>
-      </c>
-      <c r="P52" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17">
-      <c r="A53" s="1">
+      <c r="O54" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C55" t="s">
         <v>87</v>
       </c>
-      <c r="G53">
+      <c r="G55">
         <v>20</v>
       </c>
-      <c r="H53">
+      <c r="H55">
         <v>20</v>
       </c>
-      <c r="I53">
+      <c r="I55">
         <v>9</v>
       </c>
-      <c r="J53" t="s">
-        <v>165</v>
-      </c>
-      <c r="K53" s="2">
+      <c r="J55" t="s">
+        <v>167</v>
+      </c>
+      <c r="K55" s="2">
         <v>44494</v>
       </c>
-      <c r="N53" t="s">
-        <v>210</v>
-      </c>
-      <c r="O53" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17">
-      <c r="A54" s="1">
+      <c r="N55" t="s">
+        <v>213</v>
+      </c>
+      <c r="O55" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C56" t="s">
         <v>88</v>
       </c>
-      <c r="D54">
+      <c r="D56">
         <v>1817820</v>
       </c>
-      <c r="E54">
+      <c r="E56">
         <v>60.594</v>
       </c>
-      <c r="F54">
+      <c r="F56">
         <v>181.782</v>
       </c>
-      <c r="G54">
+      <c r="G56">
         <v>32</v>
       </c>
-      <c r="H54">
+      <c r="H56">
         <v>32</v>
       </c>
-      <c r="I54">
+      <c r="I56">
         <v>14</v>
       </c>
-      <c r="J54" t="s">
-        <v>166</v>
-      </c>
-      <c r="K54" s="2">
+      <c r="J56" t="s">
+        <v>168</v>
+      </c>
+      <c r="K56" s="2">
         <v>44410</v>
       </c>
-      <c r="M54" t="s">
-        <v>199</v>
-      </c>
-      <c r="O54" t="s">
-        <v>267</v>
-      </c>
-      <c r="P54" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17">
-      <c r="A55" s="1">
+      <c r="M56" t="s">
+        <v>202</v>
+      </c>
+      <c r="O56" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="G57">
+        <v>27</v>
+      </c>
+      <c r="H57">
+        <v>27</v>
+      </c>
+      <c r="I57">
+        <v>12</v>
+      </c>
+      <c r="J57" t="s">
+        <v>169</v>
+      </c>
+      <c r="K57" s="2">
+        <v>44484</v>
+      </c>
+      <c r="N57" t="s">
+        <v>215</v>
+      </c>
+      <c r="O57" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C58" t="s">
         <v>89</v>
       </c>
-      <c r="G55">
+      <c r="G58">
         <v>0</v>
       </c>
-      <c r="N55" t="s">
-        <v>211</v>
-      </c>
-      <c r="O55" t="s">
-        <v>268</v>
-      </c>
-      <c r="P55" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17">
-      <c r="A56" s="1">
+      <c r="N58" t="s">
+        <v>214</v>
+      </c>
+      <c r="O58" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C59" t="s">
         <v>90</v>
       </c>
-      <c r="D56">
+      <c r="D59">
         <v>215340</v>
       </c>
-      <c r="J56" t="s">
-        <v>167</v>
-      </c>
-      <c r="O56" t="s">
-        <v>269</v>
-      </c>
-      <c r="P56" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17">
-      <c r="A57" s="1">
+      <c r="J59" t="s">
+        <v>170</v>
+      </c>
+      <c r="O59" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C60" t="s">
         <v>91</v>
       </c>
-      <c r="D57">
+      <c r="D60">
         <v>1050000</v>
-      </c>
-      <c r="J57" t="s">
-        <v>167</v>
-      </c>
-      <c r="O57" t="s">
-        <v>270</v>
-      </c>
-      <c r="P57" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17">
-      <c r="A58" s="1">
-        <v>59</v>
-      </c>
-      <c r="B58" t="s">
-        <v>20</v>
-      </c>
-      <c r="C58" t="s">
-        <v>92</v>
-      </c>
-      <c r="D58">
-        <v>200000</v>
-      </c>
-      <c r="E58">
-        <v>4.444444444444445</v>
-      </c>
-      <c r="F58">
-        <v>13.33333333333333</v>
-      </c>
-      <c r="G58">
-        <v>10</v>
-      </c>
-      <c r="H58">
-        <v>10</v>
-      </c>
-      <c r="I58">
-        <v>10</v>
-      </c>
-      <c r="J58" t="s">
-        <v>168</v>
-      </c>
-      <c r="K58" s="2">
-        <v>44412</v>
-      </c>
-      <c r="L58" s="2">
-        <v>44475</v>
-      </c>
-      <c r="M58" t="s">
-        <v>198</v>
-      </c>
-      <c r="O58" t="s">
-        <v>271</v>
-      </c>
-      <c r="P58" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17">
-      <c r="A59" s="1">
-        <v>60</v>
-      </c>
-      <c r="B59" t="s">
-        <v>21</v>
-      </c>
-      <c r="C59" t="s">
-        <v>93</v>
-      </c>
-      <c r="D59">
-        <v>300000</v>
-      </c>
-      <c r="E59">
-        <v>10</v>
-      </c>
-      <c r="F59">
-        <v>30</v>
-      </c>
-      <c r="G59">
-        <v>10</v>
-      </c>
-      <c r="H59">
-        <v>10</v>
-      </c>
-      <c r="I59">
-        <v>10</v>
-      </c>
-      <c r="J59" t="s">
-        <v>169</v>
-      </c>
-      <c r="K59" s="2">
-        <v>44483</v>
-      </c>
-      <c r="L59" s="2">
-        <v>44519</v>
-      </c>
-      <c r="O59" t="s">
-        <v>247</v>
-      </c>
-      <c r="P59" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17">
-      <c r="A60" s="1">
-        <v>61</v>
-      </c>
-      <c r="B60" t="s">
-        <v>22</v>
-      </c>
-      <c r="C60" t="s">
-        <v>94</v>
-      </c>
-      <c r="D60">
-        <v>300000</v>
-      </c>
-      <c r="E60">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="G60">
-        <v>12</v>
-      </c>
-      <c r="H60">
-        <v>12</v>
-      </c>
-      <c r="I60">
-        <v>12</v>
       </c>
       <c r="J60" t="s">
         <v>170</v>
       </c>
-      <c r="K60" s="2">
-        <v>44382</v>
-      </c>
-      <c r="M60" t="s">
-        <v>197</v>
-      </c>
       <c r="O60" t="s">
-        <v>272</v>
-      </c>
-      <c r="P60" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61" s="1">
-        <v>62</v>
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>20</v>
       </c>
       <c r="C61" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D61">
-        <v>400000</v>
+        <v>200000</v>
+      </c>
+      <c r="E61">
+        <v>4.444444444444445</v>
       </c>
       <c r="F61">
-        <v>24.5398773006135</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="G61">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H61">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I61">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J61" t="s">
         <v>171</v>
       </c>
       <c r="K61" s="2">
-        <v>44519</v>
-      </c>
-      <c r="N61" t="s">
-        <v>212</v>
+        <v>44412</v>
+      </c>
+      <c r="L61" s="2">
+        <v>44475</v>
+      </c>
+      <c r="M61" t="s">
+        <v>201</v>
       </c>
       <c r="O61" t="s">
-        <v>273</v>
-      </c>
-      <c r="P61" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62" s="1">
-        <v>63</v>
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>21</v>
       </c>
       <c r="C62" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D62">
-        <v>339993</v>
+        <v>300000</v>
       </c>
       <c r="E62">
-        <v>11.3331</v>
+        <v>10</v>
       </c>
       <c r="F62">
-        <v>33.9993</v>
+        <v>30</v>
       </c>
       <c r="G62">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H62">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I62">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J62" t="s">
         <v>172</v>
@@ -3465,43 +3126,37 @@
       <c r="K62" s="2">
         <v>44483</v>
       </c>
-      <c r="N62" t="s">
-        <v>206</v>
+      <c r="L62" s="2">
+        <v>44519</v>
       </c>
       <c r="O62" t="s">
-        <v>274</v>
-      </c>
-      <c r="P62" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63" s="1">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C63" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D63">
-        <v>150000</v>
+        <v>300000</v>
       </c>
       <c r="E63">
-        <v>3.333333333333333</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="G63">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H63">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I63">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J63" t="s">
         <v>173</v>
@@ -3509,131 +3164,110 @@
       <c r="K63" s="2">
         <v>44382</v>
       </c>
-      <c r="L63" s="2">
-        <v>44382</v>
-      </c>
       <c r="M63" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="O63" t="s">
-        <v>275</v>
-      </c>
-      <c r="P63" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64" s="1">
-        <v>65</v>
-      </c>
-      <c r="B64" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="C64" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D64">
-        <v>1500000</v>
-      </c>
-      <c r="E64">
-        <v>50</v>
+        <v>400000</v>
       </c>
       <c r="F64">
-        <v>100</v>
+        <v>24.5398773006135</v>
       </c>
       <c r="G64">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="H64">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="I64">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="J64" t="s">
         <v>174</v>
       </c>
+      <c r="K64" s="2">
+        <v>44519</v>
+      </c>
       <c r="N64" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="O64" t="s">
-        <v>276</v>
-      </c>
-      <c r="P64" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65" s="1">
-        <v>66</v>
-      </c>
-      <c r="B65" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="C65" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D65">
-        <v>627190</v>
+        <v>339993</v>
+      </c>
+      <c r="E65">
+        <v>11.3331</v>
       </c>
       <c r="F65">
-        <v>34.84388888888889</v>
+        <v>33.9993</v>
       </c>
       <c r="G65">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H65">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="I65">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="J65" t="s">
         <v>175</v>
       </c>
       <c r="K65" s="2">
-        <v>44435</v>
+        <v>44483</v>
+      </c>
+      <c r="N65" t="s">
+        <v>209</v>
       </c>
       <c r="O65" t="s">
-        <v>277</v>
-      </c>
-      <c r="P65" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66" s="1">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C66" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D66">
-        <v>300000</v>
+        <v>150000</v>
       </c>
       <c r="E66">
-        <v>6.666666666666667</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="G66">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H66">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I66">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J66" t="s">
         <v>176</v>
@@ -3641,162 +3275,162 @@
       <c r="K66" s="2">
         <v>44382</v>
       </c>
+      <c r="L66" s="2">
+        <v>44382</v>
+      </c>
       <c r="M66" t="s">
-        <v>197</v>
-      </c>
-      <c r="N66" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O66" t="s">
-        <v>278</v>
-      </c>
-      <c r="P66" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" t="s">
+        <v>98</v>
+      </c>
+      <c r="D67">
+        <v>1500000</v>
+      </c>
+      <c r="E67">
+        <v>50</v>
+      </c>
+      <c r="F67">
+        <v>100</v>
+      </c>
+      <c r="G67">
+        <v>61</v>
+      </c>
+      <c r="H67">
+        <v>61</v>
+      </c>
+      <c r="I67">
+        <v>21</v>
+      </c>
+      <c r="J67" t="s">
+        <v>177</v>
+      </c>
+      <c r="N67" t="s">
+        <v>217</v>
+      </c>
+      <c r="O67" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>25</v>
+      </c>
+      <c r="C68" t="s">
+        <v>99</v>
+      </c>
+      <c r="D68">
+        <v>627190</v>
+      </c>
+      <c r="F68">
+        <v>34.84388888888889</v>
+      </c>
+      <c r="G68">
+        <v>22</v>
+      </c>
+      <c r="H68">
+        <v>22</v>
+      </c>
+      <c r="I68">
+        <v>21</v>
+      </c>
+      <c r="J68" t="s">
+        <v>178</v>
+      </c>
+      <c r="K68" s="2">
+        <v>44435</v>
+      </c>
+      <c r="O68" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>26</v>
+      </c>
+      <c r="C69" t="s">
+        <v>100</v>
+      </c>
+      <c r="D69">
+        <v>300000</v>
+      </c>
+      <c r="E69">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="G69">
+        <v>10</v>
+      </c>
+      <c r="H69">
+        <v>10</v>
+      </c>
+      <c r="I69">
+        <v>8</v>
+      </c>
+      <c r="J69" t="s">
+        <v>179</v>
+      </c>
+      <c r="K69" s="2">
+        <v>44382</v>
+      </c>
+      <c r="M69" t="s">
+        <v>200</v>
+      </c>
+      <c r="N69" t="s">
+        <v>206</v>
+      </c>
+      <c r="O69" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C70" t="s">
         <v>101</v>
       </c>
-      <c r="D67">
+      <c r="D70">
         <v>1029986</v>
       </c>
-      <c r="J67" t="s">
-        <v>167</v>
-      </c>
-      <c r="O67" t="s">
-        <v>279</v>
-      </c>
-      <c r="P67" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17">
-      <c r="A68" s="1">
+      <c r="J70" t="s">
+        <v>170</v>
+      </c>
+      <c r="O70" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B71" t="s">
         <v>27</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C71" t="s">
         <v>102</v>
       </c>
-      <c r="D68">
+      <c r="D71">
         <v>440000</v>
       </c>
-      <c r="F68">
+      <c r="F71">
         <v>29.33333333333333</v>
-      </c>
-      <c r="G68">
-        <v>8</v>
-      </c>
-      <c r="H68">
-        <v>8</v>
-      </c>
-      <c r="I68">
-        <v>8</v>
-      </c>
-      <c r="J68" t="s">
-        <v>177</v>
-      </c>
-      <c r="L68" s="2">
-        <v>44377</v>
-      </c>
-      <c r="M68" t="s">
-        <v>197</v>
-      </c>
-      <c r="O68" t="s">
-        <v>280</v>
-      </c>
-      <c r="P68" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17">
-      <c r="A69" s="1">
-        <v>70</v>
-      </c>
-      <c r="C69" t="s">
-        <v>103</v>
-      </c>
-      <c r="D69">
-        <v>659340</v>
-      </c>
-      <c r="J69" t="s">
-        <v>167</v>
-      </c>
-      <c r="O69" t="s">
-        <v>281</v>
-      </c>
-      <c r="P69" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17">
-      <c r="A70" s="1">
-        <v>71</v>
-      </c>
-      <c r="B70" t="s">
-        <v>28</v>
-      </c>
-      <c r="C70" t="s">
-        <v>104</v>
-      </c>
-      <c r="D70">
-        <v>300000</v>
-      </c>
-      <c r="E70">
-        <v>10</v>
-      </c>
-      <c r="F70">
-        <v>30</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="N70" t="s">
-        <v>211</v>
-      </c>
-      <c r="O70" t="s">
-        <v>282</v>
-      </c>
-      <c r="P70" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17">
-      <c r="A71" s="1">
-        <v>72</v>
-      </c>
-      <c r="B71" t="s">
-        <v>29</v>
-      </c>
-      <c r="C71" t="s">
-        <v>105</v>
-      </c>
-      <c r="D71">
-        <v>150000</v>
-      </c>
-      <c r="E71">
-        <v>3.333333333333333</v>
       </c>
       <c r="G71">
         <v>8</v>
@@ -3808,212 +3442,161 @@
         <v>8</v>
       </c>
       <c r="J71" t="s">
-        <v>178</v>
-      </c>
-      <c r="K71" s="2">
-        <v>44384</v>
+        <v>180</v>
       </c>
       <c r="L71" s="2">
-        <v>44495</v>
+        <v>44377</v>
       </c>
       <c r="M71" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="O71" t="s">
-        <v>283</v>
-      </c>
-      <c r="P71" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72" s="1">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C72" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D72">
+        <v>659340</v>
+      </c>
+      <c r="J72" t="s">
+        <v>170</v>
+      </c>
+      <c r="O72" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>28</v>
+      </c>
+      <c r="C73" t="s">
+        <v>104</v>
+      </c>
+      <c r="D73">
         <v>300000</v>
       </c>
-      <c r="E72">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="F72">
-        <v>20</v>
-      </c>
-      <c r="G72">
+      <c r="E73">
         <v>10</v>
       </c>
-      <c r="H72">
-        <v>10</v>
-      </c>
-      <c r="I72">
-        <v>10</v>
-      </c>
-      <c r="J72" t="s">
-        <v>179</v>
-      </c>
-      <c r="K72" s="2">
-        <v>44418</v>
-      </c>
-      <c r="L72" s="2">
-        <v>44552</v>
-      </c>
-      <c r="O72" t="s">
-        <v>284</v>
-      </c>
-      <c r="P72" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17">
-      <c r="A73" s="1">
-        <v>74</v>
-      </c>
-      <c r="B73" t="s">
+      <c r="F73">
         <v>30</v>
       </c>
-      <c r="C73" t="s">
-        <v>107</v>
-      </c>
-      <c r="D73">
-        <v>500000</v>
-      </c>
-      <c r="E73">
-        <v>16.66666666666667</v>
-      </c>
-      <c r="F73">
-        <v>50</v>
-      </c>
       <c r="G73">
-        <v>10</v>
-      </c>
-      <c r="H73">
-        <v>10</v>
-      </c>
-      <c r="I73">
-        <v>9</v>
-      </c>
-      <c r="J73" t="s">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="N73" t="s">
         <v>214</v>
       </c>
       <c r="O73" t="s">
-        <v>285</v>
-      </c>
-      <c r="P73" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74" s="1">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C74" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D74">
-        <v>600000</v>
+        <v>150000</v>
       </c>
       <c r="E74">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="G74">
+        <v>8</v>
+      </c>
+      <c r="H74">
+        <v>8</v>
+      </c>
+      <c r="I74">
+        <v>8</v>
+      </c>
+      <c r="J74" t="s">
+        <v>181</v>
+      </c>
+      <c r="K74" s="2">
+        <v>44384</v>
+      </c>
+      <c r="L74" s="2">
+        <v>44495</v>
+      </c>
+      <c r="M74" t="s">
+        <v>196</v>
+      </c>
+      <c r="O74" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="C75" t="s">
+        <v>106</v>
+      </c>
+      <c r="D75">
+        <v>300000</v>
+      </c>
+      <c r="E75">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="F75">
         <v>20</v>
       </c>
-      <c r="F74">
-        <v>60</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="N74" t="s">
-        <v>211</v>
-      </c>
-      <c r="O74" t="s">
-        <v>286</v>
-      </c>
-      <c r="P74" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17">
-      <c r="A75" s="1">
-        <v>76</v>
-      </c>
-      <c r="B75" t="s">
-        <v>32</v>
-      </c>
-      <c r="C75" t="s">
-        <v>109</v>
-      </c>
-      <c r="D75">
-        <v>100000</v>
-      </c>
-      <c r="E75">
-        <v>2.222222222222222</v>
-      </c>
-      <c r="F75">
-        <v>6.666666666666667</v>
-      </c>
       <c r="G75">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H75">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I75">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J75" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K75" s="2">
-        <v>44389</v>
+        <v>44418</v>
       </c>
       <c r="L75" s="2">
-        <v>44405</v>
-      </c>
-      <c r="M75" t="s">
-        <v>192</v>
+        <v>44552</v>
       </c>
       <c r="O75" t="s">
-        <v>287</v>
-      </c>
-      <c r="P75" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76" s="1">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C76" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D76">
-        <v>300000</v>
+        <v>500000</v>
+      </c>
+      <c r="E76">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F76">
+        <v>50</v>
       </c>
       <c r="G76">
         <v>10</v>
@@ -4022,131 +3605,104 @@
         <v>10</v>
       </c>
       <c r="I76">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J76" t="s">
-        <v>182</v>
-      </c>
-      <c r="K76" s="2">
-        <v>44469</v>
-      </c>
-      <c r="L76" s="2">
-        <v>44517</v>
+        <v>183</v>
+      </c>
+      <c r="N76" t="s">
+        <v>218</v>
       </c>
       <c r="O76" t="s">
-        <v>288</v>
-      </c>
-      <c r="P76" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77" s="1">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C77" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D77">
-        <v>300000</v>
+        <v>600000</v>
       </c>
       <c r="E77">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F77">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G77">
-        <v>9</v>
-      </c>
-      <c r="H77">
-        <v>9</v>
-      </c>
-      <c r="I77">
-        <v>3</v>
-      </c>
-      <c r="J77" t="s">
-        <v>183</v>
-      </c>
-      <c r="K77" s="2">
-        <v>44497</v>
+        <v>0</v>
       </c>
       <c r="N77" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O77" t="s">
-        <v>236</v>
-      </c>
-      <c r="P77" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78" s="1">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C78" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D78">
-        <v>600000</v>
+        <v>100000</v>
       </c>
       <c r="E78">
-        <v>13.33333333333333</v>
+        <v>2.222222222222222</v>
+      </c>
+      <c r="F78">
+        <v>6.666666666666667</v>
       </c>
       <c r="G78">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="H78">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="I78">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="J78" t="s">
         <v>184</v>
       </c>
       <c r="K78" s="2">
-        <v>44421</v>
+        <v>44389</v>
       </c>
       <c r="L78" s="2">
-        <v>44453</v>
+        <v>44405</v>
+      </c>
+      <c r="M78" t="s">
+        <v>195</v>
       </c>
       <c r="O78" t="s">
-        <v>289</v>
-      </c>
-      <c r="P78" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79" s="1">
-        <v>80</v>
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>33</v>
       </c>
       <c r="C79" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D79">
         <v>300000</v>
       </c>
-      <c r="E79">
-        <v>6.666666666666667</v>
-      </c>
       <c r="G79">
         <v>10</v>
       </c>
@@ -4160,189 +3716,426 @@
         <v>185</v>
       </c>
       <c r="K79" s="2">
-        <v>44421</v>
+        <v>44469</v>
       </c>
       <c r="L79" s="2">
-        <v>44503</v>
+        <v>44517</v>
       </c>
       <c r="O79" t="s">
-        <v>290</v>
-      </c>
-      <c r="P79" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80" s="1">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C80" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D80">
-        <v>606996</v>
+        <v>300000</v>
       </c>
       <c r="E80">
-        <v>20.2332</v>
+        <v>10</v>
       </c>
       <c r="F80">
-        <v>60.6996</v>
+        <v>30</v>
       </c>
       <c r="G80">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="H80">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="I80">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="J80" t="s">
         <v>186</v>
       </c>
       <c r="K80" s="2">
-        <v>44496</v>
+        <v>44497</v>
+      </c>
+      <c r="N80" t="s">
+        <v>219</v>
       </c>
       <c r="O80" t="s">
-        <v>291</v>
-      </c>
-      <c r="P80" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
       <c r="A81" s="1">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C81" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D81">
-        <v>417600</v>
+        <v>600000</v>
       </c>
       <c r="E81">
-        <v>13.92</v>
-      </c>
-      <c r="F81">
-        <v>41.76</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="G81">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H81">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I81">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="J81" t="s">
         <v>187</v>
       </c>
       <c r="K81" s="2">
+        <v>44421</v>
+      </c>
+      <c r="L81" s="2">
+        <v>44453</v>
+      </c>
+      <c r="O81" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="C82" t="s">
+        <v>113</v>
+      </c>
+      <c r="D82">
+        <v>300000</v>
+      </c>
+      <c r="E82">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="G82">
+        <v>10</v>
+      </c>
+      <c r="H82">
+        <v>10</v>
+      </c>
+      <c r="I82">
+        <v>10</v>
+      </c>
+      <c r="J82" t="s">
+        <v>188</v>
+      </c>
+      <c r="K82" s="2">
+        <v>44421</v>
+      </c>
+      <c r="L82" s="2">
+        <v>44503</v>
+      </c>
+      <c r="O82" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>36</v>
+      </c>
+      <c r="C83" t="s">
+        <v>114</v>
+      </c>
+      <c r="D83">
+        <v>606996</v>
+      </c>
+      <c r="E83">
+        <v>20.2332</v>
+      </c>
+      <c r="F83">
+        <v>60.6996</v>
+      </c>
+      <c r="G83">
+        <v>36</v>
+      </c>
+      <c r="H83">
+        <v>36</v>
+      </c>
+      <c r="I83">
+        <v>25</v>
+      </c>
+      <c r="J83" t="s">
+        <v>189</v>
+      </c>
+      <c r="K83" s="2">
+        <v>44496</v>
+      </c>
+      <c r="O83" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>36</v>
+      </c>
+      <c r="C84" t="s">
+        <v>115</v>
+      </c>
+      <c r="D84">
+        <v>417600</v>
+      </c>
+      <c r="E84">
+        <v>13.92</v>
+      </c>
+      <c r="F84">
+        <v>41.76</v>
+      </c>
+      <c r="G84">
+        <v>25</v>
+      </c>
+      <c r="H84">
+        <v>25</v>
+      </c>
+      <c r="I84">
+        <v>21</v>
+      </c>
+      <c r="J84" t="s">
+        <v>190</v>
+      </c>
+      <c r="K84" s="2">
         <v>44457</v>
       </c>
-      <c r="L81" s="2">
+      <c r="L84" s="2">
         <v>44491</v>
       </c>
-      <c r="O81" t="s">
-        <v>292</v>
-      </c>
-      <c r="P81" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17">
-      <c r="A82" s="1">
+      <c r="O84" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
+      <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C85" t="s">
         <v>116</v>
       </c>
-      <c r="D82">
+      <c r="D85">
         <v>500000</v>
       </c>
-      <c r="E82">
+      <c r="E85">
         <v>16.66666666666667</v>
       </c>
-      <c r="F82">
+      <c r="F85">
         <v>50</v>
       </c>
-      <c r="G82">
+      <c r="G85">
         <v>4</v>
       </c>
-      <c r="H82">
+      <c r="H85">
         <v>4</v>
       </c>
-      <c r="I82">
+      <c r="I85">
         <v>4</v>
       </c>
-      <c r="K82" s="2">
+      <c r="K85" s="2">
         <v>44459</v>
       </c>
-      <c r="L82" s="2">
+      <c r="L85" s="2">
         <v>44468</v>
       </c>
-      <c r="N82" t="s">
-        <v>216</v>
-      </c>
-      <c r="O82" t="s">
-        <v>293</v>
-      </c>
-      <c r="P82" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17">
-      <c r="A83" s="1">
+      <c r="N85" t="s">
+        <v>220</v>
+      </c>
+      <c r="O85" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="G86">
+        <v>5</v>
+      </c>
+      <c r="H86">
+        <v>5</v>
+      </c>
+      <c r="I86">
+        <v>3</v>
+      </c>
+      <c r="K86" s="2">
+        <v>44539</v>
+      </c>
+      <c r="O86" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B87" t="s">
         <v>37</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C87" t="s">
         <v>117</v>
       </c>
-      <c r="D83">
+      <c r="D87">
         <v>450000</v>
       </c>
-      <c r="E83">
+      <c r="E87">
         <v>15</v>
       </c>
-      <c r="F83">
+      <c r="F87">
         <v>45</v>
       </c>
-      <c r="G83">
+      <c r="G87">
         <v>0</v>
       </c>
-      <c r="N83" t="s">
-        <v>211</v>
-      </c>
-      <c r="O83" t="s">
-        <v>294</v>
-      </c>
-      <c r="P83" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q83" t="s">
-        <v>357</v>
+      <c r="N87" t="s">
+        <v>214</v>
+      </c>
+      <c r="O87" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="C88" t="s">
+        <v>118</v>
+      </c>
+      <c r="E88">
+        <v>1414.079011111111</v>
+      </c>
+      <c r="F88">
+        <v>1532.637732856169</v>
+      </c>
+      <c r="G88">
+        <v>1733</v>
+      </c>
+      <c r="H88">
+        <v>1645</v>
+      </c>
+      <c r="I88">
+        <v>1272</v>
+      </c>
+      <c r="O88" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="O89" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="F90" t="s">
+        <v>39</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="O90" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="F91" t="s">
+        <v>119</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="O91" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="O92" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="O93" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="O94" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="E95">
+        <v>1311.7784</v>
+      </c>
+      <c r="F95">
+        <v>392</v>
+      </c>
+      <c r="O95" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="E96">
+        <v>1967667.6</v>
+      </c>
+      <c r="F96">
+        <v>274400</v>
+      </c>
+      <c r="O96" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="O97" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="E98">
+        <v>2717667.6</v>
+      </c>
+      <c r="O98" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/PowerBI_Dataset/xlsx/df_em.xlsx
+++ b/PowerBI_Dataset/xlsx/df_em.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="357">
   <si>
     <t>processo</t>
   </si>
@@ -368,12 +368,6 @@
   </si>
   <si>
     <t>Uldurico Junior - BA</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Não indicados</t>
   </si>
   <si>
     <t>63 serão atendidos por fibra óptica</t>
@@ -548,9 +542,6 @@
   <si>
     <t>4 local não encontrado, 1 já atendido e 13 não atendem aos critérios
 Enviou 2a lista pedindo para desconsiderar a 1a</t>
-  </si>
-  <si>
-    <t>4 local não encontrado, 4 já atendidos, 3 falta o estabelecimento e 4 não atendem aos critérios</t>
   </si>
   <si>
     <t>manutenção de pontos</t>
@@ -709,9 +700,6 @@
     <t>Enviar indicações</t>
   </si>
   <si>
-    <t>Corrigir 15 pontos e indicar mais</t>
-  </si>
-  <si>
     <t>Corrigir 8 pontos</t>
   </si>
   <si>
@@ -730,16 +718,13 @@
     <t>BANCADA-AL</t>
   </si>
   <si>
-    <t>NAN</t>
-  </si>
-  <si>
     <t>BANCADA-MG</t>
   </si>
   <si>
     <t>MISAEL VARELLA</t>
   </si>
   <si>
-    <t xml:space="preserve">GILBERTO ABRAMO </t>
+    <t>GILBERTO ABRAMO</t>
   </si>
   <si>
     <t>EUCLYDES PETTER</t>
@@ -748,10 +733,10 @@
     <t>AUREA CAROLINA</t>
   </si>
   <si>
-    <t xml:space="preserve"> ANTONIO ANASTASIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JULIO DELGADO </t>
+    <t>ANTONIO ANASTASIA</t>
+  </si>
+  <si>
+    <t>JULIO DELGADO</t>
   </si>
   <si>
     <t>EROS BIONDINI</t>
@@ -787,7 +772,7 @@
     <t>MARIO HERINGER</t>
   </si>
   <si>
-    <t xml:space="preserve">LUIS TIBE </t>
+    <t>LUIS TIBE</t>
   </si>
   <si>
     <t>LEONARDO MONTEIRO</t>
@@ -799,16 +784,16 @@
     <t>LUCAS GONZALEZ</t>
   </si>
   <si>
-    <t xml:space="preserve">VILSON DA FETAEMG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEWTON CARDOSO </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CARLOS VIANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RODRIGO PACHECO</t>
+    <t>VILSON DA FETAEMG</t>
+  </si>
+  <si>
+    <t>NEWTON CARDOSO</t>
+  </si>
+  <si>
+    <t>CARLOS VIANA</t>
+  </si>
+  <si>
+    <t>RODRIGO PACHECO</t>
   </si>
   <si>
     <t>ZE SILVA</t>
@@ -826,31 +811,31 @@
     <t>CHARLES EVANGELISTA</t>
   </si>
   <si>
-    <t xml:space="preserve">ZE VITOR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DELEGADO MARCELO FREITAS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">STEFANO AGUIAR </t>
+    <t>ZE VITOR</t>
+  </si>
+  <si>
+    <t>DELEGADO MARCELO FREITAS</t>
+  </si>
+  <si>
+    <t>STEFANO AGUIAR</t>
   </si>
   <si>
     <t>WELITON PRADO</t>
   </si>
   <si>
-    <t xml:space="preserve">FRANCO CARTAFINA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAULO ABI ACKEL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARCELO ARO </t>
+    <t>FRANCO CARTAFINA</t>
+  </si>
+  <si>
+    <t>PAULO ABI ACKEL</t>
+  </si>
+  <si>
+    <t>MARCELO ARO</t>
   </si>
   <si>
     <t>ROGERIO CORREIA</t>
   </si>
   <si>
-    <t xml:space="preserve">PADRE JOAO  </t>
+    <t>PADRE JOAO</t>
   </si>
   <si>
     <t>BANCADA-SP</t>
@@ -862,7 +847,7 @@
     <t>NEUCIMAR FRAGA</t>
   </si>
   <si>
-    <t>DEPA. LAURIETE</t>
+    <t>LAURIETE</t>
   </si>
   <si>
     <t>AMARO NETO</t>
@@ -883,94 +868,271 @@
     <t>BANCADA-PA</t>
   </si>
   <si>
-    <t xml:space="preserve">ALICE PORTUGAL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CELSO SABINO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONFUCIO MOURA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORONEL CHRISOSTOMO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIMAS FABIANO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDNA HENRIQUE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ELIAS VAZ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXPEDITO NETTO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FABIO REIS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLAVIA ARRUDA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLAVIANO MELO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GENERAL GIRAO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOAO ROMA </t>
+    <t>ALICE PORTUGAL</t>
+  </si>
+  <si>
+    <t>CELSO SABINO</t>
+  </si>
+  <si>
+    <t>CONFUCIO MOURA</t>
+  </si>
+  <si>
+    <t>CORONEL CHRISOSTOMO</t>
+  </si>
+  <si>
+    <t>EDNA HENRIQUE</t>
+  </si>
+  <si>
+    <t>ELIAS VAZ</t>
+  </si>
+  <si>
+    <t>EXPEDITO NETTO</t>
+  </si>
+  <si>
+    <t>FABIO REIS</t>
+  </si>
+  <si>
+    <t>FLAVIA ARRUDA</t>
+  </si>
+  <si>
+    <t>FLAVIANO MELO</t>
+  </si>
+  <si>
+    <t>GENERAL GIRAO</t>
+  </si>
+  <si>
+    <t>JOAO ROMA</t>
   </si>
   <si>
     <t>JOENIA WAPICHANA</t>
   </si>
   <si>
-    <t xml:space="preserve">JOSE MEDEIROS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOSE NUNES </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOSIVALDO JP </t>
+    <t>JOSE MEDEIROS</t>
+  </si>
+  <si>
+    <t>JOSE NUNES</t>
+  </si>
+  <si>
+    <t>JOSIVALDO JP</t>
   </si>
   <si>
     <t>CABO JUNIO AMARAL  INDIVIDUAL</t>
   </si>
   <si>
-    <t xml:space="preserve">JUNIOR LOURENCO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEO DE BRITO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEUR LOMANTO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUCIANO BIVAR </t>
+    <t>JUNIOR LOURENCO</t>
+  </si>
+  <si>
+    <t>LEO DE BRITO</t>
+  </si>
+  <si>
+    <t>LEUR LOMANTO</t>
+  </si>
+  <si>
+    <t>LUCIANO BIVAR</t>
   </si>
   <si>
     <t>LUIS TIBE  INDIVIDUAL</t>
   </si>
   <si>
-    <t xml:space="preserve">MARA ROCHA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARX BELTRAO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PERPETUA ALMEIDA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERGIO PETECAO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SORAYA THRONICKE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ULDURICO JUNIOR </t>
-  </si>
-  <si>
-    <t>TOTAL</t>
+    <t>MARA ROCHA</t>
+  </si>
+  <si>
+    <t>MARX BELTRAO</t>
+  </si>
+  <si>
+    <t>PERPETUA ALMEIDA</t>
+  </si>
+  <si>
+    <t>SERGIO PETECAO</t>
+  </si>
+  <si>
+    <t>SORAYA THRONICKE</t>
+  </si>
+  <si>
+    <t>ULDURICO JUNIOR</t>
+  </si>
+  <si>
+    <t>LUIS HENRIQUE DE OLIVEIRA RESENDE</t>
+  </si>
+  <si>
+    <t>DIMAS FABIANO TOLEDO JUNIOR</t>
+  </si>
+  <si>
+    <t>NEUCIMAR FERREIRA FRAGA</t>
+  </si>
+  <si>
+    <t>EVAIR VIEIRA DE MELO</t>
+  </si>
+  <si>
+    <t>ALICE MAZZUCO PORTUGAL</t>
+  </si>
+  <si>
+    <t>CELSO SABINO DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>CONFUCIO AIRES MOURA</t>
+  </si>
+  <si>
+    <t>JOAO CHRISOSTOMO DE MOURA</t>
+  </si>
+  <si>
+    <t>EDNACE ALVES SILVESTRE HENRIQUE</t>
+  </si>
+  <si>
+    <t>ELIAS VAZ DE ANDRADE</t>
+  </si>
+  <si>
+    <t>EXPEDITO GONCALVES FERREIRA NETTO</t>
+  </si>
+  <si>
+    <t>FABIO DE ALMEIDA REIS</t>
+  </si>
+  <si>
+    <t>FLAVIA CAROLINA PERES</t>
+  </si>
+  <si>
+    <t>FLAVIANO FLAVIO BAPTISTA DE MELO</t>
+  </si>
+  <si>
+    <t>ELIESER GIRAO MONTEIRO FILHO</t>
+  </si>
+  <si>
+    <t>JOAO INACIO RIBEIRO ROMA NETO</t>
+  </si>
+  <si>
+    <t>JOENIA BATISTA DE CARVALHO</t>
+  </si>
+  <si>
+    <t>JOSE ANTONIO DOS SANTOS MEDEIROS</t>
+  </si>
+  <si>
+    <t>JOSE NUNES SOARES</t>
+  </si>
+  <si>
+    <t>JOSIVALDO DOS SANTOS MELO</t>
+  </si>
+  <si>
+    <t>JOSE LOURENCO BOMFIM JUNIOR</t>
+  </si>
+  <si>
+    <t>LEONARDO CUNHA DE BRITO</t>
+  </si>
+  <si>
+    <t>LEUR ANTONIO DE BRITTO LOMANTO JUNIOR</t>
+  </si>
+  <si>
+    <t>LUCIANO CALDAS BIVAR</t>
+  </si>
+  <si>
+    <t>CYLMARA FERNANDES DA ROCHA GRIPP</t>
+  </si>
+  <si>
+    <t>MARX BELTRAO LIMA SIQUEIRA</t>
+  </si>
+  <si>
+    <t>MARIA PERPETUA DE ALMEIDA</t>
+  </si>
+  <si>
+    <t>ULDURICO ALENCAR PINTO</t>
+  </si>
+  <si>
+    <t>SEN. ANTONIO ANASTASIA</t>
+  </si>
+  <si>
+    <t>DEP. LUIS HENRIQUE DE OLIVEIRA RESENDE</t>
+  </si>
+  <si>
+    <t>SEN. CARLOS VIANA</t>
+  </si>
+  <si>
+    <t>SEN. RODRIGO PACHECO</t>
+  </si>
+  <si>
+    <t>DEP. DIMAS FABIANO TOLEDO JUNIOR</t>
+  </si>
+  <si>
+    <t>DEP. NEUCIMAR FERREIRA FRAGA</t>
+  </si>
+  <si>
+    <t>DEP. EVAIR VIEIRA DE MELO</t>
+  </si>
+  <si>
+    <t>DEP. ALICE MAZZUCO PORTUGAL</t>
+  </si>
+  <si>
+    <t>DEP. CELSO SABINO DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>SEN. CONFUCIO AIRES MOURA</t>
+  </si>
+  <si>
+    <t>DEP. JOAO CHRISOSTOMO DE MOURA</t>
+  </si>
+  <si>
+    <t>DEP. EDNACE ALVES SILVESTRE HENRIQUE</t>
+  </si>
+  <si>
+    <t>DEP. ELIAS VAZ DE ANDRADE</t>
+  </si>
+  <si>
+    <t>DEP. EXPEDITO GONCALVES FERREIRA NETTO</t>
+  </si>
+  <si>
+    <t>DEP. FABIO DE ALMEIDA REIS</t>
+  </si>
+  <si>
+    <t>DEP. FLAVIA CAROLINA PERES</t>
+  </si>
+  <si>
+    <t>DEP. FLAVIANO FLAVIO BAPTISTA DE MELO</t>
+  </si>
+  <si>
+    <t>DEP. ELIESER GIRAO MONTEIRO FILHO</t>
+  </si>
+  <si>
+    <t>DEP. JOAO INACIO RIBEIRO ROMA NETO</t>
+  </si>
+  <si>
+    <t>DEP. JOENIA BATISTA DE CARVALHO</t>
+  </si>
+  <si>
+    <t>DEP. JOSE ANTONIO DOS SANTOS MEDEIROS</t>
+  </si>
+  <si>
+    <t>DEP. JOSE NUNES SOARES</t>
+  </si>
+  <si>
+    <t>DEP. JOSIVALDO DOS SANTOS MELO</t>
+  </si>
+  <si>
+    <t>DEP. JOSE LOURENCO BOMFIM JUNIOR</t>
+  </si>
+  <si>
+    <t>DEP. LEONARDO CUNHA DE BRITO</t>
+  </si>
+  <si>
+    <t>DEP. LEUR ANTONIO DE BRITTO LOMANTO JUNIOR</t>
+  </si>
+  <si>
+    <t>DEP. LUCIANO CALDAS BIVAR</t>
+  </si>
+  <si>
+    <t>DEP. CYLMARA FERNANDES DA ROCHA GRIPP</t>
+  </si>
+  <si>
+    <t>DEP. MARX BELTRAO LIMA SIQUEIRA</t>
+  </si>
+  <si>
+    <t>DEP. MARIA PERPETUA DE ALMEIDA</t>
+  </si>
+  <si>
+    <t>SEN. SERGIO PETECAO</t>
+  </si>
+  <si>
+    <t>SEN. SORAYA THRONICKE</t>
+  </si>
+  <si>
+    <t>DEP. ULDURICO ALENCAR PINTO</t>
   </si>
 </sst>
 </file>
@@ -1332,7 +1494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q98"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1414,84 +1576,120 @@
         <v>223</v>
       </c>
       <c r="J2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K2" s="2">
         <v>44425</v>
       </c>
       <c r="L2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="O2" t="s">
-        <v>221</v>
+        <v>217</v>
+      </c>
+      <c r="P2" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>23</v>
-      </c>
-      <c r="H3">
-        <v>23</v>
-      </c>
-      <c r="I3">
-        <v>23</v>
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3">
+        <v>18816356</v>
+      </c>
+      <c r="E3">
+        <v>627.2118666666667</v>
+      </c>
+      <c r="J3" t="s">
+        <v>119</v>
       </c>
       <c r="O3" t="s">
-        <v>222</v>
+        <v>218</v>
+      </c>
+      <c r="P3" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I4">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="J4" t="s">
+        <v>120</v>
+      </c>
+      <c r="K4" s="2">
+        <v>44384</v>
       </c>
       <c r="L4" s="2">
-        <v>44545</v>
+        <v>44511</v>
+      </c>
+      <c r="M4" t="s">
+        <v>191</v>
       </c>
       <c r="O4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5">
-        <v>18816356</v>
-      </c>
-      <c r="E5">
-        <v>627.2118666666667</v>
+        <v>41</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
       </c>
       <c r="J5" t="s">
         <v>121</v>
       </c>
+      <c r="K5" t="s">
+        <v>188</v>
+      </c>
+      <c r="N5" t="s">
+        <v>200</v>
+      </c>
       <c r="O5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G6">
         <v>11</v>
@@ -1506,53 +1704,56 @@
         <v>122</v>
       </c>
       <c r="K6" s="2">
-        <v>44384</v>
+        <v>44383</v>
       </c>
       <c r="L6" s="2">
-        <v>44511</v>
+        <v>44386</v>
       </c>
       <c r="M6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="O6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J7" t="s">
         <v>123</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="2">
+        <v>44424</v>
+      </c>
+      <c r="L7" s="2">
+        <v>44468</v>
+      </c>
+      <c r="M7" t="s">
         <v>191</v>
       </c>
-      <c r="N7" t="s">
-        <v>203</v>
-      </c>
       <c r="O7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G8">
         <v>11</v>
@@ -1567,24 +1768,30 @@
         <v>124</v>
       </c>
       <c r="K8" s="2">
-        <v>44383</v>
+        <v>44384</v>
       </c>
       <c r="L8" s="2">
-        <v>44386</v>
+        <v>44482</v>
       </c>
       <c r="M8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="O8" t="s">
-        <v>226</v>
+        <v>223</v>
+      </c>
+      <c r="P8" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G9">
         <v>11</v>
@@ -1593,30 +1800,30 @@
         <v>11</v>
       </c>
       <c r="I9">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J9" t="s">
         <v>125</v>
       </c>
       <c r="K9" s="2">
-        <v>44424</v>
-      </c>
-      <c r="L9" s="2">
-        <v>44468</v>
+        <v>44389</v>
       </c>
       <c r="M9" t="s">
-        <v>194</v>
+        <v>191</v>
+      </c>
+      <c r="N9" t="s">
+        <v>201</v>
       </c>
       <c r="O9" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G10">
         <v>11</v>
@@ -1631,24 +1838,24 @@
         <v>126</v>
       </c>
       <c r="K10" s="2">
-        <v>44384</v>
+        <v>44391</v>
       </c>
       <c r="L10" s="2">
-        <v>44482</v>
+        <v>44425</v>
       </c>
       <c r="M10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O10" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G11">
         <v>11</v>
@@ -1657,7 +1864,7 @@
         <v>11</v>
       </c>
       <c r="I11">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J11" t="s">
         <v>127</v>
@@ -1665,22 +1872,22 @@
       <c r="K11" s="2">
         <v>44389</v>
       </c>
+      <c r="L11" s="2">
+        <v>44391</v>
+      </c>
       <c r="M11" t="s">
-        <v>194</v>
-      </c>
-      <c r="N11" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="O11" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G12">
         <v>11</v>
@@ -1698,21 +1905,21 @@
         <v>44391</v>
       </c>
       <c r="L12" s="2">
-        <v>44425</v>
+        <v>44404</v>
       </c>
       <c r="M12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O12" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G13">
         <v>11</v>
@@ -1727,24 +1934,24 @@
         <v>129</v>
       </c>
       <c r="K13" s="2">
-        <v>44389</v>
+        <v>44392</v>
       </c>
       <c r="L13" s="2">
-        <v>44391</v>
+        <v>44505</v>
       </c>
       <c r="M13" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O13" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>11</v>
@@ -1759,24 +1966,24 @@
         <v>130</v>
       </c>
       <c r="K14" s="2">
-        <v>44391</v>
+        <v>44389</v>
       </c>
       <c r="L14" s="2">
-        <v>44404</v>
+        <v>44419</v>
       </c>
       <c r="M14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G15">
         <v>11</v>
@@ -1791,24 +1998,24 @@
         <v>131</v>
       </c>
       <c r="K15" s="2">
-        <v>44392</v>
+        <v>44390</v>
       </c>
       <c r="L15" s="2">
-        <v>44505</v>
+        <v>44406</v>
       </c>
       <c r="M15" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O15" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G16">
         <v>11</v>
@@ -1826,21 +2033,21 @@
         <v>44389</v>
       </c>
       <c r="L16" s="2">
-        <v>44419</v>
+        <v>44477</v>
       </c>
       <c r="M16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O16" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G17">
         <v>11</v>
@@ -1855,24 +2062,27 @@
         <v>133</v>
       </c>
       <c r="K17" s="2">
-        <v>44390</v>
+        <v>44391</v>
       </c>
       <c r="L17" s="2">
-        <v>44406</v>
+        <v>44399</v>
       </c>
       <c r="M17" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="O17" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G18">
         <v>11</v>
@@ -1887,24 +2097,24 @@
         <v>134</v>
       </c>
       <c r="K18" s="2">
-        <v>44389</v>
+        <v>44386</v>
       </c>
       <c r="L18" s="2">
-        <v>44477</v>
+        <v>44456</v>
       </c>
       <c r="M18" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O18" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G19">
         <v>11</v>
@@ -1919,27 +2129,24 @@
         <v>135</v>
       </c>
       <c r="K19" s="2">
-        <v>44391</v>
+        <v>44389</v>
       </c>
       <c r="L19" s="2">
-        <v>44399</v>
+        <v>44392</v>
       </c>
       <c r="M19" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="O19" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G20">
         <v>11</v>
@@ -1954,24 +2161,21 @@
         <v>136</v>
       </c>
       <c r="K20" s="2">
-        <v>44386</v>
+        <v>44414</v>
       </c>
       <c r="L20" s="2">
-        <v>44456</v>
-      </c>
-      <c r="M20" t="s">
-        <v>200</v>
+        <v>44440</v>
       </c>
       <c r="O20" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G21">
         <v>11</v>
@@ -1980,30 +2184,33 @@
         <v>11</v>
       </c>
       <c r="I21">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J21" t="s">
         <v>137</v>
       </c>
       <c r="K21" s="2">
-        <v>44389</v>
-      </c>
-      <c r="L21" s="2">
-        <v>44392</v>
-      </c>
-      <c r="M21" t="s">
-        <v>201</v>
+        <v>44418</v>
+      </c>
+      <c r="N21" t="s">
+        <v>202</v>
       </c>
       <c r="O21" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>236</v>
+      </c>
+      <c r="P21" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G22">
         <v>11</v>
@@ -2018,21 +2225,21 @@
         <v>138</v>
       </c>
       <c r="K22" s="2">
-        <v>44414</v>
+        <v>44424</v>
       </c>
       <c r="L22" s="2">
-        <v>44440</v>
+        <v>44435</v>
       </c>
       <c r="O22" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G23">
         <v>11</v>
@@ -2041,56 +2248,56 @@
         <v>11</v>
       </c>
       <c r="I23">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J23" t="s">
         <v>139</v>
       </c>
       <c r="K23" s="2">
-        <v>44418</v>
-      </c>
-      <c r="N23" t="s">
-        <v>205</v>
+        <v>44428</v>
+      </c>
+      <c r="L23" s="2">
+        <v>44551</v>
       </c>
       <c r="O23" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G24">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H24">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I24">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J24" t="s">
         <v>140</v>
       </c>
       <c r="K24" s="2">
-        <v>44424</v>
+        <v>44431</v>
       </c>
       <c r="L24" s="2">
-        <v>44435</v>
+        <v>44470</v>
       </c>
       <c r="O24" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G25">
         <v>11</v>
@@ -2099,33 +2306,33 @@
         <v>11</v>
       </c>
       <c r="I25">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J25" t="s">
         <v>141</v>
       </c>
       <c r="K25" s="2">
-        <v>44428</v>
-      </c>
-      <c r="L25" s="2">
-        <v>44551</v>
+        <v>44438</v>
+      </c>
+      <c r="N25" t="s">
+        <v>203</v>
       </c>
       <c r="O25" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G26">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H26">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I26">
         <v>10</v>
@@ -2134,21 +2341,21 @@
         <v>142</v>
       </c>
       <c r="K26" s="2">
-        <v>44431</v>
-      </c>
-      <c r="L26" s="2">
-        <v>44470</v>
+        <v>44439</v>
+      </c>
+      <c r="N26" t="s">
+        <v>204</v>
       </c>
       <c r="O26" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G27">
         <v>11</v>
@@ -2157,27 +2364,33 @@
         <v>11</v>
       </c>
       <c r="I27">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J27" t="s">
         <v>143</v>
       </c>
       <c r="K27" s="2">
-        <v>44438</v>
-      </c>
-      <c r="N27" t="s">
-        <v>206</v>
+        <v>44439</v>
+      </c>
+      <c r="L27" s="2">
+        <v>44453</v>
       </c>
       <c r="O27" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+        <v>242</v>
+      </c>
+      <c r="P27" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G28">
         <v>11</v>
@@ -2186,111 +2399,117 @@
         <v>11</v>
       </c>
       <c r="I28">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J28" t="s">
         <v>144</v>
       </c>
       <c r="K28" s="2">
-        <v>44439</v>
-      </c>
-      <c r="N28" t="s">
-        <v>207</v>
+        <v>44453</v>
+      </c>
+      <c r="L28" s="2">
+        <v>44466</v>
       </c>
       <c r="O28" t="s">
+        <v>243</v>
+      </c>
+      <c r="P28" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="1">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>65</v>
+      </c>
+      <c r="G29">
+        <v>11</v>
+      </c>
+      <c r="H29">
+        <v>11</v>
+      </c>
+      <c r="I29">
+        <v>11</v>
+      </c>
+      <c r="J29" t="s">
+        <v>140</v>
+      </c>
+      <c r="K29" s="2">
+        <v>44459</v>
+      </c>
+      <c r="O29" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="1">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30">
+        <v>11</v>
+      </c>
+      <c r="H30">
+        <v>11</v>
+      </c>
+      <c r="I30">
+        <v>7</v>
+      </c>
+      <c r="J30" t="s">
+        <v>145</v>
+      </c>
+      <c r="K30" s="2">
+        <v>44469</v>
+      </c>
+      <c r="N30" t="s">
+        <v>205</v>
+      </c>
+      <c r="O30" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="1">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31">
+        <v>10</v>
+      </c>
+      <c r="H31">
+        <v>10</v>
+      </c>
+      <c r="I31">
+        <v>7</v>
+      </c>
+      <c r="J31" t="s">
+        <v>146</v>
+      </c>
+      <c r="K31" s="2">
+        <v>44474</v>
+      </c>
+      <c r="N31" t="s">
+        <v>206</v>
+      </c>
+      <c r="O31" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="C29" t="s">
-        <v>63</v>
-      </c>
-      <c r="G29">
-        <v>11</v>
-      </c>
-      <c r="H29">
-        <v>11</v>
-      </c>
-      <c r="I29">
-        <v>11</v>
-      </c>
-      <c r="J29" t="s">
-        <v>145</v>
-      </c>
-      <c r="K29" s="2">
-        <v>44439</v>
-      </c>
-      <c r="L29" s="2">
-        <v>44453</v>
-      </c>
-      <c r="O29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="C30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G30">
-        <v>11</v>
-      </c>
-      <c r="H30">
-        <v>11</v>
-      </c>
-      <c r="I30">
-        <v>11</v>
-      </c>
-      <c r="J30" t="s">
-        <v>146</v>
-      </c>
-      <c r="K30" s="2">
-        <v>44453</v>
-      </c>
-      <c r="L30" s="2">
-        <v>44466</v>
-      </c>
-      <c r="O30" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="C31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G31">
-        <v>11</v>
-      </c>
-      <c r="H31">
-        <v>11</v>
-      </c>
-      <c r="I31">
-        <v>11</v>
-      </c>
-      <c r="J31" t="s">
-        <v>142</v>
-      </c>
-      <c r="K31" s="2">
-        <v>44459</v>
-      </c>
-      <c r="O31" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:17">
       <c r="A32" s="1">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G32">
         <v>11</v>
@@ -2299,56 +2518,59 @@
         <v>11</v>
       </c>
       <c r="I32">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J32" t="s">
         <v>147</v>
       </c>
       <c r="K32" s="2">
-        <v>44469</v>
-      </c>
-      <c r="N32" t="s">
-        <v>208</v>
+        <v>44483</v>
+      </c>
+      <c r="L32" s="2">
+        <v>44519</v>
       </c>
       <c r="O32" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
+        <v>247</v>
+      </c>
+      <c r="P32" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="1">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G33">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H33">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I33">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J33" t="s">
         <v>148</v>
       </c>
       <c r="K33" s="2">
-        <v>44474</v>
-      </c>
-      <c r="N33" t="s">
-        <v>209</v>
+        <v>44483</v>
       </c>
       <c r="O33" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G34">
         <v>11</v>
@@ -2357,7 +2579,7 @@
         <v>11</v>
       </c>
       <c r="I34">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J34" t="s">
         <v>149</v>
@@ -2365,19 +2587,19 @@
       <c r="K34" s="2">
         <v>44483</v>
       </c>
-      <c r="L34" s="2">
-        <v>44519</v>
+      <c r="N34" t="s">
+        <v>207</v>
       </c>
       <c r="O34" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" s="1">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G35">
         <v>11</v>
@@ -2386,7 +2608,7 @@
         <v>11</v>
       </c>
       <c r="I35">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J35" t="s">
         <v>150</v>
@@ -2394,16 +2616,19 @@
       <c r="K35" s="2">
         <v>44483</v>
       </c>
+      <c r="N35" t="s">
+        <v>208</v>
+      </c>
       <c r="O35" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G36">
         <v>11</v>
@@ -2412,27 +2637,27 @@
         <v>11</v>
       </c>
       <c r="I36">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J36" t="s">
         <v>151</v>
       </c>
       <c r="K36" s="2">
-        <v>44483</v>
+        <v>44484</v>
       </c>
       <c r="N36" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="O36" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G37">
         <v>11</v>
@@ -2441,27 +2666,27 @@
         <v>11</v>
       </c>
       <c r="I37">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J37" t="s">
         <v>152</v>
       </c>
       <c r="K37" s="2">
-        <v>44483</v>
-      </c>
-      <c r="N37" t="s">
-        <v>211</v>
+        <v>44491</v>
+      </c>
+      <c r="L37" s="2">
+        <v>44546</v>
       </c>
       <c r="O37" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G38">
         <v>11</v>
@@ -2470,56 +2695,56 @@
         <v>11</v>
       </c>
       <c r="I38">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J38" t="s">
         <v>153</v>
       </c>
       <c r="K38" s="2">
-        <v>44484</v>
+        <v>44494</v>
       </c>
       <c r="N38" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="O38" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G39">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H39">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I39">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J39" t="s">
         <v>154</v>
       </c>
       <c r="K39" s="2">
-        <v>44491</v>
-      </c>
-      <c r="L39" s="2">
-        <v>44546</v>
+        <v>44504</v>
+      </c>
+      <c r="N39" t="s">
+        <v>204</v>
       </c>
       <c r="O39" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G40">
         <v>11</v>
@@ -2528,56 +2753,53 @@
         <v>11</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J40" t="s">
         <v>155</v>
       </c>
       <c r="K40" s="2">
-        <v>44494</v>
+        <v>44543</v>
       </c>
       <c r="N40" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="O40" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G41">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H41">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I41">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J41" t="s">
         <v>156</v>
       </c>
       <c r="K41" s="2">
-        <v>44504</v>
-      </c>
-      <c r="N41" t="s">
-        <v>207</v>
+        <v>44539</v>
       </c>
       <c r="O41" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G42">
         <v>11</v>
@@ -2586,539 +2808,653 @@
         <v>11</v>
       </c>
       <c r="I42">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J42" t="s">
         <v>157</v>
       </c>
-      <c r="K42" s="2">
-        <v>44543</v>
-      </c>
       <c r="N42" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="O42" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="D43">
+        <v>2240042</v>
+      </c>
+      <c r="E43">
+        <v>49.77871111111111</v>
+      </c>
+      <c r="F43">
+        <v>149.3361333333333</v>
       </c>
       <c r="G43">
-        <v>11</v>
-      </c>
-      <c r="H43">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="I43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
         <v>158</v>
       </c>
-      <c r="K43" s="2">
-        <v>44539</v>
+      <c r="N43" t="s">
+        <v>211</v>
       </c>
       <c r="O43" t="s">
+        <v>258</v>
+      </c>
+      <c r="P43" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="1">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44">
+        <v>8120154</v>
+      </c>
+      <c r="E44">
+        <v>180.4478666666667</v>
+      </c>
+      <c r="F44">
+        <v>541.3436</v>
+      </c>
+      <c r="O44" t="s">
+        <v>259</v>
+      </c>
+      <c r="P44" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="1">
+        <v>45</v>
+      </c>
+      <c r="C45" t="s">
+        <v>81</v>
+      </c>
+      <c r="G45">
+        <v>54</v>
+      </c>
+      <c r="H45">
+        <v>54</v>
+      </c>
+      <c r="I45">
+        <v>50</v>
+      </c>
+      <c r="J45" t="s">
+        <v>159</v>
+      </c>
+      <c r="K45" s="2">
+        <v>44469</v>
+      </c>
+      <c r="O45" t="s">
+        <v>260</v>
+      </c>
+      <c r="P45" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="1">
+        <v>46</v>
+      </c>
+      <c r="C46" t="s">
+        <v>82</v>
+      </c>
+      <c r="G46">
+        <v>56</v>
+      </c>
+      <c r="H46">
+        <v>56</v>
+      </c>
+      <c r="I46">
+        <v>30</v>
+      </c>
+      <c r="J46" t="s">
+        <v>160</v>
+      </c>
+      <c r="K46" s="2">
+        <v>44469</v>
+      </c>
+      <c r="O46" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="C44" t="s">
-        <v>78</v>
-      </c>
-      <c r="G44">
-        <v>11</v>
-      </c>
-      <c r="H44">
-        <v>11</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44" t="s">
-        <v>159</v>
-      </c>
-      <c r="N44" t="s">
-        <v>213</v>
-      </c>
-      <c r="O44" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="C45" t="s">
-        <v>79</v>
-      </c>
-      <c r="D45">
-        <v>2240042</v>
-      </c>
-      <c r="E45">
-        <v>49.77871111111111</v>
-      </c>
-      <c r="F45">
-        <v>149.3361333333333</v>
-      </c>
-      <c r="G45">
-        <v>88</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45" t="s">
-        <v>160</v>
-      </c>
-      <c r="N45" t="s">
-        <v>214</v>
-      </c>
-      <c r="O45" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
+    <row r="47" spans="1:17">
+      <c r="A47" s="1">
+        <v>47</v>
+      </c>
+      <c r="C47" t="s">
+        <v>82</v>
+      </c>
+      <c r="G47">
         <v>19</v>
       </c>
-      <c r="C46" t="s">
-        <v>80</v>
-      </c>
-      <c r="D46">
-        <v>8120154</v>
-      </c>
-      <c r="E46">
-        <v>180.4478666666667</v>
-      </c>
-      <c r="F46">
-        <v>541.3436</v>
-      </c>
-      <c r="O46" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="C47" t="s">
-        <v>81</v>
-      </c>
-      <c r="G47">
-        <v>54</v>
-      </c>
       <c r="H47">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="I47">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="J47" t="s">
         <v>161</v>
       </c>
       <c r="K47" s="2">
-        <v>44469</v>
+        <v>44537</v>
       </c>
       <c r="O47" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48" s="1">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G48">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="H48">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="I48">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J48" t="s">
         <v>162</v>
       </c>
       <c r="K48" s="2">
-        <v>44469</v>
+        <v>44414</v>
+      </c>
+      <c r="N48" t="s">
+        <v>205</v>
       </c>
       <c r="O48" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G49">
-        <v>19</v>
+        <v>169</v>
       </c>
       <c r="H49">
-        <v>19</v>
+        <v>169</v>
       </c>
       <c r="I49">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="J49" t="s">
         <v>163</v>
       </c>
-      <c r="K49" s="2">
-        <v>44537</v>
+      <c r="K49" t="s">
+        <v>189</v>
       </c>
       <c r="O49" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
+        <v>263</v>
+      </c>
+      <c r="P49" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G50">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="H50">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="I50">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="J50" t="s">
         <v>164</v>
       </c>
       <c r="K50" s="2">
-        <v>44414</v>
-      </c>
-      <c r="N50" t="s">
-        <v>208</v>
+        <v>44488</v>
       </c>
       <c r="O50" t="s">
+        <v>263</v>
+      </c>
+      <c r="P50" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" s="1">
+        <v>51</v>
+      </c>
+      <c r="C51" t="s">
+        <v>85</v>
+      </c>
+      <c r="G51">
+        <v>66</v>
+      </c>
+      <c r="H51">
+        <v>66</v>
+      </c>
+      <c r="I51">
+        <v>64</v>
+      </c>
+      <c r="K51" s="2">
+        <v>44475</v>
+      </c>
+      <c r="O51" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="1">
+        <v>52</v>
+      </c>
+      <c r="C52" t="s">
+        <v>86</v>
+      </c>
+      <c r="D52">
+        <v>750000</v>
+      </c>
+      <c r="O52" t="s">
+        <v>265</v>
+      </c>
+      <c r="P52" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="1">
+        <v>53</v>
+      </c>
+      <c r="C53" t="s">
+        <v>87</v>
+      </c>
+      <c r="G53">
+        <v>20</v>
+      </c>
+      <c r="H53">
+        <v>20</v>
+      </c>
+      <c r="I53">
+        <v>9</v>
+      </c>
+      <c r="J53" t="s">
+        <v>165</v>
+      </c>
+      <c r="K53" s="2">
+        <v>44494</v>
+      </c>
+      <c r="N53" t="s">
+        <v>210</v>
+      </c>
+      <c r="O53" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" s="1">
+        <v>54</v>
+      </c>
+      <c r="C54" t="s">
+        <v>88</v>
+      </c>
+      <c r="D54">
+        <v>1817820</v>
+      </c>
+      <c r="E54">
+        <v>60.594</v>
+      </c>
+      <c r="F54">
+        <v>181.782</v>
+      </c>
+      <c r="G54">
+        <v>32</v>
+      </c>
+      <c r="H54">
+        <v>32</v>
+      </c>
+      <c r="I54">
+        <v>14</v>
+      </c>
+      <c r="J54" t="s">
+        <v>166</v>
+      </c>
+      <c r="K54" s="2">
+        <v>44410</v>
+      </c>
+      <c r="M54" t="s">
+        <v>199</v>
+      </c>
+      <c r="O54" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="51" spans="1:15">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="C51" t="s">
-        <v>84</v>
-      </c>
-      <c r="G51">
+      <c r="P54" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="1">
+        <v>56</v>
+      </c>
+      <c r="C55" t="s">
+        <v>89</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="N55" t="s">
+        <v>211</v>
+      </c>
+      <c r="O55" t="s">
+        <v>268</v>
+      </c>
+      <c r="P55" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" s="1">
+        <v>57</v>
+      </c>
+      <c r="C56" t="s">
+        <v>90</v>
+      </c>
+      <c r="D56">
+        <v>215340</v>
+      </c>
+      <c r="J56" t="s">
+        <v>167</v>
+      </c>
+      <c r="O56" t="s">
+        <v>269</v>
+      </c>
+      <c r="P56" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" s="1">
+        <v>58</v>
+      </c>
+      <c r="C57" t="s">
+        <v>91</v>
+      </c>
+      <c r="D57">
+        <v>1050000</v>
+      </c>
+      <c r="J57" t="s">
+        <v>167</v>
+      </c>
+      <c r="O57" t="s">
+        <v>270</v>
+      </c>
+      <c r="P57" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" s="1">
+        <v>59</v>
+      </c>
+      <c r="B58" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" t="s">
+        <v>92</v>
+      </c>
+      <c r="D58">
+        <v>200000</v>
+      </c>
+      <c r="E58">
+        <v>4.444444444444445</v>
+      </c>
+      <c r="F58">
+        <v>13.33333333333333</v>
+      </c>
+      <c r="G58">
+        <v>10</v>
+      </c>
+      <c r="H58">
+        <v>10</v>
+      </c>
+      <c r="I58">
+        <v>10</v>
+      </c>
+      <c r="J58" t="s">
+        <v>168</v>
+      </c>
+      <c r="K58" s="2">
+        <v>44412</v>
+      </c>
+      <c r="L58" s="2">
+        <v>44475</v>
+      </c>
+      <c r="M58" t="s">
+        <v>198</v>
+      </c>
+      <c r="O58" t="s">
+        <v>271</v>
+      </c>
+      <c r="P58" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" s="1">
+        <v>60</v>
+      </c>
+      <c r="B59" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59" t="s">
+        <v>93</v>
+      </c>
+      <c r="D59">
+        <v>300000</v>
+      </c>
+      <c r="E59">
+        <v>10</v>
+      </c>
+      <c r="F59">
+        <v>30</v>
+      </c>
+      <c r="G59">
+        <v>10</v>
+      </c>
+      <c r="H59">
+        <v>10</v>
+      </c>
+      <c r="I59">
+        <v>10</v>
+      </c>
+      <c r="J59" t="s">
         <v>169</v>
       </c>
-      <c r="H51">
-        <v>169</v>
-      </c>
-      <c r="I51">
-        <v>126</v>
-      </c>
-      <c r="J51" t="s">
-        <v>165</v>
-      </c>
-      <c r="K51" t="s">
-        <v>192</v>
-      </c>
-      <c r="O51" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="C52" t="s">
-        <v>84</v>
-      </c>
-      <c r="G52">
-        <v>117</v>
-      </c>
-      <c r="H52">
-        <v>117</v>
-      </c>
-      <c r="I52">
-        <v>82</v>
-      </c>
-      <c r="J52" t="s">
-        <v>166</v>
-      </c>
-      <c r="K52" s="2">
-        <v>44488</v>
-      </c>
-      <c r="O52" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="C53" t="s">
-        <v>85</v>
-      </c>
-      <c r="G53">
-        <v>66</v>
-      </c>
-      <c r="H53">
-        <v>66</v>
-      </c>
-      <c r="I53">
-        <v>64</v>
-      </c>
-      <c r="K53" s="2">
-        <v>44475</v>
-      </c>
-      <c r="O53" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15">
-      <c r="A54" s="1">
-        <v>52</v>
-      </c>
-      <c r="C54" t="s">
-        <v>86</v>
-      </c>
-      <c r="D54">
-        <v>750000</v>
-      </c>
-      <c r="O54" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15">
-      <c r="A55" s="1">
-        <v>53</v>
-      </c>
-      <c r="C55" t="s">
-        <v>87</v>
-      </c>
-      <c r="G55">
-        <v>20</v>
-      </c>
-      <c r="H55">
-        <v>20</v>
-      </c>
-      <c r="I55">
-        <v>9</v>
-      </c>
-      <c r="J55" t="s">
-        <v>167</v>
-      </c>
-      <c r="K55" s="2">
-        <v>44494</v>
-      </c>
-      <c r="N55" t="s">
-        <v>213</v>
-      </c>
-      <c r="O55" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15">
-      <c r="A56" s="1">
-        <v>54</v>
-      </c>
-      <c r="C56" t="s">
-        <v>88</v>
-      </c>
-      <c r="D56">
-        <v>1817820</v>
-      </c>
-      <c r="E56">
-        <v>60.594</v>
-      </c>
-      <c r="F56">
-        <v>181.782</v>
-      </c>
-      <c r="G56">
-        <v>32</v>
-      </c>
-      <c r="H56">
-        <v>32</v>
-      </c>
-      <c r="I56">
-        <v>14</v>
-      </c>
-      <c r="J56" t="s">
-        <v>168</v>
-      </c>
-      <c r="K56" s="2">
-        <v>44410</v>
-      </c>
-      <c r="M56" t="s">
-        <v>202</v>
-      </c>
-      <c r="O56" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15">
-      <c r="A57" s="1">
-        <v>55</v>
-      </c>
-      <c r="G57">
-        <v>27</v>
-      </c>
-      <c r="H57">
-        <v>27</v>
-      </c>
-      <c r="I57">
+      <c r="K59" s="2">
+        <v>44483</v>
+      </c>
+      <c r="L59" s="2">
+        <v>44519</v>
+      </c>
+      <c r="O59" t="s">
+        <v>247</v>
+      </c>
+      <c r="P59" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" s="1">
+        <v>61</v>
+      </c>
+      <c r="B60" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" t="s">
+        <v>94</v>
+      </c>
+      <c r="D60">
+        <v>300000</v>
+      </c>
+      <c r="E60">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="G60">
         <v>12</v>
       </c>
-      <c r="J57" t="s">
-        <v>169</v>
-      </c>
-      <c r="K57" s="2">
-        <v>44484</v>
-      </c>
-      <c r="N57" t="s">
-        <v>215</v>
-      </c>
-      <c r="O57" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15">
-      <c r="A58" s="1">
-        <v>56</v>
-      </c>
-      <c r="C58" t="s">
-        <v>89</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="N58" t="s">
-        <v>214</v>
-      </c>
-      <c r="O58" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15">
-      <c r="A59" s="1">
-        <v>57</v>
-      </c>
-      <c r="C59" t="s">
-        <v>90</v>
-      </c>
-      <c r="D59">
-        <v>215340</v>
-      </c>
-      <c r="J59" t="s">
-        <v>170</v>
-      </c>
-      <c r="O59" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15">
-      <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="C60" t="s">
-        <v>91</v>
-      </c>
-      <c r="D60">
-        <v>1050000</v>
+      <c r="H60">
+        <v>12</v>
+      </c>
+      <c r="I60">
+        <v>12</v>
       </c>
       <c r="J60" t="s">
         <v>170</v>
       </c>
+      <c r="K60" s="2">
+        <v>44382</v>
+      </c>
+      <c r="M60" t="s">
+        <v>197</v>
+      </c>
       <c r="O60" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15">
+        <v>272</v>
+      </c>
+      <c r="P60" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
       <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="B61" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D61">
-        <v>200000</v>
-      </c>
-      <c r="E61">
-        <v>4.444444444444445</v>
+        <v>400000</v>
       </c>
       <c r="F61">
-        <v>13.33333333333333</v>
+        <v>24.5398773006135</v>
       </c>
       <c r="G61">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H61">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I61">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J61" t="s">
         <v>171</v>
       </c>
       <c r="K61" s="2">
-        <v>44412</v>
-      </c>
-      <c r="L61" s="2">
-        <v>44475</v>
-      </c>
-      <c r="M61" t="s">
-        <v>201</v>
+        <v>44519</v>
+      </c>
+      <c r="N61" t="s">
+        <v>212</v>
       </c>
       <c r="O61" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15">
+        <v>273</v>
+      </c>
+      <c r="P61" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
       <c r="A62" s="1">
-        <v>60</v>
-      </c>
-      <c r="B62" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D62">
-        <v>300000</v>
+        <v>339993</v>
       </c>
       <c r="E62">
-        <v>10</v>
+        <v>11.3331</v>
       </c>
       <c r="F62">
-        <v>30</v>
+        <v>33.9993</v>
       </c>
       <c r="G62">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H62">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I62">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J62" t="s">
         <v>172</v>
@@ -3126,37 +3462,43 @@
       <c r="K62" s="2">
         <v>44483</v>
       </c>
-      <c r="L62" s="2">
-        <v>44519</v>
+      <c r="N62" t="s">
+        <v>206</v>
       </c>
       <c r="O62" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15">
+        <v>274</v>
+      </c>
+      <c r="P62" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
       <c r="A63" s="1">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C63" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D63">
-        <v>300000</v>
+        <v>150000</v>
       </c>
       <c r="E63">
-        <v>6.666666666666667</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="G63">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H63">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I63">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J63" t="s">
         <v>173</v>
@@ -3164,110 +3506,131 @@
       <c r="K63" s="2">
         <v>44382</v>
       </c>
+      <c r="L63" s="2">
+        <v>44382</v>
+      </c>
       <c r="M63" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="O63" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15">
+        <v>275</v>
+      </c>
+      <c r="P63" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
       <c r="A64" s="1">
-        <v>62</v>
+        <v>65</v>
+      </c>
+      <c r="B64" t="s">
+        <v>24</v>
       </c>
       <c r="C64" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D64">
-        <v>400000</v>
+        <v>1500000</v>
+      </c>
+      <c r="E64">
+        <v>50</v>
       </c>
       <c r="F64">
-        <v>24.5398773006135</v>
+        <v>100</v>
       </c>
       <c r="G64">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H64">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="I64">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J64" t="s">
         <v>174</v>
       </c>
-      <c r="K64" s="2">
-        <v>44519</v>
-      </c>
       <c r="N64" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="O64" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15">
+        <v>276</v>
+      </c>
+      <c r="P64" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
       <c r="A65" s="1">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="B65" t="s">
+        <v>25</v>
       </c>
       <c r="C65" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D65">
-        <v>339993</v>
-      </c>
-      <c r="E65">
-        <v>11.3331</v>
+        <v>627190</v>
       </c>
       <c r="F65">
-        <v>33.9993</v>
+        <v>34.84388888888889</v>
       </c>
       <c r="G65">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="H65">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="I65">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="J65" t="s">
         <v>175</v>
       </c>
       <c r="K65" s="2">
-        <v>44483</v>
-      </c>
-      <c r="N65" t="s">
-        <v>209</v>
+        <v>44435</v>
       </c>
       <c r="O65" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15">
+        <v>277</v>
+      </c>
+      <c r="P65" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
       <c r="A66" s="1">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C66" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D66">
-        <v>150000</v>
+        <v>300000</v>
       </c>
       <c r="E66">
-        <v>3.333333333333333</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="G66">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H66">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I66">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J66" t="s">
         <v>176</v>
@@ -3275,162 +3638,162 @@
       <c r="K66" s="2">
         <v>44382</v>
       </c>
-      <c r="L66" s="2">
-        <v>44382</v>
-      </c>
       <c r="M66" t="s">
-        <v>200</v>
+        <v>197</v>
+      </c>
+      <c r="N66" t="s">
+        <v>203</v>
       </c>
       <c r="O66" t="s">
+        <v>278</v>
+      </c>
+      <c r="P66" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67" s="1">
+        <v>68</v>
+      </c>
+      <c r="C67" t="s">
+        <v>101</v>
+      </c>
+      <c r="D67">
+        <v>1029986</v>
+      </c>
+      <c r="J67" t="s">
+        <v>167</v>
+      </c>
+      <c r="O67" t="s">
+        <v>279</v>
+      </c>
+      <c r="P67" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68" s="1">
+        <v>69</v>
+      </c>
+      <c r="B68" t="s">
+        <v>27</v>
+      </c>
+      <c r="C68" t="s">
+        <v>102</v>
+      </c>
+      <c r="D68">
+        <v>440000</v>
+      </c>
+      <c r="F68">
+        <v>29.33333333333333</v>
+      </c>
+      <c r="G68">
+        <v>8</v>
+      </c>
+      <c r="H68">
+        <v>8</v>
+      </c>
+      <c r="I68">
+        <v>8</v>
+      </c>
+      <c r="J68" t="s">
+        <v>177</v>
+      </c>
+      <c r="L68" s="2">
+        <v>44377</v>
+      </c>
+      <c r="M68" t="s">
+        <v>197</v>
+      </c>
+      <c r="O68" t="s">
+        <v>280</v>
+      </c>
+      <c r="P68" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69" s="1">
+        <v>70</v>
+      </c>
+      <c r="C69" t="s">
+        <v>103</v>
+      </c>
+      <c r="D69">
+        <v>659340</v>
+      </c>
+      <c r="J69" t="s">
+        <v>167</v>
+      </c>
+      <c r="O69" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="67" spans="1:15">
-      <c r="A67" s="1">
-        <v>65</v>
-      </c>
-      <c r="B67" t="s">
-        <v>24</v>
-      </c>
-      <c r="C67" t="s">
-        <v>98</v>
-      </c>
-      <c r="D67">
-        <v>1500000</v>
-      </c>
-      <c r="E67">
-        <v>50</v>
-      </c>
-      <c r="F67">
-        <v>100</v>
-      </c>
-      <c r="G67">
-        <v>61</v>
-      </c>
-      <c r="H67">
-        <v>61</v>
-      </c>
-      <c r="I67">
-        <v>21</v>
-      </c>
-      <c r="J67" t="s">
-        <v>177</v>
-      </c>
-      <c r="N67" t="s">
-        <v>217</v>
-      </c>
-      <c r="O67" t="s">
+      <c r="P69" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="A70" s="1">
+        <v>71</v>
+      </c>
+      <c r="B70" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70" t="s">
+        <v>104</v>
+      </c>
+      <c r="D70">
+        <v>300000</v>
+      </c>
+      <c r="E70">
+        <v>10</v>
+      </c>
+      <c r="F70">
+        <v>30</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="N70" t="s">
+        <v>211</v>
+      </c>
+      <c r="O70" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="68" spans="1:15">
-      <c r="A68" s="1">
-        <v>66</v>
-      </c>
-      <c r="B68" t="s">
-        <v>25</v>
-      </c>
-      <c r="C68" t="s">
-        <v>99</v>
-      </c>
-      <c r="D68">
-        <v>627190</v>
-      </c>
-      <c r="F68">
-        <v>34.84388888888889</v>
-      </c>
-      <c r="G68">
-        <v>22</v>
-      </c>
-      <c r="H68">
-        <v>22</v>
-      </c>
-      <c r="I68">
-        <v>21</v>
-      </c>
-      <c r="J68" t="s">
-        <v>178</v>
-      </c>
-      <c r="K68" s="2">
-        <v>44435</v>
-      </c>
-      <c r="O68" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15">
-      <c r="A69" s="1">
-        <v>67</v>
-      </c>
-      <c r="B69" t="s">
-        <v>26</v>
-      </c>
-      <c r="C69" t="s">
-        <v>100</v>
-      </c>
-      <c r="D69">
-        <v>300000</v>
-      </c>
-      <c r="E69">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="G69">
-        <v>10</v>
-      </c>
-      <c r="H69">
-        <v>10</v>
-      </c>
-      <c r="I69">
-        <v>8</v>
-      </c>
-      <c r="J69" t="s">
-        <v>179</v>
-      </c>
-      <c r="K69" s="2">
-        <v>44382</v>
-      </c>
-      <c r="M69" t="s">
-        <v>200</v>
-      </c>
-      <c r="N69" t="s">
-        <v>206</v>
-      </c>
-      <c r="O69" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15">
-      <c r="A70" s="1">
-        <v>68</v>
-      </c>
-      <c r="C70" t="s">
-        <v>101</v>
-      </c>
-      <c r="D70">
-        <v>1029986</v>
-      </c>
-      <c r="J70" t="s">
-        <v>170</v>
-      </c>
-      <c r="O70" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15">
+      <c r="P70" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
       <c r="A71" s="1">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C71" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D71">
-        <v>440000</v>
-      </c>
-      <c r="F71">
-        <v>29.33333333333333</v>
+        <v>150000</v>
+      </c>
+      <c r="E71">
+        <v>3.333333333333333</v>
       </c>
       <c r="G71">
         <v>8</v>
@@ -3442,161 +3805,206 @@
         <v>8</v>
       </c>
       <c r="J71" t="s">
+        <v>178</v>
+      </c>
+      <c r="K71" s="2">
+        <v>44384</v>
+      </c>
+      <c r="L71" s="2">
+        <v>44495</v>
+      </c>
+      <c r="M71" t="s">
+        <v>193</v>
+      </c>
+      <c r="O71" t="s">
+        <v>283</v>
+      </c>
+      <c r="P71" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72" s="1">
+        <v>73</v>
+      </c>
+      <c r="C72" t="s">
+        <v>106</v>
+      </c>
+      <c r="D72">
+        <v>300000</v>
+      </c>
+      <c r="E72">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="F72">
+        <v>20</v>
+      </c>
+      <c r="G72">
+        <v>10</v>
+      </c>
+      <c r="H72">
+        <v>10</v>
+      </c>
+      <c r="I72">
+        <v>10</v>
+      </c>
+      <c r="J72" t="s">
+        <v>179</v>
+      </c>
+      <c r="K72" s="2">
+        <v>44418</v>
+      </c>
+      <c r="L72" s="2">
+        <v>44552</v>
+      </c>
+      <c r="O72" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73" s="1">
+        <v>74</v>
+      </c>
+      <c r="B73" t="s">
+        <v>30</v>
+      </c>
+      <c r="C73" t="s">
+        <v>107</v>
+      </c>
+      <c r="D73">
+        <v>500000</v>
+      </c>
+      <c r="E73">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F73">
+        <v>50</v>
+      </c>
+      <c r="G73">
+        <v>10</v>
+      </c>
+      <c r="H73">
+        <v>10</v>
+      </c>
+      <c r="I73">
+        <v>9</v>
+      </c>
+      <c r="J73" t="s">
         <v>180</v>
-      </c>
-      <c r="L71" s="2">
-        <v>44377</v>
-      </c>
-      <c r="M71" t="s">
-        <v>200</v>
-      </c>
-      <c r="O71" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15">
-      <c r="A72" s="1">
-        <v>70</v>
-      </c>
-      <c r="C72" t="s">
-        <v>103</v>
-      </c>
-      <c r="D72">
-        <v>659340</v>
-      </c>
-      <c r="J72" t="s">
-        <v>170</v>
-      </c>
-      <c r="O72" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15">
-      <c r="A73" s="1">
-        <v>71</v>
-      </c>
-      <c r="B73" t="s">
-        <v>28</v>
-      </c>
-      <c r="C73" t="s">
-        <v>104</v>
-      </c>
-      <c r="D73">
-        <v>300000</v>
-      </c>
-      <c r="E73">
-        <v>10</v>
-      </c>
-      <c r="F73">
-        <v>30</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
       </c>
       <c r="N73" t="s">
         <v>214</v>
       </c>
       <c r="O73" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15">
+        <v>285</v>
+      </c>
+      <c r="P73" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
       <c r="A74" s="1">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C74" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D74">
-        <v>150000</v>
+        <v>600000</v>
       </c>
       <c r="E74">
-        <v>3.333333333333333</v>
+        <v>20</v>
+      </c>
+      <c r="F74">
+        <v>60</v>
       </c>
       <c r="G74">
-        <v>8</v>
-      </c>
-      <c r="H74">
-        <v>8</v>
-      </c>
-      <c r="I74">
-        <v>8</v>
-      </c>
-      <c r="J74" t="s">
+        <v>0</v>
+      </c>
+      <c r="N74" t="s">
+        <v>211</v>
+      </c>
+      <c r="O74" t="s">
+        <v>286</v>
+      </c>
+      <c r="P74" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="A75" s="1">
+        <v>76</v>
+      </c>
+      <c r="B75" t="s">
+        <v>32</v>
+      </c>
+      <c r="C75" t="s">
+        <v>109</v>
+      </c>
+      <c r="D75">
+        <v>100000</v>
+      </c>
+      <c r="E75">
+        <v>2.222222222222222</v>
+      </c>
+      <c r="F75">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="G75">
+        <v>4</v>
+      </c>
+      <c r="H75">
+        <v>4</v>
+      </c>
+      <c r="I75">
+        <v>4</v>
+      </c>
+      <c r="J75" t="s">
         <v>181</v>
       </c>
-      <c r="K74" s="2">
-        <v>44384</v>
-      </c>
-      <c r="L74" s="2">
-        <v>44495</v>
-      </c>
-      <c r="M74" t="s">
-        <v>196</v>
-      </c>
-      <c r="O74" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15">
-      <c r="A75" s="1">
-        <v>73</v>
-      </c>
-      <c r="C75" t="s">
-        <v>106</v>
-      </c>
-      <c r="D75">
+      <c r="K75" s="2">
+        <v>44389</v>
+      </c>
+      <c r="L75" s="2">
+        <v>44405</v>
+      </c>
+      <c r="M75" t="s">
+        <v>192</v>
+      </c>
+      <c r="O75" t="s">
+        <v>287</v>
+      </c>
+      <c r="P75" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="A76" s="1">
+        <v>77</v>
+      </c>
+      <c r="B76" t="s">
+        <v>33</v>
+      </c>
+      <c r="C76" t="s">
+        <v>110</v>
+      </c>
+      <c r="D76">
         <v>300000</v>
-      </c>
-      <c r="E75">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="F75">
-        <v>20</v>
-      </c>
-      <c r="G75">
-        <v>10</v>
-      </c>
-      <c r="H75">
-        <v>10</v>
-      </c>
-      <c r="I75">
-        <v>10</v>
-      </c>
-      <c r="J75" t="s">
-        <v>182</v>
-      </c>
-      <c r="K75" s="2">
-        <v>44418</v>
-      </c>
-      <c r="L75" s="2">
-        <v>44552</v>
-      </c>
-      <c r="O75" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
-        <v>30</v>
-      </c>
-      <c r="C76" t="s">
-        <v>107</v>
-      </c>
-      <c r="D76">
-        <v>500000</v>
-      </c>
-      <c r="E76">
-        <v>16.66666666666667</v>
-      </c>
-      <c r="F76">
-        <v>50</v>
       </c>
       <c r="G76">
         <v>10</v>
@@ -3605,104 +4013,125 @@
         <v>10</v>
       </c>
       <c r="I76">
+        <v>10</v>
+      </c>
+      <c r="J76" t="s">
+        <v>182</v>
+      </c>
+      <c r="K76" s="2">
+        <v>44469</v>
+      </c>
+      <c r="L76" s="2">
+        <v>44517</v>
+      </c>
+      <c r="O76" t="s">
+        <v>288</v>
+      </c>
+      <c r="P76" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="A77" s="1">
+        <v>78</v>
+      </c>
+      <c r="B77" t="s">
+        <v>34</v>
+      </c>
+      <c r="C77" t="s">
+        <v>111</v>
+      </c>
+      <c r="D77">
+        <v>300000</v>
+      </c>
+      <c r="E77">
+        <v>10</v>
+      </c>
+      <c r="F77">
+        <v>30</v>
+      </c>
+      <c r="G77">
         <v>9</v>
       </c>
-      <c r="J76" t="s">
+      <c r="H77">
+        <v>9</v>
+      </c>
+      <c r="I77">
+        <v>3</v>
+      </c>
+      <c r="J77" t="s">
         <v>183</v>
       </c>
-      <c r="N76" t="s">
-        <v>218</v>
-      </c>
-      <c r="O76" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>31</v>
-      </c>
-      <c r="C77" t="s">
-        <v>108</v>
-      </c>
-      <c r="D77">
+      <c r="K77" s="2">
+        <v>44497</v>
+      </c>
+      <c r="N77" t="s">
+        <v>215</v>
+      </c>
+      <c r="O77" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="A78" s="1">
+        <v>79</v>
+      </c>
+      <c r="B78" t="s">
+        <v>35</v>
+      </c>
+      <c r="C78" t="s">
+        <v>112</v>
+      </c>
+      <c r="D78">
         <v>600000</v>
       </c>
-      <c r="E77">
-        <v>20</v>
-      </c>
-      <c r="F77">
-        <v>60</v>
-      </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
-      <c r="N77" t="s">
-        <v>214</v>
-      </c>
-      <c r="O77" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
-      <c r="B78" t="s">
-        <v>32</v>
-      </c>
-      <c r="C78" t="s">
-        <v>109</v>
-      </c>
-      <c r="D78">
-        <v>100000</v>
-      </c>
       <c r="E78">
-        <v>2.222222222222222</v>
-      </c>
-      <c r="F78">
-        <v>6.666666666666667</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="G78">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="H78">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="I78">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="J78" t="s">
         <v>184</v>
       </c>
       <c r="K78" s="2">
-        <v>44389</v>
+        <v>44421</v>
       </c>
       <c r="L78" s="2">
-        <v>44405</v>
-      </c>
-      <c r="M78" t="s">
-        <v>195</v>
+        <v>44453</v>
       </c>
       <c r="O78" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15">
+        <v>290</v>
+      </c>
+      <c r="P78" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
       <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D79">
         <v>300000</v>
       </c>
+      <c r="E79">
+        <v>6.666666666666667</v>
+      </c>
       <c r="G79">
         <v>10</v>
       </c>
@@ -3716,426 +4145,189 @@
         <v>185</v>
       </c>
       <c r="K79" s="2">
-        <v>44469</v>
+        <v>44421</v>
       </c>
       <c r="L79" s="2">
-        <v>44517</v>
+        <v>44503</v>
       </c>
       <c r="O79" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15">
+        <v>291</v>
+      </c>
+      <c r="P79" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
       <c r="A80" s="1">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C80" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D80">
-        <v>300000</v>
+        <v>606996</v>
       </c>
       <c r="E80">
-        <v>10</v>
+        <v>20.2332</v>
       </c>
       <c r="F80">
-        <v>30</v>
+        <v>60.6996</v>
       </c>
       <c r="G80">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="H80">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="I80">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="J80" t="s">
         <v>186</v>
       </c>
       <c r="K80" s="2">
-        <v>44497</v>
-      </c>
-      <c r="N80" t="s">
-        <v>219</v>
+        <v>44496</v>
       </c>
       <c r="O80" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15">
+        <v>292</v>
+      </c>
+      <c r="P80" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
       <c r="A81" s="1">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C81" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D81">
-        <v>600000</v>
+        <v>417600</v>
       </c>
       <c r="E81">
-        <v>13.33333333333333</v>
+        <v>13.92</v>
+      </c>
+      <c r="F81">
+        <v>41.76</v>
       </c>
       <c r="G81">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H81">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I81">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J81" t="s">
         <v>187</v>
       </c>
       <c r="K81" s="2">
-        <v>44421</v>
+        <v>44457</v>
       </c>
       <c r="L81" s="2">
-        <v>44453</v>
+        <v>44491</v>
       </c>
       <c r="O81" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15">
+        <v>293</v>
+      </c>
+      <c r="P81" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17">
       <c r="A82" s="1">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D82">
-        <v>300000</v>
+        <v>500000</v>
       </c>
       <c r="E82">
-        <v>6.666666666666667</v>
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F82">
+        <v>50</v>
       </c>
       <c r="G82">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H82">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I82">
-        <v>10</v>
-      </c>
-      <c r="J82" t="s">
-        <v>188</v>
+        <v>4</v>
       </c>
       <c r="K82" s="2">
-        <v>44421</v>
+        <v>44459</v>
       </c>
       <c r="L82" s="2">
-        <v>44503</v>
+        <v>44468</v>
+      </c>
+      <c r="N82" t="s">
+        <v>216</v>
       </c>
       <c r="O82" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15">
+        <v>294</v>
+      </c>
+      <c r="P82" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
       <c r="A83" s="1">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C83" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D83">
-        <v>606996</v>
+        <v>450000</v>
       </c>
       <c r="E83">
-        <v>20.2332</v>
+        <v>15</v>
       </c>
       <c r="F83">
-        <v>60.6996</v>
+        <v>45</v>
       </c>
       <c r="G83">
-        <v>36</v>
-      </c>
-      <c r="H83">
-        <v>36</v>
-      </c>
-      <c r="I83">
-        <v>25</v>
-      </c>
-      <c r="J83" t="s">
-        <v>189</v>
-      </c>
-      <c r="K83" s="2">
-        <v>44496</v>
+        <v>0</v>
+      </c>
+      <c r="N83" t="s">
+        <v>211</v>
       </c>
       <c r="O83" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
-      <c r="B84" t="s">
-        <v>36</v>
-      </c>
-      <c r="C84" t="s">
-        <v>115</v>
-      </c>
-      <c r="D84">
-        <v>417600</v>
-      </c>
-      <c r="E84">
-        <v>13.92</v>
-      </c>
-      <c r="F84">
-        <v>41.76</v>
-      </c>
-      <c r="G84">
-        <v>25</v>
-      </c>
-      <c r="H84">
-        <v>25</v>
-      </c>
-      <c r="I84">
-        <v>21</v>
-      </c>
-      <c r="J84" t="s">
-        <v>190</v>
-      </c>
-      <c r="K84" s="2">
-        <v>44457</v>
-      </c>
-      <c r="L84" s="2">
-        <v>44491</v>
-      </c>
-      <c r="O84" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="C85" t="s">
-        <v>116</v>
-      </c>
-      <c r="D85">
-        <v>500000</v>
-      </c>
-      <c r="E85">
-        <v>16.66666666666667</v>
-      </c>
-      <c r="F85">
-        <v>50</v>
-      </c>
-      <c r="G85">
-        <v>4</v>
-      </c>
-      <c r="H85">
-        <v>4</v>
-      </c>
-      <c r="I85">
-        <v>4</v>
-      </c>
-      <c r="K85" s="2">
-        <v>44459</v>
-      </c>
-      <c r="L85" s="2">
-        <v>44468</v>
-      </c>
-      <c r="N85" t="s">
-        <v>220</v>
-      </c>
-      <c r="O85" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15">
-      <c r="A86" s="1">
-        <v>84</v>
-      </c>
-      <c r="G86">
-        <v>5</v>
-      </c>
-      <c r="H86">
-        <v>5</v>
-      </c>
-      <c r="I86">
-        <v>3</v>
-      </c>
-      <c r="K86" s="2">
-        <v>44539</v>
-      </c>
-      <c r="O86" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15">
-      <c r="A87" s="1">
-        <v>85</v>
-      </c>
-      <c r="B87" t="s">
-        <v>37</v>
-      </c>
-      <c r="C87" t="s">
-        <v>117</v>
-      </c>
-      <c r="D87">
-        <v>450000</v>
-      </c>
-      <c r="E87">
-        <v>15</v>
-      </c>
-      <c r="F87">
-        <v>45</v>
-      </c>
-      <c r="G87">
-        <v>0</v>
-      </c>
-      <c r="N87" t="s">
-        <v>214</v>
-      </c>
-      <c r="O87" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15">
-      <c r="A88" s="1">
-        <v>86</v>
-      </c>
-      <c r="C88" t="s">
-        <v>118</v>
-      </c>
-      <c r="E88">
-        <v>1414.079011111111</v>
-      </c>
-      <c r="F88">
-        <v>1532.637732856169</v>
-      </c>
-      <c r="G88">
-        <v>1733</v>
-      </c>
-      <c r="H88">
-        <v>1645</v>
-      </c>
-      <c r="I88">
-        <v>1272</v>
-      </c>
-      <c r="O88" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15">
-      <c r="A89" s="1">
-        <v>87</v>
-      </c>
-      <c r="O89" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15">
-      <c r="A90" s="1">
-        <v>88</v>
-      </c>
-      <c r="F90" t="s">
-        <v>39</v>
-      </c>
-      <c r="H90">
-        <v>0</v>
-      </c>
-      <c r="O90" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15">
-      <c r="A91" s="1">
-        <v>89</v>
-      </c>
-      <c r="F91" t="s">
-        <v>119</v>
-      </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
-      <c r="O91" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15">
-      <c r="A92" s="1">
-        <v>90</v>
-      </c>
-      <c r="O92" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15">
-      <c r="A93" s="1">
-        <v>91</v>
-      </c>
-      <c r="O93" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15">
-      <c r="A94" s="1">
-        <v>92</v>
-      </c>
-      <c r="O94" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15">
-      <c r="A95" s="1">
-        <v>93</v>
-      </c>
-      <c r="E95">
-        <v>1311.7784</v>
-      </c>
-      <c r="F95">
-        <v>392</v>
-      </c>
-      <c r="O95" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15">
-      <c r="A96" s="1">
-        <v>94</v>
-      </c>
-      <c r="E96">
-        <v>1967667.6</v>
-      </c>
-      <c r="F96">
-        <v>274400</v>
-      </c>
-      <c r="O96" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15">
-      <c r="A97" s="1">
-        <v>95</v>
-      </c>
-      <c r="O97" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15">
-      <c r="A98" s="1">
-        <v>96</v>
-      </c>
-      <c r="E98">
-        <v>2717667.6</v>
-      </c>
-      <c r="O98" t="s">
-        <v>222</v>
+        <v>295</v>
+      </c>
+      <c r="P83" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>356</v>
       </c>
     </row>
   </sheetData>

--- a/PowerBI_Dataset/xlsx/df_em.xlsx
+++ b/PowerBI_Dataset/xlsx/df_em.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="360">
   <si>
     <t>processo</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>prop_pk2</t>
+  </si>
+  <si>
+    <t>bancada</t>
+  </si>
+  <si>
+    <t>individual</t>
   </si>
   <si>
     <t>53115.015934/2021-58</t>
@@ -916,7 +922,7 @@
     <t>JOSIVALDO JP</t>
   </si>
   <si>
-    <t>CABO JUNIO AMARAL  INDIVIDUAL</t>
+    <t>CABO JUNIO AMARAL</t>
   </si>
   <si>
     <t>JUNIOR LOURENCO</t>
@@ -931,9 +937,6 @@
     <t>LUCIANO BIVAR</t>
   </si>
   <si>
-    <t>LUIS TIBE  INDIVIDUAL</t>
-  </si>
-  <si>
     <t>MARA ROCHA</t>
   </si>
   <si>
@@ -1012,6 +1015,9 @@
     <t>JOSIVALDO DOS SANTOS MELO</t>
   </si>
   <si>
+    <t>GERALDO JUNIO DO AMARAL</t>
+  </si>
+  <si>
     <t>JOSE LOURENCO BOMFIM JUNIOR</t>
   </si>
   <si>
@@ -1103,6 +1109,9 @@
   </si>
   <si>
     <t>DEP. JOSIVALDO DOS SANTOS MELO</t>
+  </si>
+  <si>
+    <t>DEP. GERALDO JUNIO DO AMARAL</t>
   </si>
   <si>
     <t>DEP. JOSE LOURENCO BOMFIM JUNIOR</t>
@@ -1494,13 +1503,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q83"/>
+  <dimension ref="A1:S83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1549,16 +1558,22 @@
       <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D2">
         <v>11200212</v>
@@ -1576,33 +1591,36 @@
         <v>223</v>
       </c>
       <c r="J2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K2" s="2">
         <v>44425</v>
       </c>
       <c r="L2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>219</v>
+      </c>
+      <c r="S2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D3">
         <v>18816356</v>
@@ -1611,24 +1629,27 @@
         <v>627.2118666666667</v>
       </c>
       <c r="J3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>220</v>
+      </c>
+      <c r="S3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G4">
         <v>11</v>
@@ -1640,7 +1661,7 @@
         <v>11</v>
       </c>
       <c r="J4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K4" s="2">
         <v>44384</v>
@@ -1649,18 +1670,21 @@
         <v>44511</v>
       </c>
       <c r="M4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>221</v>
+      </c>
+      <c r="S4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G5">
         <v>6</v>
@@ -1672,24 +1696,27 @@
         <v>5</v>
       </c>
       <c r="J5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K5" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="N5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>222</v>
+      </c>
+      <c r="S5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G6">
         <v>11</v>
@@ -1701,7 +1728,7 @@
         <v>11</v>
       </c>
       <c r="J6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K6" s="2">
         <v>44383</v>
@@ -1710,18 +1737,21 @@
         <v>44386</v>
       </c>
       <c r="M6" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O6" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>223</v>
+      </c>
+      <c r="S6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G7">
         <v>11</v>
@@ -1733,7 +1763,7 @@
         <v>11</v>
       </c>
       <c r="J7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K7" s="2">
         <v>44424</v>
@@ -1742,18 +1772,21 @@
         <v>44468</v>
       </c>
       <c r="M7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>224</v>
+      </c>
+      <c r="S7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G8">
         <v>11</v>
@@ -1765,7 +1798,7 @@
         <v>11</v>
       </c>
       <c r="J8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K8" s="2">
         <v>44384</v>
@@ -1774,24 +1807,27 @@
         <v>44482</v>
       </c>
       <c r="M8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O8" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P8" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q8" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>326</v>
+      </c>
+      <c r="S8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G9">
         <v>11</v>
@@ -1803,27 +1839,30 @@
         <v>9</v>
       </c>
       <c r="J9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K9" s="2">
         <v>44389</v>
       </c>
       <c r="M9" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N9" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="O9" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>226</v>
+      </c>
+      <c r="S9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G10">
         <v>11</v>
@@ -1835,7 +1874,7 @@
         <v>11</v>
       </c>
       <c r="J10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K10" s="2">
         <v>44391</v>
@@ -1844,18 +1883,21 @@
         <v>44425</v>
       </c>
       <c r="M10" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O10" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>227</v>
+      </c>
+      <c r="S10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G11">
         <v>11</v>
@@ -1867,7 +1909,7 @@
         <v>11</v>
       </c>
       <c r="J11" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K11" s="2">
         <v>44389</v>
@@ -1876,18 +1918,21 @@
         <v>44391</v>
       </c>
       <c r="M11" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O11" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>228</v>
+      </c>
+      <c r="S11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G12">
         <v>11</v>
@@ -1899,7 +1944,7 @@
         <v>11</v>
       </c>
       <c r="J12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K12" s="2">
         <v>44391</v>
@@ -1908,18 +1953,21 @@
         <v>44404</v>
       </c>
       <c r="M12" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O12" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>229</v>
+      </c>
+      <c r="S12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G13">
         <v>11</v>
@@ -1931,7 +1979,7 @@
         <v>11</v>
       </c>
       <c r="J13" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K13" s="2">
         <v>44392</v>
@@ -1940,18 +1988,21 @@
         <v>44505</v>
       </c>
       <c r="M13" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O13" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>230</v>
+      </c>
+      <c r="S13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G14">
         <v>11</v>
@@ -1963,7 +2014,7 @@
         <v>11</v>
       </c>
       <c r="J14" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K14" s="2">
         <v>44389</v>
@@ -1972,18 +2023,21 @@
         <v>44419</v>
       </c>
       <c r="M14" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="O14" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>231</v>
+      </c>
+      <c r="S14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G15">
         <v>11</v>
@@ -1995,7 +2049,7 @@
         <v>11</v>
       </c>
       <c r="J15" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K15" s="2">
         <v>44390</v>
@@ -2004,18 +2058,21 @@
         <v>44406</v>
       </c>
       <c r="M15" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O15" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>232</v>
+      </c>
+      <c r="S15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G16">
         <v>11</v>
@@ -2027,7 +2084,7 @@
         <v>11</v>
       </c>
       <c r="J16" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K16" s="2">
         <v>44389</v>
@@ -2036,18 +2093,21 @@
         <v>44477</v>
       </c>
       <c r="M16" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O16" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>233</v>
+      </c>
+      <c r="S16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G17">
         <v>11</v>
@@ -2059,7 +2119,7 @@
         <v>11</v>
       </c>
       <c r="J17" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K17" s="2">
         <v>44391</v>
@@ -2068,21 +2128,24 @@
         <v>44399</v>
       </c>
       <c r="M17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O17" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>234</v>
+      </c>
+      <c r="S17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G18">
         <v>11</v>
@@ -2094,7 +2157,7 @@
         <v>11</v>
       </c>
       <c r="J18" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K18" s="2">
         <v>44386</v>
@@ -2103,18 +2166,21 @@
         <v>44456</v>
       </c>
       <c r="M18" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O18" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>235</v>
+      </c>
+      <c r="S18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G19">
         <v>11</v>
@@ -2126,7 +2192,7 @@
         <v>11</v>
       </c>
       <c r="J19" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K19" s="2">
         <v>44389</v>
@@ -2135,18 +2201,21 @@
         <v>44392</v>
       </c>
       <c r="M19" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="O19" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>236</v>
+      </c>
+      <c r="S19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G20">
         <v>11</v>
@@ -2158,7 +2227,7 @@
         <v>11</v>
       </c>
       <c r="J20" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K20" s="2">
         <v>44414</v>
@@ -2167,15 +2236,18 @@
         <v>44440</v>
       </c>
       <c r="O20" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>237</v>
+      </c>
+      <c r="S20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G21">
         <v>11</v>
@@ -2187,30 +2259,33 @@
         <v>5</v>
       </c>
       <c r="J21" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K21" s="2">
         <v>44418</v>
       </c>
       <c r="N21" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="O21" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P21" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q21" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>327</v>
+      </c>
+      <c r="S21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G22">
         <v>11</v>
@@ -2222,7 +2297,7 @@
         <v>11</v>
       </c>
       <c r="J22" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K22" s="2">
         <v>44424</v>
@@ -2231,15 +2306,18 @@
         <v>44435</v>
       </c>
       <c r="O22" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>239</v>
+      </c>
+      <c r="S22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G23">
         <v>11</v>
@@ -2251,7 +2329,7 @@
         <v>11</v>
       </c>
       <c r="J23" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K23" s="2">
         <v>44428</v>
@@ -2260,15 +2338,18 @@
         <v>44551</v>
       </c>
       <c r="O23" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>240</v>
+      </c>
+      <c r="S23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G24">
         <v>10</v>
@@ -2280,7 +2361,7 @@
         <v>10</v>
       </c>
       <c r="J24" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K24" s="2">
         <v>44431</v>
@@ -2289,15 +2370,18 @@
         <v>44470</v>
       </c>
       <c r="O24" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>241</v>
+      </c>
+      <c r="S24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G25">
         <v>11</v>
@@ -2309,24 +2393,27 @@
         <v>9</v>
       </c>
       <c r="J25" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K25" s="2">
         <v>44438</v>
       </c>
       <c r="N25" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="O25" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
+        <v>242</v>
+      </c>
+      <c r="S25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" s="1">
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G26">
         <v>11</v>
@@ -2338,24 +2425,27 @@
         <v>10</v>
       </c>
       <c r="J26" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K26" s="2">
         <v>44439</v>
       </c>
       <c r="N26" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O26" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
+        <v>243</v>
+      </c>
+      <c r="S26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27" s="1">
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G27">
         <v>11</v>
@@ -2367,7 +2457,7 @@
         <v>11</v>
       </c>
       <c r="J27" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K27" s="2">
         <v>44439</v>
@@ -2376,21 +2466,24 @@
         <v>44453</v>
       </c>
       <c r="O27" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P27" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q27" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+        <v>328</v>
+      </c>
+      <c r="S27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" s="1">
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G28">
         <v>11</v>
@@ -2402,7 +2495,7 @@
         <v>11</v>
       </c>
       <c r="J28" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K28" s="2">
         <v>44453</v>
@@ -2411,21 +2504,24 @@
         <v>44466</v>
       </c>
       <c r="O28" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P28" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q28" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+        <v>329</v>
+      </c>
+      <c r="S28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" s="1">
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G29">
         <v>11</v>
@@ -2437,21 +2533,24 @@
         <v>11</v>
       </c>
       <c r="J29" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K29" s="2">
         <v>44459</v>
       </c>
       <c r="O29" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+        <v>246</v>
+      </c>
+      <c r="S29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30" s="1">
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G30">
         <v>11</v>
@@ -2463,24 +2562,27 @@
         <v>7</v>
       </c>
       <c r="J30" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K30" s="2">
         <v>44469</v>
       </c>
       <c r="N30" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O30" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
+        <v>247</v>
+      </c>
+      <c r="S30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31" s="1">
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G31">
         <v>10</v>
@@ -2492,24 +2594,27 @@
         <v>7</v>
       </c>
       <c r="J31" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K31" s="2">
         <v>44474</v>
       </c>
       <c r="N31" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O31" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
+        <v>248</v>
+      </c>
+      <c r="S31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" s="1">
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G32">
         <v>11</v>
@@ -2521,7 +2626,7 @@
         <v>11</v>
       </c>
       <c r="J32" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K32" s="2">
         <v>44483</v>
@@ -2530,21 +2635,24 @@
         <v>44519</v>
       </c>
       <c r="O32" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P32" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q32" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
+        <v>330</v>
+      </c>
+      <c r="S32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33" s="1">
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G33">
         <v>11</v>
@@ -2556,21 +2664,24 @@
         <v>11</v>
       </c>
       <c r="J33" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K33" s="2">
         <v>44483</v>
       </c>
       <c r="O33" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
+        <v>250</v>
+      </c>
+      <c r="S33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34" s="1">
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G34">
         <v>11</v>
@@ -2582,24 +2693,27 @@
         <v>6</v>
       </c>
       <c r="J34" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K34" s="2">
         <v>44483</v>
       </c>
       <c r="N34" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="O34" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
+        <v>251</v>
+      </c>
+      <c r="S34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35" s="1">
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G35">
         <v>11</v>
@@ -2611,24 +2725,27 @@
         <v>4</v>
       </c>
       <c r="J35" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K35" s="2">
         <v>44483</v>
       </c>
       <c r="N35" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="O35" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
+        <v>252</v>
+      </c>
+      <c r="S35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
       <c r="A36" s="1">
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G36">
         <v>11</v>
@@ -2640,24 +2757,27 @@
         <v>9</v>
       </c>
       <c r="J36" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K36" s="2">
         <v>44484</v>
       </c>
       <c r="N36" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="O36" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
+        <v>253</v>
+      </c>
+      <c r="S36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
       <c r="A37" s="1">
         <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G37">
         <v>11</v>
@@ -2669,7 +2789,7 @@
         <v>11</v>
       </c>
       <c r="J37" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K37" s="2">
         <v>44491</v>
@@ -2678,15 +2798,18 @@
         <v>44546</v>
       </c>
       <c r="O37" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
+        <v>254</v>
+      </c>
+      <c r="S37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
       <c r="A38" s="1">
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G38">
         <v>11</v>
@@ -2698,24 +2821,27 @@
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K38" s="2">
         <v>44494</v>
       </c>
       <c r="N38" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O38" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
+        <v>255</v>
+      </c>
+      <c r="S38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
       <c r="A39" s="1">
         <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G39">
         <v>10</v>
@@ -2727,24 +2853,27 @@
         <v>9</v>
       </c>
       <c r="J39" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K39" s="2">
         <v>44504</v>
       </c>
       <c r="N39" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O39" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
+        <v>256</v>
+      </c>
+      <c r="S39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
       <c r="A40" s="1">
         <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G40">
         <v>11</v>
@@ -2756,24 +2885,27 @@
         <v>10</v>
       </c>
       <c r="J40" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K40" s="2">
         <v>44543</v>
       </c>
       <c r="N40" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O40" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
+        <v>257</v>
+      </c>
+      <c r="S40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
       <c r="A41" s="1">
         <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G41">
         <v>11</v>
@@ -2785,21 +2917,24 @@
         <v>3</v>
       </c>
       <c r="J41" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K41" s="2">
         <v>44539</v>
       </c>
       <c r="O41" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
+        <v>258</v>
+      </c>
+      <c r="S41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
       <c r="A42" s="1">
         <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G42">
         <v>11</v>
@@ -2811,21 +2946,24 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N42" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="O42" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
+        <v>259</v>
+      </c>
+      <c r="S42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
       <c r="A43" s="1">
         <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D43">
         <v>2240042</v>
@@ -2843,30 +2981,33 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="N43" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="O43" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="P43" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q43" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
+        <v>260</v>
+      </c>
+      <c r="S43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
       <c r="A44" s="1">
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C44" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D44">
         <v>8120154</v>
@@ -2878,21 +3019,24 @@
         <v>541.3436</v>
       </c>
       <c r="O44" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="P44" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q44" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
+        <v>261</v>
+      </c>
+      <c r="S44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
       <c r="A45" s="1">
         <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G45">
         <v>54</v>
@@ -2904,27 +3048,30 @@
         <v>50</v>
       </c>
       <c r="J45" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K45" s="2">
         <v>44469</v>
       </c>
       <c r="O45" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="P45" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q45" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
+        <v>331</v>
+      </c>
+      <c r="S45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
       <c r="A46" s="1">
         <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G46">
         <v>56</v>
@@ -2936,21 +3083,24 @@
         <v>30</v>
       </c>
       <c r="J46" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K46" s="2">
         <v>44469</v>
       </c>
       <c r="O46" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
+        <v>263</v>
+      </c>
+      <c r="S46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
       <c r="A47" s="1">
         <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G47">
         <v>19</v>
@@ -2962,21 +3112,24 @@
         <v>6</v>
       </c>
       <c r="J47" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K47" s="2">
         <v>44537</v>
       </c>
       <c r="O47" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
+        <v>263</v>
+      </c>
+      <c r="S47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
       <c r="A48" s="1">
         <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G48">
         <v>28</v>
@@ -2988,24 +3141,27 @@
         <v>24</v>
       </c>
       <c r="J48" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K48" s="2">
         <v>44414</v>
       </c>
       <c r="N48" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O48" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17">
+        <v>264</v>
+      </c>
+      <c r="S48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19">
       <c r="A49" s="1">
         <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G49">
         <v>169</v>
@@ -3017,27 +3173,30 @@
         <v>126</v>
       </c>
       <c r="J49" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K49" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="O49" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P49" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q49" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17">
+        <v>332</v>
+      </c>
+      <c r="S49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
       <c r="A50" s="1">
         <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G50">
         <v>117</v>
@@ -3049,27 +3208,30 @@
         <v>82</v>
       </c>
       <c r="J50" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K50" s="2">
         <v>44488</v>
       </c>
       <c r="O50" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P50" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q50" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17">
+        <v>332</v>
+      </c>
+      <c r="S50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19">
       <c r="A51" s="1">
         <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G51">
         <v>66</v>
@@ -3084,35 +3246,41 @@
         <v>44475</v>
       </c>
       <c r="O51" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17">
+        <v>266</v>
+      </c>
+      <c r="S51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19">
       <c r="A52" s="1">
         <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D52">
         <v>750000</v>
       </c>
       <c r="O52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q52" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17">
+        <v>267</v>
+      </c>
+      <c r="S52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19">
       <c r="A53" s="1">
         <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G53">
         <v>20</v>
@@ -3124,24 +3292,27 @@
         <v>9</v>
       </c>
       <c r="J53" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K53" s="2">
         <v>44494</v>
       </c>
       <c r="N53" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="O53" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17">
+        <v>268</v>
+      </c>
+      <c r="S53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19">
       <c r="A54" s="1">
         <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D54">
         <v>1817820</v>
@@ -3162,102 +3333,114 @@
         <v>14</v>
       </c>
       <c r="J54" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K54" s="2">
         <v>44410</v>
       </c>
       <c r="M54" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O54" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="P54" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q54" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17">
+        <v>269</v>
+      </c>
+      <c r="S54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19">
       <c r="A55" s="1">
         <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="N55" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="O55" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="P55" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q55" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17">
+        <v>333</v>
+      </c>
+      <c r="S55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19">
       <c r="A56" s="1">
         <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D56">
         <v>215340</v>
       </c>
       <c r="J56" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O56" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="P56" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q56" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17">
+        <v>334</v>
+      </c>
+      <c r="S56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19">
       <c r="A57" s="1">
         <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D57">
         <v>1050000</v>
       </c>
       <c r="J57" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O57" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="P57" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q57" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17">
+        <v>335</v>
+      </c>
+      <c r="S57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19">
       <c r="A58" s="1">
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C58" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D58">
         <v>200000</v>
@@ -3278,7 +3461,7 @@
         <v>10</v>
       </c>
       <c r="J58" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K58" s="2">
         <v>44412</v>
@@ -3287,27 +3470,30 @@
         <v>44475</v>
       </c>
       <c r="M58" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="O58" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="P58" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q58" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17">
+        <v>336</v>
+      </c>
+      <c r="S58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19">
       <c r="A59" s="1">
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C59" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D59">
         <v>300000</v>
@@ -3328,7 +3514,7 @@
         <v>10</v>
       </c>
       <c r="J59" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K59" s="2">
         <v>44483</v>
@@ -3337,24 +3523,27 @@
         <v>44519</v>
       </c>
       <c r="O59" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P59" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q59" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17">
+        <v>330</v>
+      </c>
+      <c r="S59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19">
       <c r="A60" s="1">
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C60" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D60">
         <v>300000</v>
@@ -3372,30 +3561,33 @@
         <v>12</v>
       </c>
       <c r="J60" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K60" s="2">
         <v>44382</v>
       </c>
       <c r="M60" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O60" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P60" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q60" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17">
+        <v>337</v>
+      </c>
+      <c r="S60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19">
       <c r="A61" s="1">
         <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D61">
         <v>400000</v>
@@ -3413,30 +3605,33 @@
         <v>8</v>
       </c>
       <c r="J61" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K61" s="2">
         <v>44519</v>
       </c>
       <c r="N61" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="O61" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="P61" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q61" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17">
+        <v>338</v>
+      </c>
+      <c r="S61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19">
       <c r="A62" s="1">
         <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D62">
         <v>339993</v>
@@ -3457,33 +3652,36 @@
         <v>3</v>
       </c>
       <c r="J62" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K62" s="2">
         <v>44483</v>
       </c>
       <c r="N62" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O62" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="P62" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q62" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17">
+        <v>339</v>
+      </c>
+      <c r="S62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19">
       <c r="A63" s="1">
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C63" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D63">
         <v>150000</v>
@@ -3501,7 +3699,7 @@
         <v>5</v>
       </c>
       <c r="J63" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K63" s="2">
         <v>44382</v>
@@ -3510,27 +3708,30 @@
         <v>44382</v>
       </c>
       <c r="M63" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O63" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="P63" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q63" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17">
+        <v>340</v>
+      </c>
+      <c r="S63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19">
       <c r="A64" s="1">
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C64" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D64">
         <v>1500000</v>
@@ -3551,30 +3752,33 @@
         <v>21</v>
       </c>
       <c r="J64" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="N64" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="O64" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P64" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q64" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17">
+        <v>341</v>
+      </c>
+      <c r="S64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19">
       <c r="A65" s="1">
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C65" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D65">
         <v>627190</v>
@@ -3592,30 +3796,33 @@
         <v>21</v>
       </c>
       <c r="J65" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K65" s="2">
         <v>44435</v>
       </c>
       <c r="O65" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="P65" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q65" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17">
+        <v>342</v>
+      </c>
+      <c r="S65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19">
       <c r="A66" s="1">
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C66" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D66">
         <v>300000</v>
@@ -3633,59 +3840,65 @@
         <v>8</v>
       </c>
       <c r="J66" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K66" s="2">
         <v>44382</v>
       </c>
       <c r="M66" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N66" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="O66" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="P66" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q66" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17">
+        <v>343</v>
+      </c>
+      <c r="S66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19">
       <c r="A67" s="1">
         <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D67">
         <v>1029986</v>
       </c>
       <c r="J67" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O67" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P67" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q67" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17">
+        <v>344</v>
+      </c>
+      <c r="S67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19">
       <c r="A68" s="1">
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C68" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D68">
         <v>440000</v>
@@ -3703,56 +3916,62 @@
         <v>8</v>
       </c>
       <c r="J68" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L68" s="2">
         <v>44377</v>
       </c>
       <c r="M68" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O68" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="P68" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q68" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17">
+        <v>345</v>
+      </c>
+      <c r="S68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19">
       <c r="A69" s="1">
         <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D69">
         <v>659340</v>
       </c>
       <c r="J69" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O69" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="P69" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q69" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17">
+        <v>346</v>
+      </c>
+      <c r="S69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19">
       <c r="A70" s="1">
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C70" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D70">
         <v>300000</v>
@@ -3767,27 +3986,30 @@
         <v>0</v>
       </c>
       <c r="N70" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="O70" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P70" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q70" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17">
+        <v>347</v>
+      </c>
+      <c r="S70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19">
       <c r="A71" s="1">
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C71" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D71">
         <v>150000</v>
@@ -3805,7 +4027,7 @@
         <v>8</v>
       </c>
       <c r="J71" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K71" s="2">
         <v>44384</v>
@@ -3814,24 +4036,27 @@
         <v>44495</v>
       </c>
       <c r="M71" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O71" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="P71" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q71" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17">
+        <v>348</v>
+      </c>
+      <c r="S71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19">
       <c r="A72" s="1">
         <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D72">
         <v>300000</v>
@@ -3852,7 +4077,7 @@
         <v>10</v>
       </c>
       <c r="J72" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K72" s="2">
         <v>44418</v>
@@ -3861,18 +4086,27 @@
         <v>44552</v>
       </c>
       <c r="O72" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17">
+        <v>286</v>
+      </c>
+      <c r="P72" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>349</v>
+      </c>
+      <c r="S72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19">
       <c r="A73" s="1">
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C73" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D73">
         <v>500000</v>
@@ -3893,30 +4127,33 @@
         <v>9</v>
       </c>
       <c r="J73" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N73" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O73" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="P73" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q73" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17">
+        <v>350</v>
+      </c>
+      <c r="S73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19">
       <c r="A74" s="1">
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C74" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D74">
         <v>600000</v>
@@ -3931,27 +4168,30 @@
         <v>0</v>
       </c>
       <c r="N74" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="O74" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="P74" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q74" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17">
+        <v>351</v>
+      </c>
+      <c r="S74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19">
       <c r="A75" s="1">
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C75" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D75">
         <v>100000</v>
@@ -3972,7 +4212,7 @@
         <v>4</v>
       </c>
       <c r="J75" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K75" s="2">
         <v>44389</v>
@@ -3981,27 +4221,30 @@
         <v>44405</v>
       </c>
       <c r="M75" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O75" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="P75" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q75" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17">
+        <v>352</v>
+      </c>
+      <c r="S75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19">
       <c r="A76" s="1">
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C76" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D76">
         <v>300000</v>
@@ -4016,7 +4259,7 @@
         <v>10</v>
       </c>
       <c r="J76" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K76" s="2">
         <v>44469</v>
@@ -4025,24 +4268,27 @@
         <v>44517</v>
       </c>
       <c r="O76" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="P76" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q76" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17">
+        <v>353</v>
+      </c>
+      <c r="S76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19">
       <c r="A77" s="1">
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C77" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D77">
         <v>300000</v>
@@ -4063,27 +4309,36 @@
         <v>3</v>
       </c>
       <c r="J77" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K77" s="2">
         <v>44497</v>
       </c>
       <c r="N77" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O77" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17">
+        <v>238</v>
+      </c>
+      <c r="P77" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>327</v>
+      </c>
+      <c r="S77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19">
       <c r="A78" s="1">
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C78" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D78">
         <v>600000</v>
@@ -4101,7 +4356,7 @@
         <v>30</v>
       </c>
       <c r="J78" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K78" s="2">
         <v>44421</v>
@@ -4110,21 +4365,24 @@
         <v>44453</v>
       </c>
       <c r="O78" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P78" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q78" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17">
+        <v>354</v>
+      </c>
+      <c r="S78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19">
       <c r="A79" s="1">
         <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D79">
         <v>300000</v>
@@ -4142,7 +4400,7 @@
         <v>10</v>
       </c>
       <c r="J79" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K79" s="2">
         <v>44421</v>
@@ -4151,24 +4409,27 @@
         <v>44503</v>
       </c>
       <c r="O79" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P79" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q79" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17">
+        <v>355</v>
+      </c>
+      <c r="S79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19">
       <c r="A80" s="1">
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C80" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D80">
         <v>606996</v>
@@ -4189,30 +4450,33 @@
         <v>25</v>
       </c>
       <c r="J80" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K80" s="2">
         <v>44496</v>
       </c>
       <c r="O80" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P80" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q80" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17">
+        <v>356</v>
+      </c>
+      <c r="S80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19">
       <c r="A81" s="1">
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C81" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D81">
         <v>417600</v>
@@ -4233,7 +4497,7 @@
         <v>21</v>
       </c>
       <c r="J81" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K81" s="2">
         <v>44457</v>
@@ -4242,21 +4506,24 @@
         <v>44491</v>
       </c>
       <c r="O81" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P81" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q81" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17">
+        <v>357</v>
+      </c>
+      <c r="S81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19">
       <c r="A82" s="1">
         <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D82">
         <v>500000</v>
@@ -4283,27 +4550,30 @@
         <v>44468</v>
       </c>
       <c r="N82" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="O82" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P82" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q82" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17">
+        <v>358</v>
+      </c>
+      <c r="S82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19">
       <c r="A83" s="1">
         <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C83" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D83">
         <v>450000</v>
@@ -4318,16 +4588,19 @@
         <v>0</v>
       </c>
       <c r="N83" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="O83" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P83" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q83" t="s">
-        <v>356</v>
+        <v>359</v>
+      </c>
+      <c r="S83" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/PowerBI_Dataset/xlsx/df_em.xlsx
+++ b/PowerBI_Dataset/xlsx/df_em.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="378">
   <si>
     <t>processo</t>
   </si>
@@ -55,19 +55,13 @@
     <t>pendencia_28/12</t>
   </si>
   <si>
+    <t>prop_pk1</t>
+  </si>
+  <si>
+    <t>prop_pk2</t>
+  </si>
+  <si>
     <t>proponente</t>
-  </si>
-  <si>
-    <t>prop_pk1</t>
-  </si>
-  <si>
-    <t>prop_pk2</t>
-  </si>
-  <si>
-    <t>bancada</t>
-  </si>
-  <si>
-    <t>individual</t>
   </si>
   <si>
     <t>53115.015934/2021-58</t>
@@ -727,6 +721,282 @@
     <t>BANCADA-MG</t>
   </si>
   <si>
+    <t>AUREA CAROLINA DE FREITAS E SILVA</t>
+  </si>
+  <si>
+    <t>ANTONIO ANASTASIA</t>
+  </si>
+  <si>
+    <t>OLAVO BILAC PINTO NETO</t>
+  </si>
+  <si>
+    <t>PATRUS ANANIAS DE SOUZA</t>
+  </si>
+  <si>
+    <t>LUIS HENRIQUE DE OLIVEIRA RESENDE</t>
+  </si>
+  <si>
+    <t>NEWTON CARDOSO JUNIOR</t>
+  </si>
+  <si>
+    <t>CARLOS VIANA</t>
+  </si>
+  <si>
+    <t>RODRIGO PACHECO</t>
+  </si>
+  <si>
+    <t>AECIO NEVES DA CUNHA</t>
+  </si>
+  <si>
+    <t>DIMAS FABIANO TOLEDO JUNIOR</t>
+  </si>
+  <si>
+    <t>STEFANO AGUIAR DOS SANTOS</t>
+  </si>
+  <si>
+    <t>FRANCO CARTAFINA GOMES</t>
+  </si>
+  <si>
+    <t>ROGERIO CORREIA DE MOURA BAPTISTA</t>
+  </si>
+  <si>
+    <t>BANCADA-SP</t>
+  </si>
+  <si>
+    <t>BANCADA-ES</t>
+  </si>
+  <si>
+    <t>NEUCIMAR FERREIRA FRAGA</t>
+  </si>
+  <si>
+    <t>LAURIETE RODRIGUES DE JESUS</t>
+  </si>
+  <si>
+    <t>EVAIR VIEIRA DE MELO</t>
+  </si>
+  <si>
+    <t>JOSIAS MARIO DA VITORIA</t>
+  </si>
+  <si>
+    <t>BANCADA-MA</t>
+  </si>
+  <si>
+    <t>BANCADA-PA</t>
+  </si>
+  <si>
+    <t>ALICE MAZZUCO PORTUGAL</t>
+  </si>
+  <si>
+    <t>CELSO SABINO DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>CONFUCIO AIRES MOURA</t>
+  </si>
+  <si>
+    <t>JOAO CHRISOSTOMO DE MOURA</t>
+  </si>
+  <si>
+    <t>EDNACE ALVES SILVESTRE HENRIQUE</t>
+  </si>
+  <si>
+    <t>ELIAS VAZ DE ANDRADE</t>
+  </si>
+  <si>
+    <t>EXPEDITO GONCALVES FERREIRA NETTO</t>
+  </si>
+  <si>
+    <t>FABIO DE ALMEIDA REIS</t>
+  </si>
+  <si>
+    <t>FLAVIA CAROLINA PERES</t>
+  </si>
+  <si>
+    <t>FLAVIANO FLAVIO BAPTISTA DE MELO</t>
+  </si>
+  <si>
+    <t>ELIESER GIRAO MONTEIRO FILHO</t>
+  </si>
+  <si>
+    <t>JOAO INACIO RIBEIRO ROMA NETO</t>
+  </si>
+  <si>
+    <t>JOENIA BATISTA DE CARVALHO</t>
+  </si>
+  <si>
+    <t>JOSE ANTONIO DOS SANTOS MEDEIROS</t>
+  </si>
+  <si>
+    <t>JOSE NUNES SOARES</t>
+  </si>
+  <si>
+    <t>JOSIVALDO DOS SANTOS MELO</t>
+  </si>
+  <si>
+    <t>GERALDO JUNIO DO AMARAL</t>
+  </si>
+  <si>
+    <t>JOSE LOURENCO BOMFIM JUNIOR</t>
+  </si>
+  <si>
+    <t>LEONARDO CUNHA DE BRITO</t>
+  </si>
+  <si>
+    <t>LEUR ANTONIO DE BRITTO LOMANTO JUNIOR</t>
+  </si>
+  <si>
+    <t>LUCIANO CALDAS BIVAR</t>
+  </si>
+  <si>
+    <t>CYLMARA FERNANDES DA ROCHA GRIPP</t>
+  </si>
+  <si>
+    <t>MARX BELTRAO LIMA SIQUEIRA</t>
+  </si>
+  <si>
+    <t>MARIA PERPETUA DE ALMEIDA</t>
+  </si>
+  <si>
+    <t>SERGIO PETECAO</t>
+  </si>
+  <si>
+    <t>SORAYA THRONICKE</t>
+  </si>
+  <si>
+    <t>ULDURICO ALENCAR PINTO</t>
+  </si>
+  <si>
+    <t>DEP. AUREA CAROLINA DE FREITAS E SILVA</t>
+  </si>
+  <si>
+    <t>SEN. ANTONIO ANASTASIA</t>
+  </si>
+  <si>
+    <t>DEP. OLAVO BILAC PINTO NETO</t>
+  </si>
+  <si>
+    <t>DEP. PATRUS ANANIAS DE SOUZA</t>
+  </si>
+  <si>
+    <t>DEP. LUIS HENRIQUE DE OLIVEIRA RESENDE</t>
+  </si>
+  <si>
+    <t>DEP. NEWTON CARDOSO JUNIOR</t>
+  </si>
+  <si>
+    <t>SEN. CARLOS VIANA</t>
+  </si>
+  <si>
+    <t>SEN. RODRIGO PACHECO</t>
+  </si>
+  <si>
+    <t>DEP. AECIO NEVES DA CUNHA</t>
+  </si>
+  <si>
+    <t>DEP. DIMAS FABIANO TOLEDO JUNIOR</t>
+  </si>
+  <si>
+    <t>DEP. STEFANO AGUIAR DOS SANTOS</t>
+  </si>
+  <si>
+    <t>DEP. FRANCO CARTAFINA GOMES</t>
+  </si>
+  <si>
+    <t>DEP. ROGERIO CORREIA DE MOURA BAPTISTA</t>
+  </si>
+  <si>
+    <t>DEP. NEUCIMAR FERREIRA FRAGA</t>
+  </si>
+  <si>
+    <t>DEP. LAURIETE RODRIGUES DE JESUS</t>
+  </si>
+  <si>
+    <t>DEP. EVAIR VIEIRA DE MELO</t>
+  </si>
+  <si>
+    <t>DEP. JOSIAS MARIO DA VITORIA</t>
+  </si>
+  <si>
+    <t>DEP. ALICE MAZZUCO PORTUGAL</t>
+  </si>
+  <si>
+    <t>DEP. CELSO SABINO DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>SEN. CONFUCIO AIRES MOURA</t>
+  </si>
+  <si>
+    <t>DEP. JOAO CHRISOSTOMO DE MOURA</t>
+  </si>
+  <si>
+    <t>DEP. EDNACE ALVES SILVESTRE HENRIQUE</t>
+  </si>
+  <si>
+    <t>DEP. ELIAS VAZ DE ANDRADE</t>
+  </si>
+  <si>
+    <t>DEP. EXPEDITO GONCALVES FERREIRA NETTO</t>
+  </si>
+  <si>
+    <t>DEP. FABIO DE ALMEIDA REIS</t>
+  </si>
+  <si>
+    <t>DEP. FLAVIA CAROLINA PERES</t>
+  </si>
+  <si>
+    <t>DEP. FLAVIANO FLAVIO BAPTISTA DE MELO</t>
+  </si>
+  <si>
+    <t>DEP. ELIESER GIRAO MONTEIRO FILHO</t>
+  </si>
+  <si>
+    <t>DEP. JOAO INACIO RIBEIRO ROMA NETO</t>
+  </si>
+  <si>
+    <t>DEP. JOENIA BATISTA DE CARVALHO</t>
+  </si>
+  <si>
+    <t>DEP. JOSE ANTONIO DOS SANTOS MEDEIROS</t>
+  </si>
+  <si>
+    <t>DEP. JOSE NUNES SOARES</t>
+  </si>
+  <si>
+    <t>DEP. JOSIVALDO DOS SANTOS MELO</t>
+  </si>
+  <si>
+    <t>DEP. GERALDO JUNIO DO AMARAL</t>
+  </si>
+  <si>
+    <t>DEP. JOSE LOURENCO BOMFIM JUNIOR</t>
+  </si>
+  <si>
+    <t>DEP. LEONARDO CUNHA DE BRITO</t>
+  </si>
+  <si>
+    <t>DEP. LEUR ANTONIO DE BRITTO LOMANTO JUNIOR</t>
+  </si>
+  <si>
+    <t>DEP. LUCIANO CALDAS BIVAR</t>
+  </si>
+  <si>
+    <t>DEP. CYLMARA FERNANDES DA ROCHA GRIPP</t>
+  </si>
+  <si>
+    <t>DEP. MARX BELTRAO LIMA SIQUEIRA</t>
+  </si>
+  <si>
+    <t>DEP. MARIA PERPETUA DE ALMEIDA</t>
+  </si>
+  <si>
+    <t>SEN. SERGIO PETECAO</t>
+  </si>
+  <si>
+    <t>SEN. SORAYA THRONICKE</t>
+  </si>
+  <si>
+    <t>DEP. ULDURICO ALENCAR PINTO</t>
+  </si>
+  <si>
     <t>MISAEL VARELLA</t>
   </si>
   <si>
@@ -739,9 +1009,6 @@
     <t>AUREA CAROLINA</t>
   </si>
   <si>
-    <t>ANTONIO ANASTASIA</t>
-  </si>
-  <si>
     <t>JULIO DELGADO</t>
   </si>
   <si>
@@ -796,12 +1063,6 @@
     <t>NEWTON CARDOSO</t>
   </si>
   <si>
-    <t>CARLOS VIANA</t>
-  </si>
-  <si>
-    <t>RODRIGO PACHECO</t>
-  </si>
-  <si>
     <t>ZE SILVA</t>
   </si>
   <si>
@@ -844,12 +1105,6 @@
     <t>PADRE JOAO</t>
   </si>
   <si>
-    <t>BANCADA-SP</t>
-  </si>
-  <si>
-    <t>BANCADA-ES</t>
-  </si>
-  <si>
     <t>NEUCIMAR FRAGA</t>
   </si>
   <si>
@@ -865,15 +1120,9 @@
     <t>DA VITORIA</t>
   </si>
   <si>
-    <t>BANCADA-MA</t>
-  </si>
-  <si>
     <t>GASTAO VIEIRA</t>
   </si>
   <si>
-    <t>BANCADA-PA</t>
-  </si>
-  <si>
     <t>ALICE PORTUGAL</t>
   </si>
   <si>
@@ -946,202 +1195,7 @@
     <t>PERPETUA ALMEIDA</t>
   </si>
   <si>
-    <t>SERGIO PETECAO</t>
-  </si>
-  <si>
-    <t>SORAYA THRONICKE</t>
-  </si>
-  <si>
     <t>ULDURICO JUNIOR</t>
-  </si>
-  <si>
-    <t>LUIS HENRIQUE DE OLIVEIRA RESENDE</t>
-  </si>
-  <si>
-    <t>DIMAS FABIANO TOLEDO JUNIOR</t>
-  </si>
-  <si>
-    <t>NEUCIMAR FERREIRA FRAGA</t>
-  </si>
-  <si>
-    <t>EVAIR VIEIRA DE MELO</t>
-  </si>
-  <si>
-    <t>ALICE MAZZUCO PORTUGAL</t>
-  </si>
-  <si>
-    <t>CELSO SABINO DE OLIVEIRA</t>
-  </si>
-  <si>
-    <t>CONFUCIO AIRES MOURA</t>
-  </si>
-  <si>
-    <t>JOAO CHRISOSTOMO DE MOURA</t>
-  </si>
-  <si>
-    <t>EDNACE ALVES SILVESTRE HENRIQUE</t>
-  </si>
-  <si>
-    <t>ELIAS VAZ DE ANDRADE</t>
-  </si>
-  <si>
-    <t>EXPEDITO GONCALVES FERREIRA NETTO</t>
-  </si>
-  <si>
-    <t>FABIO DE ALMEIDA REIS</t>
-  </si>
-  <si>
-    <t>FLAVIA CAROLINA PERES</t>
-  </si>
-  <si>
-    <t>FLAVIANO FLAVIO BAPTISTA DE MELO</t>
-  </si>
-  <si>
-    <t>ELIESER GIRAO MONTEIRO FILHO</t>
-  </si>
-  <si>
-    <t>JOAO INACIO RIBEIRO ROMA NETO</t>
-  </si>
-  <si>
-    <t>JOENIA BATISTA DE CARVALHO</t>
-  </si>
-  <si>
-    <t>JOSE ANTONIO DOS SANTOS MEDEIROS</t>
-  </si>
-  <si>
-    <t>JOSE NUNES SOARES</t>
-  </si>
-  <si>
-    <t>JOSIVALDO DOS SANTOS MELO</t>
-  </si>
-  <si>
-    <t>GERALDO JUNIO DO AMARAL</t>
-  </si>
-  <si>
-    <t>JOSE LOURENCO BOMFIM JUNIOR</t>
-  </si>
-  <si>
-    <t>LEONARDO CUNHA DE BRITO</t>
-  </si>
-  <si>
-    <t>LEUR ANTONIO DE BRITTO LOMANTO JUNIOR</t>
-  </si>
-  <si>
-    <t>LUCIANO CALDAS BIVAR</t>
-  </si>
-  <si>
-    <t>CYLMARA FERNANDES DA ROCHA GRIPP</t>
-  </si>
-  <si>
-    <t>MARX BELTRAO LIMA SIQUEIRA</t>
-  </si>
-  <si>
-    <t>MARIA PERPETUA DE ALMEIDA</t>
-  </si>
-  <si>
-    <t>ULDURICO ALENCAR PINTO</t>
-  </si>
-  <si>
-    <t>SEN. ANTONIO ANASTASIA</t>
-  </si>
-  <si>
-    <t>DEP. LUIS HENRIQUE DE OLIVEIRA RESENDE</t>
-  </si>
-  <si>
-    <t>SEN. CARLOS VIANA</t>
-  </si>
-  <si>
-    <t>SEN. RODRIGO PACHECO</t>
-  </si>
-  <si>
-    <t>DEP. DIMAS FABIANO TOLEDO JUNIOR</t>
-  </si>
-  <si>
-    <t>DEP. NEUCIMAR FERREIRA FRAGA</t>
-  </si>
-  <si>
-    <t>DEP. EVAIR VIEIRA DE MELO</t>
-  </si>
-  <si>
-    <t>DEP. ALICE MAZZUCO PORTUGAL</t>
-  </si>
-  <si>
-    <t>DEP. CELSO SABINO DE OLIVEIRA</t>
-  </si>
-  <si>
-    <t>SEN. CONFUCIO AIRES MOURA</t>
-  </si>
-  <si>
-    <t>DEP. JOAO CHRISOSTOMO DE MOURA</t>
-  </si>
-  <si>
-    <t>DEP. EDNACE ALVES SILVESTRE HENRIQUE</t>
-  </si>
-  <si>
-    <t>DEP. ELIAS VAZ DE ANDRADE</t>
-  </si>
-  <si>
-    <t>DEP. EXPEDITO GONCALVES FERREIRA NETTO</t>
-  </si>
-  <si>
-    <t>DEP. FABIO DE ALMEIDA REIS</t>
-  </si>
-  <si>
-    <t>DEP. FLAVIA CAROLINA PERES</t>
-  </si>
-  <si>
-    <t>DEP. FLAVIANO FLAVIO BAPTISTA DE MELO</t>
-  </si>
-  <si>
-    <t>DEP. ELIESER GIRAO MONTEIRO FILHO</t>
-  </si>
-  <si>
-    <t>DEP. JOAO INACIO RIBEIRO ROMA NETO</t>
-  </si>
-  <si>
-    <t>DEP. JOENIA BATISTA DE CARVALHO</t>
-  </si>
-  <si>
-    <t>DEP. JOSE ANTONIO DOS SANTOS MEDEIROS</t>
-  </si>
-  <si>
-    <t>DEP. JOSE NUNES SOARES</t>
-  </si>
-  <si>
-    <t>DEP. JOSIVALDO DOS SANTOS MELO</t>
-  </si>
-  <si>
-    <t>DEP. GERALDO JUNIO DO AMARAL</t>
-  </si>
-  <si>
-    <t>DEP. JOSE LOURENCO BOMFIM JUNIOR</t>
-  </si>
-  <si>
-    <t>DEP. LEONARDO CUNHA DE BRITO</t>
-  </si>
-  <si>
-    <t>DEP. LEUR ANTONIO DE BRITTO LOMANTO JUNIOR</t>
-  </si>
-  <si>
-    <t>DEP. LUCIANO CALDAS BIVAR</t>
-  </si>
-  <si>
-    <t>DEP. CYLMARA FERNANDES DA ROCHA GRIPP</t>
-  </si>
-  <si>
-    <t>DEP. MARX BELTRAO LIMA SIQUEIRA</t>
-  </si>
-  <si>
-    <t>DEP. MARIA PERPETUA DE ALMEIDA</t>
-  </si>
-  <si>
-    <t>SEN. SERGIO PETECAO</t>
-  </si>
-  <si>
-    <t>SEN. SORAYA THRONICKE</t>
-  </si>
-  <si>
-    <t>DEP. ULDURICO ALENCAR PINTO</t>
   </si>
 </sst>
 </file>
@@ -1503,13 +1557,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S83"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1558,22 +1612,16 @@
       <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D2">
         <v>11200212</v>
@@ -1591,36 +1639,33 @@
         <v>223</v>
       </c>
       <c r="J2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K2" s="2">
         <v>44425</v>
       </c>
       <c r="L2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="P2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="Q2" t="s">
-        <v>219</v>
-      </c>
-      <c r="S2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D3">
         <v>18816356</v>
@@ -1629,27 +1674,24 @@
         <v>627.2118666666667</v>
       </c>
       <c r="J3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="P3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Q3" t="s">
-        <v>220</v>
-      </c>
-      <c r="S3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G4">
         <v>11</v>
@@ -1661,7 +1703,7 @@
         <v>11</v>
       </c>
       <c r="J4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K4" s="2">
         <v>44384</v>
@@ -1670,21 +1712,18 @@
         <v>44511</v>
       </c>
       <c r="M4" t="s">
-        <v>193</v>
-      </c>
-      <c r="O4" t="s">
-        <v>221</v>
-      </c>
-      <c r="S4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+        <v>191</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G5">
         <v>6</v>
@@ -1696,27 +1735,24 @@
         <v>5</v>
       </c>
       <c r="J5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N5" t="s">
-        <v>202</v>
-      </c>
-      <c r="O5" t="s">
-        <v>222</v>
-      </c>
-      <c r="S5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+        <v>200</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G6">
         <v>11</v>
@@ -1728,7 +1764,7 @@
         <v>11</v>
       </c>
       <c r="J6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K6" s="2">
         <v>44383</v>
@@ -1737,21 +1773,18 @@
         <v>44386</v>
       </c>
       <c r="M6" t="s">
-        <v>193</v>
-      </c>
-      <c r="O6" t="s">
-        <v>223</v>
-      </c>
-      <c r="S6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+        <v>191</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G7">
         <v>11</v>
@@ -1763,7 +1796,7 @@
         <v>11</v>
       </c>
       <c r="J7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K7" s="2">
         <v>44424</v>
@@ -1772,21 +1805,24 @@
         <v>44468</v>
       </c>
       <c r="M7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O7" t="s">
-        <v>224</v>
-      </c>
-      <c r="S7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+        <v>219</v>
+      </c>
+      <c r="P7" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G8">
         <v>11</v>
@@ -1798,7 +1834,7 @@
         <v>11</v>
       </c>
       <c r="J8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K8" s="2">
         <v>44384</v>
@@ -1807,27 +1843,24 @@
         <v>44482</v>
       </c>
       <c r="M8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O8" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="P8" t="s">
-        <v>225</v>
+        <v>268</v>
       </c>
       <c r="Q8" t="s">
-        <v>326</v>
-      </c>
-      <c r="S8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G9">
         <v>11</v>
@@ -1839,30 +1872,27 @@
         <v>9</v>
       </c>
       <c r="J9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K9" s="2">
         <v>44389</v>
       </c>
       <c r="M9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="N9" t="s">
-        <v>203</v>
-      </c>
-      <c r="O9" t="s">
-        <v>226</v>
-      </c>
-      <c r="S9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
+        <v>201</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G10">
         <v>11</v>
@@ -1874,7 +1904,7 @@
         <v>11</v>
       </c>
       <c r="J10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K10" s="2">
         <v>44391</v>
@@ -1883,21 +1913,18 @@
         <v>44425</v>
       </c>
       <c r="M10" t="s">
-        <v>194</v>
-      </c>
-      <c r="O10" t="s">
-        <v>227</v>
-      </c>
-      <c r="S10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+        <v>192</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G11">
         <v>11</v>
@@ -1909,7 +1936,7 @@
         <v>11</v>
       </c>
       <c r="J11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K11" s="2">
         <v>44389</v>
@@ -1918,21 +1945,24 @@
         <v>44391</v>
       </c>
       <c r="M11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O11" t="s">
-        <v>228</v>
-      </c>
-      <c r="S11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+        <v>221</v>
+      </c>
+      <c r="P11" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G12">
         <v>11</v>
@@ -1944,7 +1974,7 @@
         <v>11</v>
       </c>
       <c r="J12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K12" s="2">
         <v>44391</v>
@@ -1953,21 +1983,18 @@
         <v>44404</v>
       </c>
       <c r="M12" t="s">
-        <v>196</v>
-      </c>
-      <c r="O12" t="s">
-        <v>229</v>
-      </c>
-      <c r="S12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+        <v>194</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G13">
         <v>11</v>
@@ -1979,7 +2006,7 @@
         <v>11</v>
       </c>
       <c r="J13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K13" s="2">
         <v>44392</v>
@@ -1988,21 +2015,18 @@
         <v>44505</v>
       </c>
       <c r="M13" t="s">
-        <v>195</v>
-      </c>
-      <c r="O13" t="s">
-        <v>230</v>
-      </c>
-      <c r="S13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+        <v>193</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>11</v>
@@ -2014,7 +2038,7 @@
         <v>11</v>
       </c>
       <c r="J14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K14" s="2">
         <v>44389</v>
@@ -2023,21 +2047,18 @@
         <v>44419</v>
       </c>
       <c r="M14" t="s">
-        <v>197</v>
-      </c>
-      <c r="O14" t="s">
-        <v>231</v>
-      </c>
-      <c r="S14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
+        <v>195</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G15">
         <v>11</v>
@@ -2049,7 +2070,7 @@
         <v>11</v>
       </c>
       <c r="J15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K15" s="2">
         <v>44390</v>
@@ -2058,21 +2079,18 @@
         <v>44406</v>
       </c>
       <c r="M15" t="s">
-        <v>195</v>
-      </c>
-      <c r="O15" t="s">
-        <v>232</v>
-      </c>
-      <c r="S15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
+        <v>193</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G16">
         <v>11</v>
@@ -2084,7 +2102,7 @@
         <v>11</v>
       </c>
       <c r="J16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K16" s="2">
         <v>44389</v>
@@ -2093,21 +2111,18 @@
         <v>44477</v>
       </c>
       <c r="M16" t="s">
-        <v>198</v>
-      </c>
-      <c r="O16" t="s">
-        <v>233</v>
-      </c>
-      <c r="S16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
+        <v>196</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G17">
         <v>11</v>
@@ -2119,7 +2134,7 @@
         <v>11</v>
       </c>
       <c r="J17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K17" s="2">
         <v>44391</v>
@@ -2128,24 +2143,21 @@
         <v>44399</v>
       </c>
       <c r="M17" t="s">
-        <v>194</v>
-      </c>
-      <c r="O17" t="s">
-        <v>234</v>
-      </c>
-      <c r="S17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
+        <v>192</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G18">
         <v>11</v>
@@ -2157,7 +2169,7 @@
         <v>11</v>
       </c>
       <c r="J18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K18" s="2">
         <v>44386</v>
@@ -2166,21 +2178,24 @@
         <v>44456</v>
       </c>
       <c r="M18" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O18" t="s">
-        <v>235</v>
-      </c>
-      <c r="S18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
+        <v>222</v>
+      </c>
+      <c r="P18" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G19">
         <v>11</v>
@@ -2192,7 +2207,7 @@
         <v>11</v>
       </c>
       <c r="J19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K19" s="2">
         <v>44389</v>
@@ -2201,21 +2216,18 @@
         <v>44392</v>
       </c>
       <c r="M19" t="s">
-        <v>200</v>
-      </c>
-      <c r="O19" t="s">
-        <v>236</v>
-      </c>
-      <c r="S19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
+        <v>198</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G20">
         <v>11</v>
@@ -2227,7 +2239,7 @@
         <v>11</v>
       </c>
       <c r="J20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K20" s="2">
         <v>44414</v>
@@ -2235,19 +2247,16 @@
       <c r="L20" s="2">
         <v>44440</v>
       </c>
-      <c r="O20" t="s">
-        <v>237</v>
-      </c>
-      <c r="S20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
+      <c r="Q20" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G21">
         <v>11</v>
@@ -2259,33 +2268,30 @@
         <v>5</v>
       </c>
       <c r="J21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K21" s="2">
         <v>44418</v>
       </c>
       <c r="N21" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O21" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="P21" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="Q21" t="s">
         <v>327</v>
       </c>
-      <c r="S21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G22">
         <v>11</v>
@@ -2297,7 +2303,7 @@
         <v>11</v>
       </c>
       <c r="J22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K22" s="2">
         <v>44424</v>
@@ -2305,19 +2311,16 @@
       <c r="L22" s="2">
         <v>44435</v>
       </c>
-      <c r="O22" t="s">
-        <v>239</v>
-      </c>
-      <c r="S22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
+      <c r="Q22" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G23">
         <v>11</v>
@@ -2329,7 +2332,7 @@
         <v>11</v>
       </c>
       <c r="J23" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K23" s="2">
         <v>44428</v>
@@ -2337,19 +2340,16 @@
       <c r="L23" s="2">
         <v>44551</v>
       </c>
-      <c r="O23" t="s">
-        <v>240</v>
-      </c>
-      <c r="S23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19">
+      <c r="Q23" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G24">
         <v>10</v>
@@ -2361,7 +2361,7 @@
         <v>10</v>
       </c>
       <c r="J24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K24" s="2">
         <v>44431</v>
@@ -2369,19 +2369,16 @@
       <c r="L24" s="2">
         <v>44470</v>
       </c>
-      <c r="O24" t="s">
-        <v>241</v>
-      </c>
-      <c r="S24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19">
+      <c r="Q24" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G25">
         <v>11</v>
@@ -2393,27 +2390,24 @@
         <v>9</v>
       </c>
       <c r="J25" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K25" s="2">
         <v>44438</v>
       </c>
       <c r="N25" t="s">
-        <v>205</v>
-      </c>
-      <c r="O25" t="s">
-        <v>242</v>
-      </c>
-      <c r="S25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19">
+        <v>203</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="1">
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G26">
         <v>11</v>
@@ -2425,27 +2419,30 @@
         <v>10</v>
       </c>
       <c r="J26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K26" s="2">
         <v>44439</v>
       </c>
       <c r="N26" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O26" t="s">
-        <v>243</v>
-      </c>
-      <c r="S26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19">
+        <v>224</v>
+      </c>
+      <c r="P26" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="1">
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G27">
         <v>11</v>
@@ -2457,7 +2454,7 @@
         <v>11</v>
       </c>
       <c r="J27" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K27" s="2">
         <v>44439</v>
@@ -2466,24 +2463,21 @@
         <v>44453</v>
       </c>
       <c r="O27" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="P27" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="Q27" t="s">
-        <v>328</v>
-      </c>
-      <c r="S27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="1">
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G28">
         <v>11</v>
@@ -2495,7 +2489,7 @@
         <v>11</v>
       </c>
       <c r="J28" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K28" s="2">
         <v>44453</v>
@@ -2504,24 +2498,21 @@
         <v>44466</v>
       </c>
       <c r="O28" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="P28" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="Q28" t="s">
-        <v>329</v>
-      </c>
-      <c r="S28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="1">
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G29">
         <v>11</v>
@@ -2533,24 +2524,21 @@
         <v>11</v>
       </c>
       <c r="J29" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K29" s="2">
         <v>44459</v>
       </c>
-      <c r="O29" t="s">
-        <v>246</v>
-      </c>
-      <c r="S29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19">
+      <c r="Q29" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="1">
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G30">
         <v>11</v>
@@ -2562,27 +2550,24 @@
         <v>7</v>
       </c>
       <c r="J30" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K30" s="2">
         <v>44469</v>
       </c>
       <c r="N30" t="s">
-        <v>207</v>
-      </c>
-      <c r="O30" t="s">
-        <v>247</v>
-      </c>
-      <c r="S30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19">
+        <v>205</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="1">
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G31">
         <v>10</v>
@@ -2594,27 +2579,30 @@
         <v>7</v>
       </c>
       <c r="J31" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K31" s="2">
         <v>44474</v>
       </c>
       <c r="N31" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O31" t="s">
-        <v>248</v>
-      </c>
-      <c r="S31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19">
+        <v>227</v>
+      </c>
+      <c r="P31" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="1">
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G32">
         <v>11</v>
@@ -2626,7 +2614,7 @@
         <v>11</v>
       </c>
       <c r="J32" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K32" s="2">
         <v>44483</v>
@@ -2635,24 +2623,21 @@
         <v>44519</v>
       </c>
       <c r="O32" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="P32" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="Q32" t="s">
-        <v>330</v>
-      </c>
-      <c r="S32" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="1">
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G33">
         <v>11</v>
@@ -2664,24 +2649,21 @@
         <v>11</v>
       </c>
       <c r="J33" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K33" s="2">
         <v>44483</v>
       </c>
-      <c r="O33" t="s">
-        <v>250</v>
-      </c>
-      <c r="S33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19">
+      <c r="Q33" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" s="1">
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G34">
         <v>11</v>
@@ -2693,27 +2675,24 @@
         <v>6</v>
       </c>
       <c r="J34" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K34" s="2">
         <v>44483</v>
       </c>
       <c r="N34" t="s">
-        <v>209</v>
-      </c>
-      <c r="O34" t="s">
-        <v>251</v>
-      </c>
-      <c r="S34" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19">
+        <v>207</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" s="1">
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G35">
         <v>11</v>
@@ -2725,27 +2704,24 @@
         <v>4</v>
       </c>
       <c r="J35" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K35" s="2">
         <v>44483</v>
       </c>
       <c r="N35" t="s">
-        <v>210</v>
-      </c>
-      <c r="O35" t="s">
-        <v>252</v>
-      </c>
-      <c r="S35" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19">
+        <v>208</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" s="1">
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G36">
         <v>11</v>
@@ -2757,27 +2733,30 @@
         <v>9</v>
       </c>
       <c r="J36" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K36" s="2">
         <v>44484</v>
       </c>
       <c r="N36" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O36" t="s">
-        <v>253</v>
-      </c>
-      <c r="S36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19">
+        <v>229</v>
+      </c>
+      <c r="P36" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" s="1">
         <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G37">
         <v>11</v>
@@ -2789,7 +2768,7 @@
         <v>11</v>
       </c>
       <c r="J37" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K37" s="2">
         <v>44491</v>
@@ -2797,19 +2776,16 @@
       <c r="L37" s="2">
         <v>44546</v>
       </c>
-      <c r="O37" t="s">
-        <v>254</v>
-      </c>
-      <c r="S37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19">
+      <c r="Q37" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" s="1">
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G38">
         <v>11</v>
@@ -2821,27 +2797,30 @@
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K38" s="2">
         <v>44494</v>
       </c>
       <c r="N38" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O38" t="s">
-        <v>255</v>
-      </c>
-      <c r="S38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19">
+        <v>230</v>
+      </c>
+      <c r="P38" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" s="1">
         <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G39">
         <v>10</v>
@@ -2853,27 +2832,24 @@
         <v>9</v>
       </c>
       <c r="J39" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K39" s="2">
         <v>44504</v>
       </c>
       <c r="N39" t="s">
-        <v>206</v>
-      </c>
-      <c r="O39" t="s">
-        <v>256</v>
-      </c>
-      <c r="S39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19">
+        <v>204</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" s="1">
         <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G40">
         <v>11</v>
@@ -2885,27 +2861,24 @@
         <v>10</v>
       </c>
       <c r="J40" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K40" s="2">
         <v>44543</v>
       </c>
       <c r="N40" t="s">
-        <v>206</v>
-      </c>
-      <c r="O40" t="s">
-        <v>257</v>
-      </c>
-      <c r="S40" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19">
+        <v>204</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" s="1">
         <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G41">
         <v>11</v>
@@ -2917,24 +2890,27 @@
         <v>3</v>
       </c>
       <c r="J41" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K41" s="2">
         <v>44539</v>
       </c>
       <c r="O41" t="s">
-        <v>258</v>
-      </c>
-      <c r="S41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19">
+        <v>231</v>
+      </c>
+      <c r="P41" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" s="1">
         <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G42">
         <v>11</v>
@@ -2946,24 +2922,21 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N42" t="s">
-        <v>212</v>
-      </c>
-      <c r="O42" t="s">
-        <v>259</v>
-      </c>
-      <c r="S42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19">
+        <v>210</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" s="1">
         <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D43">
         <v>2240042</v>
@@ -2981,33 +2954,30 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="N43" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O43" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="P43" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="Q43" t="s">
-        <v>260</v>
-      </c>
-      <c r="S43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" s="1">
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C44" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D44">
         <v>8120154</v>
@@ -3019,24 +2989,21 @@
         <v>541.3436</v>
       </c>
       <c r="O44" t="s">
-        <v>261</v>
+        <v>233</v>
       </c>
       <c r="P44" t="s">
-        <v>261</v>
+        <v>233</v>
       </c>
       <c r="Q44" t="s">
-        <v>261</v>
-      </c>
-      <c r="S44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45" s="1">
         <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G45">
         <v>54</v>
@@ -3048,30 +3015,27 @@
         <v>50</v>
       </c>
       <c r="J45" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K45" s="2">
         <v>44469</v>
       </c>
       <c r="O45" t="s">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="P45" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="Q45" t="s">
-        <v>331</v>
-      </c>
-      <c r="S45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46" s="1">
         <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G46">
         <v>56</v>
@@ -3083,24 +3047,27 @@
         <v>30</v>
       </c>
       <c r="J46" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K46" s="2">
         <v>44469</v>
       </c>
       <c r="O46" t="s">
-        <v>263</v>
-      </c>
-      <c r="S46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19">
+        <v>235</v>
+      </c>
+      <c r="P46" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" s="1">
         <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G47">
         <v>19</v>
@@ -3112,24 +3079,27 @@
         <v>6</v>
       </c>
       <c r="J47" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K47" s="2">
         <v>44537</v>
       </c>
       <c r="O47" t="s">
-        <v>263</v>
-      </c>
-      <c r="S47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19">
+        <v>235</v>
+      </c>
+      <c r="P47" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48" s="1">
         <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G48">
         <v>28</v>
@@ -3141,27 +3111,24 @@
         <v>24</v>
       </c>
       <c r="J48" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K48" s="2">
         <v>44414</v>
       </c>
       <c r="N48" t="s">
-        <v>207</v>
-      </c>
-      <c r="O48" t="s">
-        <v>264</v>
-      </c>
-      <c r="S48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19">
+        <v>205</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49" s="1">
         <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G49">
         <v>169</v>
@@ -3173,30 +3140,27 @@
         <v>126</v>
       </c>
       <c r="J49" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K49" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O49" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="P49" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="Q49" t="s">
-        <v>332</v>
-      </c>
-      <c r="S49" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50" s="1">
         <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G50">
         <v>117</v>
@@ -3208,30 +3172,27 @@
         <v>82</v>
       </c>
       <c r="J50" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K50" s="2">
         <v>44488</v>
       </c>
       <c r="O50" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="P50" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="Q50" t="s">
-        <v>332</v>
-      </c>
-      <c r="S50" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51" s="1">
         <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G51">
         <v>66</v>
@@ -3246,41 +3207,41 @@
         <v>44475</v>
       </c>
       <c r="O51" t="s">
-        <v>266</v>
-      </c>
-      <c r="S51" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19">
+        <v>237</v>
+      </c>
+      <c r="P51" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
       <c r="A52" s="1">
         <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D52">
         <v>750000</v>
       </c>
       <c r="O52" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="P52" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="Q52" t="s">
-        <v>267</v>
-      </c>
-      <c r="S52" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
       <c r="A53" s="1">
         <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G53">
         <v>20</v>
@@ -3292,27 +3253,24 @@
         <v>9</v>
       </c>
       <c r="J53" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K53" s="2">
         <v>44494</v>
       </c>
       <c r="N53" t="s">
-        <v>212</v>
-      </c>
-      <c r="O53" t="s">
-        <v>268</v>
-      </c>
-      <c r="S53" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19">
+        <v>210</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
       <c r="A54" s="1">
         <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D54">
         <v>1817820</v>
@@ -3333,114 +3291,102 @@
         <v>14</v>
       </c>
       <c r="J54" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K54" s="2">
         <v>44410</v>
       </c>
       <c r="M54" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O54" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="P54" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="Q54" t="s">
-        <v>269</v>
-      </c>
-      <c r="S54" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
       <c r="A55" s="1">
         <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="N55" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O55" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="P55" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="Q55" t="s">
-        <v>333</v>
-      </c>
-      <c r="S55" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
       <c r="A56" s="1">
         <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D56">
         <v>215340</v>
       </c>
       <c r="J56" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O56" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="P56" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="Q56" t="s">
-        <v>334</v>
-      </c>
-      <c r="S56" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
       <c r="A57" s="1">
         <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D57">
         <v>1050000</v>
       </c>
       <c r="J57" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O57" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="P57" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="Q57" t="s">
-        <v>335</v>
-      </c>
-      <c r="S57" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
       <c r="A58" s="1">
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C58" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D58">
         <v>200000</v>
@@ -3461,7 +3407,7 @@
         <v>10</v>
       </c>
       <c r="J58" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K58" s="2">
         <v>44412</v>
@@ -3470,30 +3416,27 @@
         <v>44475</v>
       </c>
       <c r="M58" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O58" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="P58" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="Q58" t="s">
-        <v>336</v>
-      </c>
-      <c r="S58" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
       <c r="A59" s="1">
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C59" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D59">
         <v>300000</v>
@@ -3514,7 +3457,7 @@
         <v>10</v>
       </c>
       <c r="J59" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K59" s="2">
         <v>44483</v>
@@ -3523,27 +3466,24 @@
         <v>44519</v>
       </c>
       <c r="O59" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="P59" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="Q59" t="s">
-        <v>330</v>
-      </c>
-      <c r="S59" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
       <c r="A60" s="1">
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C60" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D60">
         <v>300000</v>
@@ -3561,33 +3501,30 @@
         <v>12</v>
       </c>
       <c r="J60" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K60" s="2">
         <v>44382</v>
       </c>
       <c r="M60" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O60" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="P60" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="Q60" t="s">
-        <v>337</v>
-      </c>
-      <c r="S60" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
       <c r="A61" s="1">
         <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D61">
         <v>400000</v>
@@ -3605,33 +3542,30 @@
         <v>8</v>
       </c>
       <c r="J61" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K61" s="2">
         <v>44519</v>
       </c>
       <c r="N61" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O61" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="P61" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="Q61" t="s">
-        <v>338</v>
-      </c>
-      <c r="S61" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
       <c r="A62" s="1">
         <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D62">
         <v>339993</v>
@@ -3652,36 +3586,33 @@
         <v>3</v>
       </c>
       <c r="J62" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K62" s="2">
         <v>44483</v>
       </c>
       <c r="N62" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O62" t="s">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="P62" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="Q62" t="s">
-        <v>339</v>
-      </c>
-      <c r="S62" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
       <c r="A63" s="1">
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C63" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D63">
         <v>150000</v>
@@ -3699,7 +3630,7 @@
         <v>5</v>
       </c>
       <c r="J63" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K63" s="2">
         <v>44382</v>
@@ -3708,30 +3639,27 @@
         <v>44382</v>
       </c>
       <c r="M63" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O63" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="P63" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="Q63" t="s">
-        <v>340</v>
-      </c>
-      <c r="S63" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
       <c r="A64" s="1">
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C64" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D64">
         <v>1500000</v>
@@ -3752,33 +3680,30 @@
         <v>21</v>
       </c>
       <c r="J64" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="N64" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O64" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="P64" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="Q64" t="s">
-        <v>341</v>
-      </c>
-      <c r="S64" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
       <c r="A65" s="1">
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C65" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D65">
         <v>627190</v>
@@ -3796,33 +3721,30 @@
         <v>21</v>
       </c>
       <c r="J65" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K65" s="2">
         <v>44435</v>
       </c>
       <c r="O65" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="P65" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="Q65" t="s">
-        <v>342</v>
-      </c>
-      <c r="S65" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
       <c r="A66" s="1">
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C66" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D66">
         <v>300000</v>
@@ -3840,65 +3762,59 @@
         <v>8</v>
       </c>
       <c r="J66" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K66" s="2">
         <v>44382</v>
       </c>
       <c r="M66" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="N66" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O66" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="P66" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="Q66" t="s">
-        <v>343</v>
-      </c>
-      <c r="S66" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
       <c r="A67" s="1">
         <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D67">
         <v>1029986</v>
       </c>
       <c r="J67" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O67" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="P67" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="Q67" t="s">
-        <v>344</v>
-      </c>
-      <c r="S67" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
       <c r="A68" s="1">
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C68" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D68">
         <v>440000</v>
@@ -3916,62 +3832,56 @@
         <v>8</v>
       </c>
       <c r="J68" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L68" s="2">
         <v>44377</v>
       </c>
       <c r="M68" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O68" t="s">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="P68" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="Q68" t="s">
-        <v>345</v>
-      </c>
-      <c r="S68" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
       <c r="A69" s="1">
         <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D69">
         <v>659340</v>
       </c>
       <c r="J69" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O69" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="P69" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="Q69" t="s">
-        <v>346</v>
-      </c>
-      <c r="S69" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
       <c r="A70" s="1">
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C70" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D70">
         <v>300000</v>
@@ -3986,30 +3896,27 @@
         <v>0</v>
       </c>
       <c r="N70" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O70" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="P70" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="Q70" t="s">
-        <v>347</v>
-      </c>
-      <c r="S70" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
       <c r="A71" s="1">
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C71" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D71">
         <v>150000</v>
@@ -4027,7 +3934,7 @@
         <v>8</v>
       </c>
       <c r="J71" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K71" s="2">
         <v>44384</v>
@@ -4036,27 +3943,24 @@
         <v>44495</v>
       </c>
       <c r="M71" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O71" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="P71" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="Q71" t="s">
-        <v>348</v>
-      </c>
-      <c r="S71" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
       <c r="A72" s="1">
         <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D72">
         <v>300000</v>
@@ -4077,7 +3981,7 @@
         <v>10</v>
       </c>
       <c r="J72" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K72" s="2">
         <v>44418</v>
@@ -4086,27 +3990,24 @@
         <v>44552</v>
       </c>
       <c r="O72" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="P72" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="Q72" t="s">
-        <v>349</v>
-      </c>
-      <c r="S72" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
       <c r="A73" s="1">
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C73" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D73">
         <v>500000</v>
@@ -4127,33 +4028,30 @@
         <v>9</v>
       </c>
       <c r="J73" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="N73" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O73" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="P73" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="Q73" t="s">
-        <v>350</v>
-      </c>
-      <c r="S73" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
       <c r="A74" s="1">
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C74" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D74">
         <v>600000</v>
@@ -4168,30 +4066,27 @@
         <v>0</v>
       </c>
       <c r="N74" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O74" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="P74" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="Q74" t="s">
-        <v>351</v>
-      </c>
-      <c r="S74" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
       <c r="A75" s="1">
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C75" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D75">
         <v>100000</v>
@@ -4212,7 +4107,7 @@
         <v>4</v>
       </c>
       <c r="J75" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K75" s="2">
         <v>44389</v>
@@ -4221,30 +4116,27 @@
         <v>44405</v>
       </c>
       <c r="M75" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O75" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="P75" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="Q75" t="s">
-        <v>352</v>
-      </c>
-      <c r="S75" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
       <c r="A76" s="1">
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C76" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D76">
         <v>300000</v>
@@ -4259,7 +4151,7 @@
         <v>10</v>
       </c>
       <c r="J76" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K76" s="2">
         <v>44469</v>
@@ -4268,27 +4160,24 @@
         <v>44517</v>
       </c>
       <c r="O76" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="P76" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="Q76" t="s">
-        <v>353</v>
-      </c>
-      <c r="S76" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
       <c r="A77" s="1">
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C77" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D77">
         <v>300000</v>
@@ -4309,36 +4198,33 @@
         <v>3</v>
       </c>
       <c r="J77" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K77" s="2">
         <v>44497</v>
       </c>
       <c r="N77" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O77" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="P77" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="Q77" t="s">
         <v>327</v>
       </c>
-      <c r="S77" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19">
+    </row>
+    <row r="78" spans="1:17">
       <c r="A78" s="1">
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C78" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D78">
         <v>600000</v>
@@ -4356,7 +4242,7 @@
         <v>30</v>
       </c>
       <c r="J78" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K78" s="2">
         <v>44421</v>
@@ -4365,24 +4251,21 @@
         <v>44453</v>
       </c>
       <c r="O78" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="P78" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="Q78" t="s">
-        <v>354</v>
-      </c>
-      <c r="S78" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
       <c r="A79" s="1">
         <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D79">
         <v>300000</v>
@@ -4400,7 +4283,7 @@
         <v>10</v>
       </c>
       <c r="J79" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K79" s="2">
         <v>44421</v>
@@ -4409,27 +4292,24 @@
         <v>44503</v>
       </c>
       <c r="O79" t="s">
-        <v>292</v>
+        <v>262</v>
       </c>
       <c r="P79" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="Q79" t="s">
-        <v>355</v>
-      </c>
-      <c r="S79" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
       <c r="A80" s="1">
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C80" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D80">
         <v>606996</v>
@@ -4450,33 +4330,30 @@
         <v>25</v>
       </c>
       <c r="J80" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K80" s="2">
         <v>44496</v>
       </c>
       <c r="O80" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="P80" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="Q80" t="s">
-        <v>356</v>
-      </c>
-      <c r="S80" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
       <c r="A81" s="1">
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C81" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D81">
         <v>417600</v>
@@ -4497,7 +4374,7 @@
         <v>21</v>
       </c>
       <c r="J81" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K81" s="2">
         <v>44457</v>
@@ -4506,24 +4383,21 @@
         <v>44491</v>
       </c>
       <c r="O81" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="P81" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="Q81" t="s">
-        <v>357</v>
-      </c>
-      <c r="S81" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17">
       <c r="A82" s="1">
         <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D82">
         <v>500000</v>
@@ -4550,30 +4424,27 @@
         <v>44468</v>
       </c>
       <c r="N82" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O82" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="P82" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="Q82" t="s">
-        <v>358</v>
-      </c>
-      <c r="S82" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
       <c r="A83" s="1">
         <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C83" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D83">
         <v>450000</v>
@@ -4588,19 +4459,16 @@
         <v>0</v>
       </c>
       <c r="N83" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O83" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
       <c r="P83" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="Q83" t="s">
-        <v>359</v>
-      </c>
-      <c r="S83" t="b">
-        <v>0</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
